--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8263518223330697</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06610814578664558</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06115574960149644</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008444986961587358</v>
+        <v>0.01156248072681956</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0001688890588665282</v>
+        <v>0.001849206099983326</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007003060820920465</v>
+        <v>0.0007842937649677569</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002047436972615876</v>
+        <v>0.006377475261097387</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007637716201508786</v>
+        <v>0.0007767613970848427</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006105104870291006</v>
+        <v>0.01149754582085927</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008001087164046365</v>
+        <v>0.0007733995834994472</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009000000000000008</v>
+        <v>0.001849206099983326</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008015374331550809</v>
+        <v>0.0007842937649677569</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003547713308063971</v>
+        <v>0.004205565508927062</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001400612164184093</v>
+        <v>0.001568587529935514</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004094327598560543</v>
+        <v>0.01204695235742956</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001527543240301757</v>
+        <v>0.001553522794169685</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009999999999999981</v>
+        <v>0.02167574690564217</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001414967431322569</v>
+        <v>0.001546799166998894</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0142170746808904</v>
+        <v>0.004205565508927062</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001489034720260388</v>
+        <v>0.001568587529935514</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005035298526588551</v>
+        <v>0.006103003886888538</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002100918246276139</v>
+        <v>0.002352881294903271</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006191671864275522</v>
+        <v>0.01750584514158079</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002291314860452636</v>
+        <v>0.002330284191254528</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01436618179282412</v>
+        <v>0.03006353319451921</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00240032614921391</v>
+        <v>0.002320198750498342</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0201349296232366</v>
+        <v>0.006103003886888538</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002233552080390582</v>
+        <v>0.002352881294903271</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.007475446893925139</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002814995653862453</v>
+        <v>0.003137175059871028</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007890469756202279</v>
+        <v>0.02155156746613526</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003055086480603514</v>
+        <v>0.003107045588339371</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01835343426747688</v>
+        <v>0.03899999999999998</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003200434865618546</v>
+        <v>0.003280366161616159</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02567347293957412</v>
+        <v>0.007475446893925139</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002978069440520775</v>
+        <v>0.003137175059871028</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002814995653862453</v>
+        <v>0.004542045454545451</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00704631371501184</v>
+        <v>0.009156820190094207</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003501530410460232</v>
+        <v>0.003921468824838785</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009441721260782347</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003818858100754393</v>
+        <v>0.003633636363636358</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02104560746252396</v>
+        <v>0.04151287543493704</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004000543582023182</v>
+        <v>0.003866997917497236</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03045073080863259</v>
+        <v>0.009156820190094207</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003722586800650969</v>
+        <v>0.003921468824838785</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007804374930601328</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004201836492552279</v>
+        <v>0.004542045454545451</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0106964263644572</v>
+        <v>0.0268177232784225</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004582629720905272</v>
+        <v>0.004660568382509056</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02427168537675739</v>
+        <v>0.04579307396496468</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00480065229842782</v>
+        <v>0.004640397500996683</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03528472940914168</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004467104160781163</v>
+        <v>0.004542045454545451</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007472503806374022</v>
+        <v>0.01091794944043802</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004902142574644325</v>
+        <v>0.005490056354774299</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.012</v>
+        <v>0.02877182673393158</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005450454545454543</v>
+        <v>0.005437329779593899</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02716065200896919</v>
+        <v>0.04830092470405795</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005600761014832456</v>
+        <v>0.00541379708449613</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03979349491983092</v>
+        <v>0.01091794944043802</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005211621520911356</v>
+        <v>0.005490056354774299</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00906959827636801</v>
+        <v>0.01164817285716335</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005602448656736372</v>
+        <v>0.006274350119742055</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01252170327255131</v>
+        <v>0.03075660120948354</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006110172961207029</v>
+        <v>0.006214091176678742</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0295414913579515</v>
+        <v>0.05104053412806775</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006400869731237092</v>
+        <v>0.006187196667995578</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04409505351942999</v>
+        <v>0.01164817285716335</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00595613888104155</v>
+        <v>0.006274350119742055</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009614556274621405</v>
+        <v>0.01219417904570878</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006302754738828418</v>
+        <v>0.007058643884709813</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01281145589786642</v>
+        <v>0.03192419888057652</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006873944581357906</v>
+        <v>0.006990852573763584</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03244318742249619</v>
+        <v>0.05411600871284505</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007200978447641729</v>
+        <v>0.006960596251495026</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04880743138666865</v>
+        <v>0.01219417904570878</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006700656241171744</v>
+        <v>0.007058643884709813</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008126275735172266</v>
+        <v>0.01267198848192307</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007003060820920465</v>
+        <v>0.00784293764967757</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01331034079144348</v>
+        <v>0.0340267719227087</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007637716201508785</v>
+        <v>0.007767613970848427</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03419472420139538</v>
+        <v>0.05730159255302764</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008001087164046364</v>
+        <v>0.008032914752891815</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05184865470027628</v>
+        <v>0.01267198848192307</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007445173601301937</v>
+        <v>0.00784293764967757</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01062365459205872</v>
+        <v>0.0134976216416549</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007703366903012511</v>
+        <v>0.008627231414645326</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01375158503569932</v>
+        <v>0.03491647251137822</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008401487821659665</v>
+        <v>0.008544375367933271</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0362877612799673</v>
+        <v>0.05790722326440878</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008557666727793666</v>
+        <v>0.008507395418493919</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05730159255302764</v>
+        <v>0.0134976216416549</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008505439150120746</v>
+        <v>0.008627231414645326</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.01398709900075307</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008444986961587358</v>
+        <v>0.009411525179613084</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01386841571305061</v>
+        <v>0.0362877612799673</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009165259441810543</v>
+        <v>0.009156703398739221</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03836413698148436</v>
+        <v>0.06016520546008736</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009601304596855639</v>
+        <v>0.009280795001993367</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05883183386777685</v>
+        <v>0.01398709900075307</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008934208321562326</v>
+        <v>0.009411525179613084</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0116447297790777</v>
+        <v>0.01435644103506629</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009103979067196604</v>
+        <v>0.01019581894458084</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01419405990591417</v>
+        <v>0.0377654197363636</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009929031061961422</v>
+        <v>0.01009789816210296</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04121649668518063</v>
+        <v>0.06161293791135097</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01040141331326027</v>
+        <v>0.01005419458549281</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06162736516797607</v>
+        <v>0.01435644103506629</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009678725681692519</v>
+        <v>0.01019581894458084</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01117833626993577</v>
+        <v>0.01492166822044333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00980428514928865</v>
+        <v>0.0109801127095486</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01476174469670673</v>
+        <v>0.03878478706148181</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0106928026821123</v>
+        <v>0.0108746595591878</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04327594925287118</v>
+        <v>0.0642488796253764</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01120152202966491</v>
+        <v>0.01082759416899226</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0646326244173282</v>
+        <v>0.01492166822044333</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01042324304182271</v>
+        <v>0.0109801127095486</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01272333756846558</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0105045912313807</v>
+        <v>0.01156248072681956</v>
       </c>
       <c r="J80" t="n">
+        <v>0.03950262448886402</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.01165142095627264</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.06587148960934053</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.01160099375249171</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.01527393000690699</v>
       </c>
-      <c r="K80" t="n">
+      <c r="O80" t="n">
         <v>0.01156248072681956</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.04523014794813013</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.01200163074606955</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.06823309090017682</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.01116776040195291</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01327667282846182</v>
+        <v>0.01588582261042458</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01120489731347274</v>
+        <v>0.01254870023948411</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01565583593168805</v>
+        <v>0.04081761595552438</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01222034592241406</v>
+        <v>0.01242818235335748</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04746674603453171</v>
+        <v>0.06707922687042051</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01280173946247418</v>
+        <v>0.01237439333599116</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07181424390086533</v>
+        <v>0.01588582261042458</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0119122777620831</v>
+        <v>0.01254870023948411</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01183528120371914</v>
+        <v>0.01628028962830623</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01190520339556479</v>
+        <v>0.01333299400445187</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01631942806086784</v>
+        <v>0.04262844539847707</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01298411754256494</v>
+        <v>0.01320494375044233</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04907339677565023</v>
+        <v>0.06917055041579312</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01360184817887882</v>
+        <v>0.0131477929194906</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07456156270373698</v>
+        <v>0.01628028962830623</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01265679512221329</v>
+        <v>0.01333299400445187</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01239610184803221</v>
+        <v>0.01658064997587497</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01260550947765684</v>
+        <v>0.01411728776941963</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01717958924377808</v>
+        <v>0.04353379675473629</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01374788916271581</v>
+        <v>0.01398170514752717</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05133775343505986</v>
+        <v>0.07104391925263526</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01440195689528346</v>
+        <v>0.01392119250299005</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07766052659313516</v>
+        <v>0.01658064997587497</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01340131248234349</v>
+        <v>0.01411728776941963</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0149560739151957</v>
+        <v>0.01708591983429103</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01330581555974888</v>
+        <v>0.01490158153438738</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01802028530326823</v>
+        <v>0.04483235396131618</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01451166078286669</v>
+        <v>0.01475846654461201</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05374746927633484</v>
+        <v>0.07279779238812401</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01520206561168809</v>
+        <v>0.0146945920864895</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08009661485340336</v>
+        <v>0.01708591983429103</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01414582984247368</v>
+        <v>0.01490158153438738</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01451213655900425</v>
+        <v>0.01759511538471474</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01400612164184093</v>
+        <v>0.01568587529935514</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01872548206218769</v>
+        <v>0.04622280095523099</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01527543240301757</v>
+        <v>0.01553522794169685</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05539019756304933</v>
+        <v>0.07453062882943629</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01600217432809273</v>
+        <v>0.01546799166998894</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08385530676888486</v>
+        <v>0.01759511538471474</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01489034720260387</v>
+        <v>0.01568587529935514</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01406122893325257</v>
+        <v>0.01830725280830636</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01470642772393298</v>
+        <v>0.0164701690643229</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01977914534338593</v>
+        <v>0.04690382167349486</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01603920402316845</v>
+        <v>0.0163119893387817</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0572535915587776</v>
+        <v>0.07674088758374886</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01680228304449737</v>
+        <v>0.01624139125348839</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08702208162392316</v>
+        <v>0.01830725280830636</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01563486456273407</v>
+        <v>0.0164701690643229</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01660029019173529</v>
+        <v>0.01892134828622614</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01540673380602502</v>
+        <v>0.01725446282929065</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02086524096971236</v>
+        <v>0.04857410005312196</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01680297564331933</v>
+        <v>0.01708875073586654</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05922530452709385</v>
+        <v>0.07862702765823881</v>
       </c>
       <c r="M87" t="n">
-        <v>0.017602391760902</v>
+        <v>0.01701479083698784</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08968241870286153</v>
+        <v>0.01892134828622614</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01637938192286426</v>
+        <v>0.01725446282929065</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0171262594882471</v>
+        <v>0.01923641799963439</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01610703988811707</v>
+        <v>0.01803875659425841</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02166773476401641</v>
+        <v>0.04973232003112651</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01756674726347021</v>
+        <v>0.01786551213295138</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06079298973157229</v>
+        <v>0.08068750806008307</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01840250047730664</v>
+        <v>0.01778819042048729</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09242179729004346</v>
+        <v>0.01923641799963439</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01712389928299446</v>
+        <v>0.01803875659425841</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01563607597658265</v>
+        <v>0.0196514781296914</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01680734597020912</v>
+        <v>0.01882305035922617</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02277059254914753</v>
+        <v>0.05027716554452272</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01833051888362109</v>
+        <v>0.01864227353003622</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0626443004357872</v>
+        <v>0.08192078779645851</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01920260919371128</v>
+        <v>0.01856159000398673</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09432569666981228</v>
+        <v>0.0196514781296914</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01786841664312465</v>
+        <v>0.01882305035922617</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01712667881053661</v>
+        <v>0.0202655448575574</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01750765205230116</v>
+        <v>0.01960734412419392</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02365778014795512</v>
+        <v>0.05190732053032465</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01909429050377196</v>
+        <v>0.01941903492712107</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06406688990331272</v>
+        <v>0.08442532587454216</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02000271791011591</v>
+        <v>0.01933498958748618</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09677959612651132</v>
+        <v>0.0202655448575574</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01861293400325484</v>
+        <v>0.01960734412419392</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01659500714390364</v>
+        <v>0.02087763436439269</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01820795813439321</v>
+        <v>0.02039163788916168</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02471326338328864</v>
+        <v>0.05272146892554655</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01985806212392284</v>
+        <v>0.02019579632420591</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06504841139772305</v>
+        <v>0.0851995813015109</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02080282662652055</v>
+        <v>0.02010838917098563</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0983689749444841</v>
+        <v>0.02087763436439269</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01935745136338504</v>
+        <v>0.02039163788916168</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01903800013047843</v>
+        <v>0.02138676283135756</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01890826421648525</v>
+        <v>0.02117593165412944</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02572100807799751</v>
+        <v>0.05391829466720263</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02062183374407372</v>
+        <v>0.02097255772129075</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06637651818259252</v>
+        <v>0.08744201308454158</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02160293534292518</v>
+        <v>0.02088178875448507</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1003793124080739</v>
+        <v>0.02138676283135756</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02010196872351523</v>
+        <v>0.02117593165412944</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01745259692405562</v>
+        <v>0.02169194643961228</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0196085702985773</v>
+        <v>0.02196022541909719</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02636498005493115</v>
+        <v>0.05489648169230707</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0213856053642246</v>
+        <v>0.0217493191183756</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06733886352149526</v>
+        <v>0.08845108023081133</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02240304405932982</v>
+        <v>0.02165518833798452</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1026960878016241</v>
+        <v>0.02169194643961228</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02084648608364542</v>
+        <v>0.02196022541909719</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0198357366784299</v>
+        <v>0.0224922013703171</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02030887638066935</v>
+        <v>0.02274451918406495</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02712914513693902</v>
+        <v>0.05595471393787402</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02214937698437548</v>
+        <v>0.02252608051546044</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06782310067800548</v>
+        <v>0.09002524174749699</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02320315277573446</v>
+        <v>0.02242858792148397</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1049047804094782</v>
+        <v>0.0224922013703171</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02159100344377562</v>
+        <v>0.02274451918406495</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0181843585473959</v>
+        <v>0.02268654380463232</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02100918246276139</v>
+        <v>0.02352881294903271</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02799746914687054</v>
+        <v>0.05689167534091769</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02291314860452636</v>
+        <v>0.02330284191254528</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0687168829156975</v>
+        <v>0.09166295664177537</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02400326149213909</v>
+        <v>0.02320198750498342</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1057908695159794</v>
+        <v>0.02268654380463232</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02233552080390581</v>
+        <v>0.02352881294903271</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01949540168474832</v>
+        <v>0.02347398992371823</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02170948854485344</v>
+        <v>0.02431310671400047</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02835391790757512</v>
+        <v>0.05810604983845225</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02367692022467724</v>
+        <v>0.02407960330963013</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06880786349814541</v>
+        <v>0.09296268392082363</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02480337020854373</v>
+        <v>0.02397538708848286</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1063398344054713</v>
+        <v>0.02347398992371823</v>
       </c>
       <c r="O96" t="n">
-        <v>0.023080038164036</v>
+        <v>0.02431310671400047</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01976580524428183</v>
+        <v>0.02395355590873507</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02240979462694549</v>
+        <v>0.02509740047896822</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02888245724190222</v>
+        <v>0.05929652136749186</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02444069184482811</v>
+        <v>0.02485636470671497</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06868369568892355</v>
+        <v>0.0952228825918186</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02560347892494837</v>
+        <v>0.02474878667198231</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1074371543622971</v>
+        <v>0.02395355590873507</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0238245555241662</v>
+        <v>0.02509740047896822</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02099250837979107</v>
+        <v>0.02412425794084316</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02311010070903753</v>
+        <v>0.02588169424393598</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02906705297270126</v>
+        <v>0.05996177386505072</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02520446346497899</v>
+        <v>0.02563312610379981</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06934550378402057</v>
+        <v>0.0961420116619372</v>
       </c>
       <c r="M98" t="n">
-        <v>0.026403587641353</v>
+        <v>0.02552218625548176</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1088683086708003</v>
+        <v>0.02412425794084316</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02456907288429639</v>
+        <v>0.02588169424393598</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02017245024507072</v>
+        <v>0.02458511220120276</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02381040679112958</v>
+        <v>0.02666598800890373</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02939167092282166</v>
+        <v>0.061000491268143</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02596823508512987</v>
+        <v>0.02640988750088465</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06853263621079478</v>
+        <v>0.09801853013835632</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02720369635775764</v>
+        <v>0.0262955858389812</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1092187766153243</v>
+        <v>0.02458511220120276</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02531359024442659</v>
+        <v>0.02666598800890373</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02030256999391542</v>
+        <v>0.0252351348709741</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02451071287322162</v>
+        <v>0.02745028177387149</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02937076995181209</v>
+        <v>0.06191135751378293</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02673200670528075</v>
+        <v>0.02718664889796949</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06816530610580238</v>
+        <v>0.09845089702825299</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02800380507416228</v>
+        <v>0.02706898542248065</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1092770324966774</v>
+        <v>0.0252351348709741</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02605810760455678</v>
+        <v>0.02745028177387149</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02037980678011989</v>
+        <v>0.02547334213131755</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02521101895531367</v>
+        <v>0.02823457553883925</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02916939806310691</v>
+        <v>0.06249305653898463</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02749577832543162</v>
+        <v>0.02796341029505434</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06816209648277233</v>
+        <v>0.09973757133880412</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02880391379056691</v>
+        <v>0.0278423850059801</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1080821523883446</v>
+        <v>0.02547334213131755</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02680262496468698</v>
+        <v>0.02823457553883925</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02140138917940455</v>
+        <v>0.02609875016339332</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02591132503740572</v>
+        <v>0.02901886930380701</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02879943275605668</v>
+        <v>0.06354427228076232</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02825954994558251</v>
+        <v>0.02874017169213918</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06704159035543358</v>
+        <v>0.1018770120771867</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02960402250697155</v>
+        <v>0.02861578458947955</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1080676979358238</v>
+        <v>0.02609875016339332</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02754714232481717</v>
+        <v>0.02901886930380701</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02138599911597699</v>
+        <v>0.0265103751483617</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02661163111949777</v>
+        <v>0.02980316306877476</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02857050713425971</v>
+        <v>0.0641636886761302</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02902332156573338</v>
+        <v>0.02951693308922403</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06662237073751504</v>
+        <v>0.1027676782505775</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03040413122337619</v>
+        <v>0.02938918417297899</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1072560924498834</v>
+        <v>0.0265103751483617</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02829165968494736</v>
+        <v>0.02980316306877476</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01934749894268107</v>
+        <v>0.02680723326738295</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02731193720158981</v>
+        <v>0.03058745683374252</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02839225430131441</v>
+        <v>0.06494998966210236</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02978709318588426</v>
+        <v>0.03029369448630887</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06542302064274569</v>
+        <v>0.1034080288661537</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03120423993978082</v>
+        <v>0.03016258375647844</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1068697592412921</v>
+        <v>0.02680723326738295</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02903617704507756</v>
+        <v>0.03058745683374252</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02128760007525939</v>
+        <v>0.0273883407016174</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02801224328368186</v>
+        <v>0.03137175059871028</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0281743073608192</v>
+        <v>0.0660018591756931</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03055086480603514</v>
+        <v>0.03107045588339371</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0646621230848545</v>
+        <v>0.105496522931092</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03200434865618546</v>
+        <v>0.03093598333997789</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1053311216208183</v>
+        <v>0.0273883407016174</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02978069440520775</v>
+        <v>0.03137175059871028</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0202080139294546</v>
+        <v>0.02745271363222528</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02871254936577391</v>
+        <v>0.03215604436367803</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02782629941637241</v>
+        <v>0.06701798115391649</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03131463642618602</v>
+        <v>0.03184721728047855</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06435826107757031</v>
+        <v>0.1065316194525694</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0328044573725901</v>
+        <v>0.03170938292347734</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1051626028992306</v>
+        <v>0.02745271363222528</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03052521176533795</v>
+        <v>0.03215604436367803</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01911045192100926</v>
+        <v>0.02809936824036688</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02941285544786595</v>
+        <v>0.03294033812864579</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02755786357157247</v>
+        <v>0.06769703953378683</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0320784080463369</v>
+        <v>0.03262397867756339</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06343001763462217</v>
+        <v>0.1072117774377629</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03360456608899474</v>
+        <v>0.03248278250697678</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1038866263872972</v>
+        <v>0.02809936824036688</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03126972912546814</v>
+        <v>0.03294033812864579</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.020996625465666</v>
+        <v>0.02832732070720248</v>
       </c>
       <c r="G108" t="n">
-        <v>0.030113161529958</v>
+        <v>0.03372463189361355</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0269786329300177</v>
+        <v>0.06833771825231824</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03284217966648778</v>
+        <v>0.03340074007464824</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06239597576973896</v>
+        <v>0.1076354558938495</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03440467480539937</v>
+        <v>0.03325618209047623</v>
       </c>
       <c r="N108" t="n">
-        <v>0.102625615395787</v>
+        <v>0.02832732070720248</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03201424648559834</v>
+        <v>0.03372463189361355</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01886824597916744</v>
+        <v>0.02863558721389235</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03081346761205004</v>
+        <v>0.0345089256585813</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02669824059530654</v>
+        <v>0.06843870124652487</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03360595128663866</v>
+        <v>0.03417750147173308</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06147471849664962</v>
+        <v>0.1091011138280061</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03520478352180401</v>
+        <v>0.03402958167397568</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1005019932354683</v>
+        <v>0.02863558721389235</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03275876384572853</v>
+        <v>0.0345089256585813</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01872702487725617</v>
+        <v>0.02882318394159677</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03151377369414209</v>
+        <v>0.03529321942354906</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02622631967103735</v>
+        <v>0.06889867245342096</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03436972290678954</v>
+        <v>0.03495426286881792</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06038482882908314</v>
+        <v>0.1097072102474094</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03600489223820864</v>
+        <v>0.03480298125747513</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09953818321710944</v>
+        <v>0.02882318394159677</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03350328120585871</v>
+        <v>0.03529321942354906</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01857467357567482</v>
+        <v>0.02898912707147602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03221407977623414</v>
+        <v>0.03607751318851682</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02577250326080852</v>
+        <v>0.07001631581002066</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03513349452694042</v>
+        <v>0.03573102426590277</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05974488978076842</v>
+        <v>0.1104522041592366</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03680500095461327</v>
+        <v>0.03557638084097457</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09855660865147908</v>
+        <v>0.02898912707147602</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03424779856598891</v>
+        <v>0.03607751318851682</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01841290349016598</v>
+        <v>0.02943243278469039</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03291438585832619</v>
+        <v>0.03686180695348457</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02554642446821838</v>
+        <v>0.07029031525333815</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03589726614709129</v>
+        <v>0.0365077856629876</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05907348436543441</v>
+        <v>0.1107345545706645</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03760510967101791</v>
+        <v>0.03634978042447402</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0971796928493458</v>
+        <v>0.02943243278469039</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03499231592611911</v>
+        <v>0.03686180695348457</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02024342603647227</v>
+        <v>0.02965211726240012</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03361469194041823</v>
+        <v>0.03764610071845233</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02545771639686541</v>
+        <v>0.07041935472038763</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03666103776724217</v>
+        <v>0.03728454706007245</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05818919559681004</v>
+        <v>0.1113527204888702</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03840521838742256</v>
+        <v>0.03712318000797347</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0953298591214779</v>
+        <v>0.02965211726240012</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0357368332862493</v>
+        <v>0.03764610071845233</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01806795263033629</v>
+        <v>0.02974719668576553</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03431499802251028</v>
+        <v>0.0384303944834201</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02511601215034789</v>
+        <v>0.07090211814818329</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03742480938739305</v>
+        <v>0.03806130845715729</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05731060648862429</v>
+        <v>0.1123051609210305</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03920532710382719</v>
+        <v>0.03789657959147291</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09382953077864403</v>
+        <v>0.02974719668576553</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03648135064637949</v>
+        <v>0.0384303944834201</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01888819468750066</v>
+        <v>0.02981668723594687</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03501530410460232</v>
+        <v>0.03921468824838785</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02493094483226427</v>
+        <v>0.07113728947373932</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03818858100754393</v>
+        <v>0.03883806985424214</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05735630005460607</v>
+        <v>0.1125903348743223</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04000543582023183</v>
+        <v>0.03866997917497236</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0932011311316126</v>
+        <v>0.02981668723594687</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03722586800650968</v>
+        <v>0.03921468824838785</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01870586362370799</v>
+        <v>0.02995960509410442</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03571561018669437</v>
+        <v>0.0399989820133556</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0249121475462129</v>
+        <v>0.07152355263406984</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03895235262769481</v>
+        <v>0.03961483125132698</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05674485930848436</v>
+        <v>0.1131067013559227</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04080554453663646</v>
+        <v>0.03944337875847181</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09186708349115214</v>
+        <v>0.02995960509410442</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03797038536663988</v>
+        <v>0.0399989820133556</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01752267085470088</v>
+        <v>0.03037496644139843</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03641591626878642</v>
+        <v>0.04078327577832336</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02456925339579219</v>
+        <v>0.07195959156618909</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03971612424784569</v>
+        <v>0.04039159264841182</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05619486726398804</v>
+        <v>0.1137527193730085</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04160565325304109</v>
+        <v>0.04021677834197126</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09044981116803114</v>
+        <v>0.03037496644139843</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03871490272677008</v>
+        <v>0.04078327577832336</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01934032779622195</v>
+        <v>0.03026178745898925</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03711622235087846</v>
+        <v>0.04156756954329112</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02458484709626504</v>
+        <v>0.07234409020711119</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04047989586799657</v>
+        <v>0.04116835404549666</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05630862092326316</v>
+        <v>0.1138268479327566</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04240576196944573</v>
+        <v>0.0409901779254707</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08977173747301803</v>
+        <v>0.03026178745898925</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03945942008690027</v>
+        <v>0.04156756954329112</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0191605458640138</v>
+        <v>0.03031908432803709</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03781652843297051</v>
+        <v>0.04235186330825887</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02473166071241623</v>
+        <v>0.07177573249385041</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04124366748814744</v>
+        <v>0.0419451154425815</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05653767052223749</v>
+        <v>0.1142275460423441</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04320587068585037</v>
+        <v>0.04176357750897015</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08955528571688137</v>
+        <v>0.03031908432803709</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04020393744703046</v>
+        <v>0.04235186330825887</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01798503647381904</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03851683451506255</v>
+        <v>0.04313615707322663</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02470766991828183</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04200743910829832</v>
+        <v>0.04272187683966635</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05667023178885197</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04400597940225501</v>
+        <v>0.0425369770924696</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08892287921038972</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04094845480716066</v>
+        <v>0.04313615707322663</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01781551104138029</v>
+        <v>0.03034685822032139</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0392171405971546</v>
+        <v>0.04392045083819439</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02511086111457443</v>
+        <v>0.07217538699982434</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04277121072844919</v>
+        <v>0.04349863823675119</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0570984866111138</v>
+        <v>0.1143024869397447</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04480608811865965</v>
+        <v>0.04331037667596904</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0880969412643115</v>
+        <v>0.03034685822032139</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04169297216729085</v>
+        <v>0.04392045083819439</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01765368098244014</v>
+        <v>0.03044140461321337</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03991744667924665</v>
+        <v>0.04470474460316215</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02503922070200669</v>
+        <v>0.07206172114452966</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04353498234860007</v>
+        <v>0.04427539963383603</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05751461687703033</v>
+        <v>0.1143000427403324</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04560619683506428</v>
+        <v>0.04408377625946849</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08839983172462451</v>
+        <v>0.03044140461321337</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04243748952742105</v>
+        <v>0.04470474460316215</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01750125771274122</v>
+        <v>0.03023130141359326</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0406177527613387</v>
+        <v>0.0454890383681299</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02519073508129126</v>
+        <v>0.072226198596339</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04429875396875096</v>
+        <v>0.04505216103092088</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0585108044746088</v>
+        <v>0.113988605155927</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04640630555146891</v>
+        <v>0.04485717584296794</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08823812820948979</v>
+        <v>0.03023130141359326</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04318200688755124</v>
+        <v>0.0454890383681299</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01835995264802612</v>
+        <v>0.03021665363599242</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04131805884343074</v>
+        <v>0.04627333213309766</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02556339065314074</v>
+        <v>0.07226959577390465</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04506252558890184</v>
+        <v>0.04582892242800572</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05867923129185645</v>
+        <v>0.1143688028655788</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04720641426787355</v>
+        <v>0.04563057542646739</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08939352298348785</v>
+        <v>0.03021665363599242</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04392652424768143</v>
+        <v>0.04627333213309766</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01823147720403748</v>
+        <v>0.03019756629494226</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04201836492552279</v>
+        <v>0.04705762589806541</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02575517381826777</v>
+        <v>0.07189268909587901</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04582629720905271</v>
+        <v>0.04660568382509056</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05951207921678056</v>
+        <v>0.1136406411609277</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04800652298427819</v>
+        <v>0.04640397500996683</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08894736372564022</v>
+        <v>0.03019756629494226</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04467104160781163</v>
+        <v>0.04705762589806541</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01711754279651787</v>
+        <v>0.03027414440497415</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04271867100761483</v>
+        <v>0.04784191966303317</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02596407097738494</v>
+        <v>0.07199625498091436</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04659006882920359</v>
+        <v>0.04738244522217541</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05980153013738843</v>
+        <v>0.113604125333614</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04880663170068283</v>
+        <v>0.04717737459346628</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09038099811496875</v>
+        <v>0.03027414440497415</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04541555896794183</v>
+        <v>0.04784191966303317</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01601986084120992</v>
+        <v>0.03014649298061951</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04341897708970689</v>
+        <v>0.04862621342800093</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02588806853120494</v>
+        <v>0.07158106984766299</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04735384044935447</v>
+        <v>0.04815920661926025</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06053976594168725</v>
+        <v>0.1143592606752775</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04960674041708747</v>
+        <v>0.04795077417696573</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09087577383049517</v>
+        <v>0.03014649298061951</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04616007632807201</v>
+        <v>0.04862621342800093</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01594014275385625</v>
+        <v>0.03021471703640971</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04411928317179893</v>
+        <v>0.04941050719296869</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02632515288044038</v>
+        <v>0.07134791011477726</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04811761206950535</v>
+        <v>0.04893596801634509</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06181896851768431</v>
+        <v>0.1139060524775583</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0504068491334921</v>
+        <v>0.04872417376046517</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09261303855124109</v>
+        <v>0.03021471703640971</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0469045936882022</v>
+        <v>0.04941050719296869</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01788009995019945</v>
+        <v>0.03037892158687615</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04481958925389098</v>
+        <v>0.05019480095793644</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02647331042580386</v>
+        <v>0.07169755220090951</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04888138368965623</v>
+        <v>0.04971272941342993</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06273131975338692</v>
+        <v>0.1141445060320965</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05120695784989673</v>
+        <v>0.04949757334396462</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09377413995622824</v>
+        <v>0.03037892158687615</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0476491110483324</v>
+        <v>0.05019480095793644</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01784144384598214</v>
+        <v>0.03033921164655021</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04551989533598302</v>
+        <v>0.0509790947229042</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02683052756800806</v>
+        <v>0.07143077252471203</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04964515530980711</v>
+        <v>0.05048949081051477</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06326900153680229</v>
+        <v>0.1140746266305319</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05200706656630137</v>
+        <v>0.05027097292746407</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09414042572447845</v>
+        <v>0.03033921164655021</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0483936284084626</v>
+        <v>0.0509790947229042</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01682588585694692</v>
+        <v>0.03019569222996328</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04622020141807506</v>
+        <v>0.05176338848787196</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02699479070776556</v>
+        <v>0.07154834750483713</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05040892692995799</v>
+        <v>0.05126625220759962</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06402419575593768</v>
+        <v>0.1133964195645048</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05280717528270601</v>
+        <v>0.05104437251096352</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09639324353501338</v>
+        <v>0.03019569222996328</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04913814576859279</v>
+        <v>0.05176338848787196</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01584117623811778</v>
+        <v>0.03004846835164673</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04692050750016712</v>
+        <v>0.05254768225283971</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02726408624578903</v>
+        <v>0.0708510535599372</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05117269855010886</v>
+        <v>0.05204301360468446</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0649890842988004</v>
+        <v>0.1132098901256551</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05360728399911065</v>
+        <v>0.05181777209446296</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09701394106685468</v>
+        <v>0.03004846835164673</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04988266312872298</v>
+        <v>0.05254768225283971</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01589621957504257</v>
+        <v>0.03019764502613201</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04762081358225916</v>
+        <v>0.05333197601780747</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02743640058279109</v>
+        <v>0.07093966710866448</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05193647017025974</v>
+        <v>0.05281977500176931</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06565584905339769</v>
+        <v>0.1137150436056228</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05440739271551528</v>
+        <v>0.05259117167796241</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09898386599902415</v>
+        <v>0.03019764502613201</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05062718048885317</v>
+        <v>0.05333197601780747</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01698793920088897</v>
+        <v>0.02984332726795046</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04832111966435121</v>
+        <v>0.05411626978277523</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02790972011948434</v>
+        <v>0.07071496456967136</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05270024179041062</v>
+        <v>0.05359653639885414</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0663166719077368</v>
+        <v>0.1137118852960481</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05520750143191992</v>
+        <v>0.05336457126146186</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1001843660105436</v>
+        <v>0.02984332726795046</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05137169784898337</v>
+        <v>0.05411626978277523</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01611308811243048</v>
+        <v>0.03008562009163346</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04902142574644325</v>
+        <v>0.05490056354774298</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02808203125658144</v>
+        <v>0.07047772236161012</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05346401341056149</v>
+        <v>0.05437329779593899</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06736373474982502</v>
+        <v>0.1136004204885708</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05600761014832455</v>
+        <v>0.05413797084496131</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1022967887804345</v>
+        <v>0.03008562009163346</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05211621520911356</v>
+        <v>0.05490056354774298</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01726841930644062</v>
+        <v>0.02972462851171244</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0497217318285353</v>
+        <v>0.05568485731271075</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02825132039479503</v>
+        <v>0.06972871690313309</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05422778503071238</v>
+        <v>0.05515005919302383</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06868921946766959</v>
+        <v>0.113480654474831</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05680771886472918</v>
+        <v>0.05491137042846075</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1035024819877188</v>
+        <v>0.02972462851171244</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05286073256924376</v>
+        <v>0.05568485731271075</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01645068577969287</v>
+        <v>0.02976045754271875</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05042203791062735</v>
+        <v>0.0564691510776785</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02871557393483769</v>
+        <v>0.07016872461289264</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05499155665086325</v>
+        <v>0.05592682059010867</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06928530794927779</v>
+        <v>0.1134525925464688</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05760782758113383</v>
+        <v>0.05568477001196021</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1049827933114181</v>
+        <v>0.02976045754271875</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05360524992937395</v>
+        <v>0.0564691510776785</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01765664052896077</v>
+        <v>0.02969321219918379</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05112234399271939</v>
+        <v>0.05725344484264626</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0289727782774221</v>
+        <v>0.06969852190954101</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05575532827101413</v>
+        <v>0.05670358198719352</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0697441820826569</v>
+        <v>0.112316239995124</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05840793629753847</v>
+        <v>0.05645816959545964</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1060190704305541</v>
+        <v>0.02969321219918379</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05434976728950415</v>
+        <v>0.05725344484264626</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01888303655101782</v>
+        <v>0.02972299749563898</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05182265007481144</v>
+        <v>0.05803773860761402</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02922091982326087</v>
+        <v>0.06901888521173064</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05651909989116501</v>
+        <v>0.05748034338427836</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07065802375581412</v>
+        <v>0.1127716021124369</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0592080450139431</v>
+        <v>0.05723156917895909</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1079926610241486</v>
+        <v>0.02972299749563898</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05509428464963434</v>
+        <v>0.05803773860761402</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01812662684263752</v>
+        <v>0.02964991844661569</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05252295615690349</v>
+        <v>0.05882203237258177</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02935798497306664</v>
+        <v>0.06863059093811372</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05728287151131589</v>
+        <v>0.0582571047813632</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07141901485675678</v>
+        <v>0.1123186841900475</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06000815373034774</v>
+        <v>0.05800496876245854</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1084849127712232</v>
+        <v>0.02964991844661569</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05583880200976454</v>
+        <v>0.05882203237258177</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01838416440059338</v>
+        <v>0.0293740800666453</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05322326223899553</v>
+        <v>0.05960632613754953</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02958196012755201</v>
+        <v>0.06883441550734262</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05804664313146677</v>
+        <v>0.05903386617844805</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07161933727349212</v>
+        <v>0.1128574915195956</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06080826244675237</v>
+        <v>0.05877836834595799</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1101771733507997</v>
+        <v>0.0293740800666453</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05658331936989472</v>
+        <v>0.05960632613754953</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01765240222165892</v>
+        <v>0.0294955873702592</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05392356832108759</v>
+        <v>0.06039061990251728</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02969083168742966</v>
+        <v>0.0685311353380697</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05881041475161766</v>
+        <v>0.05981062757553288</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07257552255993463</v>
+        <v>0.1124880293927214</v>
       </c>
       <c r="M142" t="n">
-        <v>0.061608371163157</v>
+        <v>0.05955176792945744</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1109507904419</v>
+        <v>0.0294955873702592</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05732783673002492</v>
+        <v>0.06039061990251728</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01892809330260763</v>
+        <v>0.02951454537198879</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05462387440317962</v>
+        <v>0.06117491366748504</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03008258605341217</v>
+        <v>0.06772152684894725</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05957418637176853</v>
+        <v>0.06058738897261774</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07299319665304574</v>
+        <v>0.1117103031010649</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06240847987956165</v>
+        <v>0.06032516751295688</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1125871117235455</v>
+        <v>0.02951454537198879</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05807235409015511</v>
+        <v>0.06117491366748504</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02020799064021304</v>
+        <v>0.02913105908636546</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05532418048527168</v>
+        <v>0.0619592074324528</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03035520962621219</v>
+        <v>0.06770636645862763</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06033795799191941</v>
+        <v>0.06136415036970257</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07354535298108994</v>
+        <v>0.1119243179362662</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06320858859596629</v>
+        <v>0.06109856709645634</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1124674848747581</v>
+        <v>0.02913105908636546</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0588168714502853</v>
+        <v>0.0619592074324528</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02048884723124864</v>
+        <v>0.02904523352792059</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05602448656736372</v>
+        <v>0.06274350119742056</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03054786001381399</v>
+        <v>0.06748643058576312</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06110172961207028</v>
+        <v>0.06214091176678742</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07421028656662063</v>
+        <v>0.1112300791899651</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06400869731237091</v>
+        <v>0.06187196667995578</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1134732575745594</v>
+        <v>0.02904523352792059</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0595613888104155</v>
+        <v>0.06274350119742056</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02076741607248795</v>
+        <v>0.02895717371118559</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05672479264945576</v>
+        <v>0.06352779496238831</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03054136780984025</v>
+        <v>0.06726249564900602</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06186550123222117</v>
+        <v>0.06291767316387226</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07488502942562691</v>
+        <v>0.1120275921538019</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06480880602877556</v>
+        <v>0.06264536626345522</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1137857775019713</v>
+        <v>0.02895717371118559</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0603059061705457</v>
+        <v>0.06352779496238831</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02104045016070447</v>
+        <v>0.0291669846506918</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05742509873154782</v>
+        <v>0.06431208872735607</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03047651128763915</v>
+        <v>0.06653533806700873</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06262927285237203</v>
+        <v>0.06369443456095709</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07526661357409781</v>
+        <v>0.1114168621194164</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0656089147451802</v>
+        <v>0.06341876584695468</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1146031851060553</v>
+        <v>0.0291669846506918</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06105042353067589</v>
+        <v>0.06431208872735607</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02030470249267172</v>
+        <v>0.02887477136097066</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05812540481363986</v>
+        <v>0.06509638249232381</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03091288655016217</v>
+        <v>0.06620573425842352</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06339304447252292</v>
+        <v>0.06447119595804195</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07615207102802243</v>
+        <v>0.1108978943784488</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06640902346158482</v>
+        <v>0.06419216543045413</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1140030369023287</v>
+        <v>0.02887477136097066</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06179494089080608</v>
+        <v>0.06509638249232381</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0205569260651632</v>
+        <v>0.02868063885655356</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05882571089573191</v>
+        <v>0.06588067625729159</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03085010498797056</v>
+        <v>0.06597446064190271</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0641568160926738</v>
+        <v>0.06524795735512678</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07673843380338985</v>
+        <v>0.1110706942225389</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06720913217798948</v>
+        <v>0.06496556501395356</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1146021754195197</v>
+        <v>0.02868063885655356</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06253945825093628</v>
+        <v>0.06588067625729159</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02179387387495243</v>
+        <v>0.02858469215197186</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05952601697782395</v>
+        <v>0.06666497002225935</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03088777799162562</v>
+        <v>0.06564229363609864</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06492058771282468</v>
+        <v>0.06602471875221164</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07702273391618919</v>
+        <v>0.110635266943327</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0680092408943941</v>
+        <v>0.06573896459745301</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1143005411097435</v>
+        <v>0.02858469215197186</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06328397561106647</v>
+        <v>0.06666497002225935</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02001229891881289</v>
+        <v>0.02858703626175695</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06022632305991599</v>
+        <v>0.0674492637872271</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03112551695168858</v>
+        <v>0.06541000965966365</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06568435933297556</v>
+        <v>0.06680148014929647</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07790200338240949</v>
+        <v>0.1097916178324529</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06880934961079874</v>
+        <v>0.06651236418095245</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1136981289653363</v>
+        <v>0.02858703626175695</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06402849297119667</v>
+        <v>0.0674492637872271</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02020895419351811</v>
+        <v>0.02848777620044024</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06092662914200805</v>
+        <v>0.06823355755219486</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03136293325872073</v>
+        <v>0.06507838513125003</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06644813095312643</v>
+        <v>0.06757824154638131</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07797327421803985</v>
+        <v>0.1103397521815568</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06960945832720337</v>
+        <v>0.0672857637644519</v>
       </c>
       <c r="N152" t="n">
-        <v>0.113594933978634</v>
+        <v>0.02848777620044024</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06477301033132686</v>
+        <v>0.06823355755219486</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02231149920299288</v>
+        <v>0.02838701698255311</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06162693522410009</v>
+        <v>0.06901785131716261</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0314996383032833</v>
+        <v>0.06444819646951011</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06721190257327732</v>
+        <v>0.06835500294346616</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07893357843906937</v>
+        <v>0.1092796752822787</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07040956704360801</v>
+        <v>0.06805916334795135</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1145909511419728</v>
+        <v>0.02838701698255311</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06551752769145705</v>
+        <v>0.06901785131716261</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02255892020454749</v>
+        <v>0.02838486362262696</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06232724130619214</v>
+        <v>0.06980214508213037</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03143524347593757</v>
+        <v>0.06452022009309624</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06797567419342819</v>
+        <v>0.069131764340551</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07907994806148705</v>
+        <v>0.1093113924262584</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07120967576001265</v>
+        <v>0.06883256293145081</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1140861754476888</v>
+        <v>0.02838486362262696</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06626204505158724</v>
+        <v>0.06980214508213037</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0217394086343197</v>
+        <v>0.02808142113519316</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06302754738828419</v>
+        <v>0.07058643884709813</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03156936016724479</v>
+        <v>0.06419523242066072</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06873944581357908</v>
+        <v>0.06990852573763584</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07940941510128202</v>
+        <v>0.1091349089051362</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07200978447641729</v>
+        <v>0.06960596251495026</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1139806018881181</v>
+        <v>0.02808142113519316</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06700656241171743</v>
+        <v>0.07058643884709813</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02092402087964437</v>
+        <v>0.02797679453478312</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06372785347037623</v>
+        <v>0.07137073261206588</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03170159976776624</v>
+        <v>0.06367400987085584</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06950321743372995</v>
+        <v>0.07068528713472068</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08061901157444343</v>
+        <v>0.1091502300105521</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07280989319282193</v>
+        <v>0.07037936209844969</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1137742254555968</v>
+        <v>0.02797679453478312</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06775107977184763</v>
+        <v>0.07137073261206588</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02311171151663296</v>
+        <v>0.0281710888359282</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06442815955246828</v>
+        <v>0.07215502637703364</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03193157366806312</v>
+        <v>0.06315732886233399</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07026698905388083</v>
+        <v>0.07146204853180553</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0806057694969603</v>
+        <v>0.1086573610341459</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07361000190922655</v>
+        <v>0.07115276168194914</v>
       </c>
       <c r="N157" t="n">
-        <v>0.114467041142461</v>
+        <v>0.0281710888359282</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06849559713197782</v>
+        <v>0.07215502637703364</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02130143512139693</v>
+        <v>0.02806440905315981</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06512846563456032</v>
+        <v>0.0729393201420014</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03195889325869679</v>
+        <v>0.06354596581374744</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0710307606740317</v>
+        <v>0.07223880992889037</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08146672088482168</v>
+        <v>0.1080563072675579</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0744101106256312</v>
+        <v>0.0719261612654486</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1143590439410469</v>
+        <v>0.02806440905315981</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06924011449210803</v>
+        <v>0.0729393201420014</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02149214627004769</v>
+        <v>0.02785686020100935</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06582877171665237</v>
+        <v>0.07372361390696915</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03208316993022846</v>
+        <v>0.06294069714374856</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07179453229418259</v>
+        <v>0.07301557132597521</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08199889775401667</v>
+        <v>0.1084470740024279</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07521021934203583</v>
+        <v>0.07269956084894805</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1136502288436904</v>
+        <v>0.02785686020100935</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06998463185223822</v>
+        <v>0.07372361390696915</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02368279953869671</v>
+        <v>0.02754854729400821</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06652907779874442</v>
+        <v>0.07450790767193691</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03230401507321934</v>
+        <v>0.06294229927098963</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07255830391433346</v>
+        <v>0.07379233272306006</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08209933212053439</v>
+        <v>0.107429666530396</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07601032805844046</v>
+        <v>0.07347296043244748</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1137405908427278</v>
+        <v>0.02754854729400821</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07072914921236841</v>
+        <v>0.07450790767193691</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02287234950345542</v>
+        <v>0.02773957534668775</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06722938388083646</v>
+        <v>0.07529220143690467</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03242104007823077</v>
+        <v>0.06225154861412296</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07332207553448435</v>
+        <v>0.0745690941201449</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08246505600036391</v>
+        <v>0.1076040901431023</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07681043677484511</v>
+        <v>0.07424636001594694</v>
       </c>
       <c r="N161" t="n">
-        <v>0.114430124930495</v>
+        <v>0.02773957534668775</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07147366657249861</v>
+        <v>0.07529220143690467</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02205975074043528</v>
+        <v>0.02743004937357936</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06792968996292852</v>
+        <v>0.07607649520187243</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03263385633582398</v>
+        <v>0.06186922159180094</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07408584715463522</v>
+        <v>0.07534585551722975</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0825931014094943</v>
+        <v>0.1067703501321868</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07761054549124974</v>
+        <v>0.07501975959944637</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1145188260993283</v>
+        <v>0.02743004937357936</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0722181839326288</v>
+        <v>0.07607649520187243</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0232439578257477</v>
+        <v>0.02732007438921447</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06862999604502056</v>
+        <v>0.07686078896684019</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03254207523656023</v>
+        <v>0.06189609462267584</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0748496187747861</v>
+        <v>0.07612261691431459</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08318050036391461</v>
+        <v>0.1073284517892895</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07841065420765438</v>
+        <v>0.07579315918294582</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1145066893415638</v>
+        <v>0.02732007438921447</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07296270129275899</v>
+        <v>0.07686078896684019</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02242392533550418</v>
+        <v>0.02720620090415068</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06933030212711259</v>
+        <v>0.07764508273180794</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03264530817100078</v>
+        <v>0.06173307150346705</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07561339039493697</v>
+        <v>0.07689937831139942</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08332428487961399</v>
+        <v>0.1066784004060504</v>
       </c>
       <c r="M164" t="n">
-        <v>0.079210762924059</v>
+        <v>0.07656655876644528</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1143937096495374</v>
+        <v>0.02720620090415068</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07370721865288918</v>
+        <v>0.07764508273180794</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02259860784581613</v>
+        <v>0.02697861006244744</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07003060820920465</v>
+        <v>0.0784293764967757</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0330431665297069</v>
+        <v>0.06128039981717731</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07637716201508786</v>
+        <v>0.07767613970848428</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08352148697258144</v>
+        <v>0.1059202012741096</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08001087164046365</v>
+        <v>0.07733995834994473</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1134798820155855</v>
+        <v>0.02697861006244744</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07445173601301937</v>
+        <v>0.0784293764967757</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02376695993279501</v>
+        <v>0.02713750593337835</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07073091429129669</v>
+        <v>0.07921367026174346</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03303526170323984</v>
+        <v>0.06093681151140343</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07714093363523873</v>
+        <v>0.07845290110556911</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08356913865880611</v>
+        <v>0.1062538596851071</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08081098035686829</v>
+        <v>0.07811335793344416</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1133652014320439</v>
+        <v>0.02713750593337835</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07519625337314957</v>
+        <v>0.07921367026174346</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02492793617255221</v>
+        <v>0.02678375509316937</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07143122037338874</v>
+        <v>0.07999796402671121</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03312120508216086</v>
+        <v>0.0608009590295947</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07790470525538962</v>
+        <v>0.07922966250265395</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08346427195427708</v>
+        <v>0.1049793809306828</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08161108907327291</v>
+        <v>0.07888675751694361</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1144496628912489</v>
+        <v>0.02678375509316937</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07594077073327976</v>
+        <v>0.07999796402671121</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02408049114119928</v>
+        <v>0.02651822411804644</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07213152645548079</v>
+        <v>0.08078225779167897</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03310060805703123</v>
+        <v>0.0603714948152004</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07866847687554049</v>
+        <v>0.08000642389973879</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08390391887498339</v>
+        <v>0.1052967703024769</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08241119778967756</v>
+        <v>0.07966015710044307</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1134332613855365</v>
+        <v>0.02651822411804644</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07668528809340995</v>
+        <v>0.08078225779167897</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02522357941484756</v>
+        <v>0.02664177958423548</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07283183253757283</v>
+        <v>0.08156655155664672</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03307308201841221</v>
+        <v>0.06004707131166984</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07943224849569137</v>
+        <v>0.08078318529682364</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08367703998387324</v>
+        <v>0.1044060330921293</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08321130650608219</v>
+        <v>0.08043355668394252</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1142159919072429</v>
+        <v>0.02664177958423548</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07742980545354015</v>
+        <v>0.08156655155664672</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02535615556960857</v>
+        <v>0.02645528806796243</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07353213861966489</v>
+        <v>0.08235084532161448</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03323823835686504</v>
+        <v>0.05982634096245232</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08019602011584225</v>
+        <v>0.08155994669390849</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08326879421613032</v>
+        <v>0.1044071745912801</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08401141522248683</v>
+        <v>0.08120695626744197</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1133978494487041</v>
+        <v>0.02645528806796243</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07817432281367034</v>
+        <v>0.08235084532161448</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0254771741815937</v>
+        <v>0.02595961614545324</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07423244470175692</v>
+        <v>0.08313513908658224</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03349568846295103</v>
+        <v>0.05950795621099705</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08095979173599313</v>
+        <v>0.08233670809099332</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08378302238560187</v>
+        <v>0.1037002000915693</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08481152393889146</v>
+        <v>0.08198035585094141</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1135788290022564</v>
+        <v>0.02595961614545324</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07891884017380053</v>
+        <v>0.08313513908658224</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02558558982691445</v>
+        <v>0.02585563039293379</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07493275078384898</v>
+        <v>0.08391943285154999</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03354504372723138</v>
+        <v>0.05929056950075345</v>
       </c>
       <c r="K172" t="n">
-        <v>0.081723563356144</v>
+        <v>0.08311346948807817</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08322402770245244</v>
+        <v>0.103385114884637</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0856116326552961</v>
+        <v>0.08275375543444086</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1139589255602356</v>
+        <v>0.02585563039293379</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07966335753393074</v>
+        <v>0.08391943285154999</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02368035708168221</v>
+        <v>0.02574419738663007</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07563305686594102</v>
+        <v>0.08470372661651775</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03328591554026741</v>
+        <v>0.05947283327517078</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08248733497629487</v>
+        <v>0.08389023088516301</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08249611337684654</v>
+        <v>0.1029619242621231</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08641174137170074</v>
+        <v>0.08352715501794029</v>
       </c>
       <c r="N173" t="n">
-        <v>0.114038134114978</v>
+        <v>0.02574419738663007</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08040787489406093</v>
+        <v>0.08470372661651775</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02576043052200846</v>
+        <v>0.02552618370276796</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07633336294803306</v>
+        <v>0.08548802038148551</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03361791529262036</v>
+        <v>0.05895339997769827</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08325110659644576</v>
+        <v>0.08466699228224786</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08220358261894872</v>
+        <v>0.1019306335156676</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08721185008810538</v>
+        <v>0.08430055460143974</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1140164496588197</v>
+        <v>0.02552618370276796</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08115239225419113</v>
+        <v>0.08548802038148551</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02482476472400463</v>
+        <v>0.02520245591757346</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07703366903012511</v>
+        <v>0.08627231414645327</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03334065437485145</v>
+        <v>0.05863092205178527</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08401487821659663</v>
+        <v>0.0854437536793327</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08205073863892345</v>
+        <v>0.1019893255652705</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08801195880451002</v>
+        <v>0.0850739541849392</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1138938671840968</v>
+        <v>0.02520245591757346</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08189690961432132</v>
+        <v>0.08627231414645327</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02587231426378219</v>
+        <v>0.02487388060727246</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07773397511221716</v>
+        <v>0.08705660791142103</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03365374417752197</v>
+        <v>0.05900405194088112</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08477864983674752</v>
+        <v>0.08622051507641754</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08124188464693535</v>
+        <v>0.1011815602702891</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08881206752091464</v>
+        <v>0.08584735376843865</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1136703816831454</v>
+        <v>0.02487388060727246</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0826414269744515</v>
+        <v>0.08705660791142103</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02490203371745254</v>
+        <v>0.02494132434809086</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0784342811943092</v>
+        <v>0.08784090167638878</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03365657825812667</v>
+        <v>0.05867144208843497</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08554242145689839</v>
+        <v>0.08699727647350239</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08098132385314882</v>
+        <v>0.1007296824527327</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08961217623731929</v>
+        <v>0.08662075335193808</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1131459881483015</v>
+        <v>0.02494132434809086</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0833859443345817</v>
+        <v>0.08784090167638878</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02491287766112717</v>
+        <v>0.02440565371625467</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07913458727640126</v>
+        <v>0.08862519544135654</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03344199298551517</v>
+        <v>0.05833174493789628</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08630619307704927</v>
+        <v>0.08777403787058723</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08047335946772843</v>
+        <v>0.09946426043648809</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09041228495372393</v>
+        <v>0.08739415293543754</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1134206815719012</v>
+        <v>0.02440565371625467</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08413046169471189</v>
+        <v>0.08862519544135654</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02590388534664604</v>
+        <v>0.02416773528798977</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07983489335849329</v>
+        <v>0.0894094892063243</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03330728788335924</v>
+        <v>0.05778361293271425</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08706996469720014</v>
+        <v>0.08855079926767206</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07952229470083877</v>
+        <v>0.097815862545442</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09121239367012855</v>
+        <v>0.08816755251893697</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1140944569462809</v>
+        <v>0.02416773528798977</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08487497905484209</v>
+        <v>0.0894094892063243</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02387537690712267</v>
+        <v>0.02402843563952209</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08053519944058535</v>
+        <v>0.09019378297129205</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03335329884382005</v>
+        <v>0.05752569851633824</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08783373631735103</v>
+        <v>0.0893275606647569</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07873243276264424</v>
+        <v>0.09691505710348119</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0920125023865332</v>
+        <v>0.08894095210243642</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1134673092637764</v>
+        <v>0.02402843563952209</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08561949641497228</v>
+        <v>0.09019378297129205</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02582830320469726</v>
+        <v>0.02398862134707758</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0812355055226774</v>
+        <v>0.09097807673625981</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03328086175905876</v>
+        <v>0.05755665413221744</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08859750793750192</v>
+        <v>0.09010432206184175</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07850807686330943</v>
+        <v>0.09569241243449256</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09281261110293783</v>
+        <v>0.08971435168593589</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1139392335167238</v>
+        <v>0.02398862134707758</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08636401377510247</v>
+        <v>0.09097807673625981</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02376361577173548</v>
+        <v>0.02364915898688219</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08193581160476944</v>
+        <v>0.09176237050122756</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03319081252123661</v>
+        <v>0.05747513222380127</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08936127955765279</v>
+        <v>0.09088108345892661</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07755353021299888</v>
+        <v>0.09317849686236274</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09361271981934247</v>
+        <v>0.09048775126943533</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1132102246974594</v>
+        <v>0.02364915898688219</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08710853113523268</v>
+        <v>0.09176237050122756</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02368226614060289</v>
+        <v>0.02331091513516181</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08263611768686148</v>
+        <v>0.09254666426619532</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03318398702251475</v>
+        <v>0.05667978523453895</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09012505117780367</v>
+        <v>0.09165784485601143</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07677309602187704</v>
+        <v>0.09250387871097848</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0944128285357471</v>
+        <v>0.09126115085293478</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1137802777983191</v>
+        <v>0.02331091513516181</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08785304849536286</v>
+        <v>0.09254666426619532</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02558520584366513</v>
+        <v>0.02317475636814242</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08333642376895352</v>
+        <v>0.09333095803116308</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03296122115505438</v>
+        <v>0.05666926560787977</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09088882279795456</v>
+        <v>0.09243460625309628</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07577107750010847</v>
+        <v>0.09009912630422662</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09521293725215174</v>
+        <v>0.09203455043643421</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1140493878116393</v>
+        <v>0.02317475636814242</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08859756585549305</v>
+        <v>0.09333095803116308</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02447338641328783</v>
+        <v>0.02284154926204993</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08403672985104557</v>
+        <v>0.09411525179613082</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03282335081101669</v>
+        <v>0.05664222578727307</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09165259441810543</v>
+        <v>0.09321136765018112</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07485177785785774</v>
+        <v>0.08889480796599403</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09601304596855638</v>
+        <v>0.09280795001993367</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1131175497297557</v>
+        <v>0.02284154926204993</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08934208321562326</v>
+        <v>0.09411525179613082</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02334775938183661</v>
+        <v>0.02281216039311026</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08473703593313762</v>
+        <v>0.09489954556109859</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03287121188256288</v>
+        <v>0.05629731821616812</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09241636603825631</v>
+        <v>0.09398812904726597</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0741195003052893</v>
+        <v>0.08722149202016732</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09681315468496102</v>
+        <v>0.09358134960343312</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1133847585450047</v>
+        <v>0.02281216039311026</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09008660057575345</v>
+        <v>0.09489954556109859</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02320927628167705</v>
+        <v>0.02248745633754937</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08543734201522966</v>
+        <v>0.09568383932606635</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03260564026185411</v>
+        <v>0.05573319533801419</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09318013765840719</v>
+        <v>0.09476489044435081</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0737785480525677</v>
+        <v>0.0858097467906333</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09761326340136565</v>
+        <v>0.09435474918693257</v>
       </c>
       <c r="N187" t="n">
-        <v>0.112802239659923</v>
+        <v>0.02248745633754937</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09083111793588365</v>
+        <v>0.09568383932606635</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02305888864517482</v>
+        <v>0.02236830367159318</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08613764809732172</v>
+        <v>0.09646813309103411</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03252747184105161</v>
+        <v>0.05554850959626059</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09394390927855807</v>
+        <v>0.09554165184143565</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07253322430985745</v>
+        <v>0.08419014060127883</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09841337211777028</v>
+        <v>0.09512814877043201</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1126176393953622</v>
+        <v>0.02236830367159318</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09157563529601383</v>
+        <v>0.09646813309103411</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0228975480046955</v>
+        <v>0.02205556897146763</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08683795417941377</v>
+        <v>0.09725242685600187</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03233754251231652</v>
+        <v>0.05474191343435666</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09470768089870894</v>
+        <v>0.0963184132385205</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07138783228732312</v>
+        <v>0.08199324177599054</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09921348083417493</v>
+        <v>0.09590154835393146</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1133387941232805</v>
+        <v>0.02205556897146763</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09232015265614402</v>
+        <v>0.09725242685600187</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02272620589260472</v>
+        <v>0.02195011881339862</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08753826026150581</v>
+        <v>0.09803672062096962</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03183668816781007</v>
+        <v>0.0545120592957517</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09547145251885983</v>
+        <v>0.09709517463560534</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07124667519512914</v>
+        <v>0.08114961863865539</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1000135895505796</v>
+        <v>0.09667494793743089</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1124736363868359</v>
+        <v>0.02195011881339862</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09306467001627422</v>
+        <v>0.09803672062096962</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02354581384126812</v>
+        <v>0.02164796661807275</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08823856634359786</v>
+        <v>0.09882101438593738</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03192574469969343</v>
+        <v>0.05375759962389495</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0962352241390107</v>
+        <v>0.09787193603269018</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06981405624344014</v>
+        <v>0.0800307215327537</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1008136982669842</v>
+        <v>0.09744834752093035</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1123300987291862</v>
+        <v>0.02164796661807275</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09380918737640441</v>
+        <v>0.09882101438593738</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02335732338305128</v>
+        <v>0.02124423148249659</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0889388724256899</v>
+        <v>0.09960530815090514</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03170554800012777</v>
+        <v>0.05346928657522779</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09699899575916159</v>
+        <v>0.09864869742977501</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06959427864242054</v>
+        <v>0.07853249853801786</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1016138069833888</v>
+        <v>0.0982217471044298</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1114161136934894</v>
+        <v>0.02124423148249659</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09455370473653461</v>
+        <v>0.09960530815090514</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02216168605031984</v>
+        <v>0.02133913112197992</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08963917850778196</v>
+        <v>0.1003896019158729</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03147693396127432</v>
+        <v>0.05245546264115275</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09776276737931246</v>
+        <v>0.09942545882685987</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06809164560223491</v>
+        <v>0.07765142622811022</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1024139156997935</v>
+        <v>0.09899514668792925</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1105396138229034</v>
+        <v>0.02133913112197992</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0952982220966648</v>
+        <v>0.1003896019158729</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02395985337543943</v>
+        <v>0.02093288604711399</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09033948458987399</v>
+        <v>0.1011738956808406</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03124073847529425</v>
+        <v>0.0518412271718009</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09852653899946333</v>
+        <v>0.1002022202239447</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06781046033304777</v>
+        <v>0.07688702942105718</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1032140244161981</v>
+        <v>0.0997685462714287</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1098085316605862</v>
+        <v>0.02093288604711399</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09604273945679499</v>
+        <v>0.1011738956808406</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02175277689077563</v>
+        <v>0.02082571676849003</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09103979067196603</v>
+        <v>0.1019581894458084</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03099779743434875</v>
+        <v>0.05025167951823598</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09929031061961421</v>
+        <v>0.1009789816210295</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06665502604502366</v>
+        <v>0.07593883293488535</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1040141331326027</v>
+        <v>0.1005419458549281</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1100307997496955</v>
+        <v>0.02082571676849003</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0967872568169252</v>
+        <v>0.1019581894458084</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02154140812869407</v>
+        <v>0.02061784379669926</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09174009675405809</v>
+        <v>0.1027424832107762</v>
       </c>
       <c r="J196" t="n">
-        <v>0.030448946730599</v>
+        <v>0.04871191903152164</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1000540822397651</v>
+        <v>0.1017557430181144</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06652964594832708</v>
+        <v>0.07440636158762109</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1048142418490074</v>
+        <v>0.1013153454384276</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1094143506333893</v>
+        <v>0.02061784379669926</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09753177417705539</v>
+        <v>0.1027424832107762</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02332669862156041</v>
+        <v>0.02040948764233291</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09244040283615013</v>
+        <v>0.1035267769757439</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0301950222562062</v>
+        <v>0.04764704506272158</v>
       </c>
       <c r="K197" t="n">
-        <v>0.100817853859916</v>
+        <v>0.1025325044151992</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06563862325312253</v>
+        <v>0.07388914019729098</v>
       </c>
       <c r="M197" t="n">
-        <v>0.105614350565412</v>
+        <v>0.102088745021927</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1083671168548256</v>
+        <v>0.02040948764233291</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09827629153718558</v>
+        <v>0.1035267769757439</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02310959990174023</v>
+        <v>0.02020086881598221</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09314070891824218</v>
+        <v>0.1043110707407117</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03013685990333152</v>
+        <v>0.04588215696289949</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1015816254800668</v>
+        <v>0.1033092658122841</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06498626116957454</v>
+        <v>0.07228669358192147</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1064144592818167</v>
+        <v>0.1028621446054265</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1076970309571622</v>
+        <v>0.02020086881598221</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09902080889731578</v>
+        <v>0.1043110707407117</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02089106350159915</v>
+        <v>0.01999220782823838</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09384101500033423</v>
+        <v>0.1050953645056794</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02987529556413616</v>
+        <v>0.04414235408311906</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1023453971002177</v>
+        <v>0.1040860272093689</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06427686290784768</v>
+        <v>0.07149854655953908</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1072145679982213</v>
+        <v>0.1036355441889259</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1061120254835571</v>
+        <v>0.01999220782823838</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09976532625744595</v>
+        <v>0.1050953645056794</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0226720409535028</v>
+        <v>0.01958372518969266</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09454132108242627</v>
+        <v>0.1058796582706472</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02951116513078132</v>
+        <v>0.04255273577444402</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1031091687203686</v>
+        <v>0.1048627886064538</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06361473167810641</v>
+        <v>0.07072422394817035</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1080146767146259</v>
+        <v>0.1044089437724254</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1057200329771682</v>
+        <v>0.01958372518969266</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1005098436175762</v>
+        <v>0.1058796582706472</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0214534837898168</v>
+        <v>0.01937564141093627</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09524162716451832</v>
+        <v>0.1066639520356149</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02944530449542818</v>
+        <v>0.04113840138793803</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1038729403405195</v>
+        <v>0.1056395500035386</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06320417069051532</v>
+        <v>0.0703632505658417</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1088147854310306</v>
+        <v>0.1051823433559248</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1052289859811533</v>
+        <v>0.01937564141093627</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1012543609777063</v>
+        <v>0.1066639520356149</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02223634354290675</v>
+        <v>0.01936817700256042</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09594193324661038</v>
+        <v>0.1074482458005827</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02917854955023794</v>
+        <v>0.03902445027466478</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1046367119606704</v>
+        <v>0.1064163114006235</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06294350351666361</v>
+        <v>0.06871515123057975</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1096148941474352</v>
+        <v>0.1059557429394243</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1040468170386704</v>
+        <v>0.01936817700256042</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1019988783378365</v>
+        <v>0.1074482458005827</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02202157174513828</v>
+        <v>0.01916155247515634</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09664223932870242</v>
+        <v>0.1082325395655505</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02891173618737176</v>
+        <v>0.03773598178568802</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1054004835808212</v>
+        <v>0.1071930727977083</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06249252511602904</v>
+        <v>0.06777945076041086</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1104150028638398</v>
+        <v>0.1067291425229237</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1035814586928774</v>
+        <v>0.01916155247515634</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1027433956979667</v>
+        <v>0.1082325395655505</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.019810119928877</v>
+        <v>0.0188559883393153</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09734254541079446</v>
+        <v>0.1090168333305182</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02854570029899084</v>
+        <v>0.03549809527207126</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1061642552009721</v>
+        <v>0.1079698341947931</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0614430428291505</v>
+        <v>0.06695567397336155</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1112151115802445</v>
+        <v>0.1075025421064232</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1030408434869322</v>
+        <v>0.0188559883393153</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1034879130580969</v>
+        <v>0.1090168333305182</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02060293962648854</v>
+        <v>0.0187517051056285</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0980428514928865</v>
+        <v>0.109801127095486</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02838127777725639</v>
+        <v>0.03433589008487845</v>
       </c>
       <c r="K205" t="n">
-        <v>0.106928026821123</v>
+        <v>0.108746595591878</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06099516869872598</v>
+        <v>0.06604334568745834</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1120152202966491</v>
+        <v>0.1082759416899226</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1015329039639928</v>
+        <v>0.0187517051056285</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1042324304182271</v>
+        <v>0.109801127095486</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01940098237033851</v>
+        <v>0.01834892328468715</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09874315757497855</v>
+        <v>0.1105854208604537</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02801930451432959</v>
+        <v>0.03247446557517306</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1076917984412739</v>
+        <v>0.1095233569889628</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06104901476745336</v>
+        <v>0.06574199072072778</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1128153290130537</v>
+        <v>0.1090493412734221</v>
       </c>
       <c r="N206" t="n">
-        <v>0.100865572667217</v>
+        <v>0.01834892328468715</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1049769477783573</v>
+        <v>0.1105854208604537</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02020519969279253</v>
+        <v>0.01844786338708249</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0994434636570706</v>
+        <v>0.1113697146254215</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02756061640237162</v>
+        <v>0.03143892109401888</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1084555700614248</v>
+        <v>0.1103001183860477</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06050469307803069</v>
+        <v>0.06395113389119633</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1136154377294584</v>
+        <v>0.1098227408569215</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1007467821397627</v>
+        <v>0.01844786338708249</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1057214651384875</v>
+        <v>0.1113697146254215</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01901654312621623</v>
+        <v>0.01824874592340575</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1001437697391626</v>
+        <v>0.1121540083903892</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02760604933354364</v>
+        <v>0.03025435599247964</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1092193416815756</v>
+        <v>0.1110768797831325</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05986231567315575</v>
+        <v>0.06297030001689052</v>
       </c>
       <c r="M208" t="n">
-        <v>0.114415546445863</v>
+        <v>0.1105961404404209</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1006844649247879</v>
+        <v>0.01824874592340575</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1064659824986177</v>
+        <v>0.1121540083903892</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02083596420297521</v>
+        <v>0.01795179140424817</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1008440758212547</v>
+        <v>0.112938302155357</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0271564392000069</v>
+        <v>0.029345869621619</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1099831133017265</v>
+        <v>0.1118536411802173</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05932199459552662</v>
+        <v>0.06269901391583677</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1152156551622677</v>
+        <v>0.1113695400239204</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09988655356545045</v>
+        <v>0.01795179140424817</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1072104998587479</v>
+        <v>0.112938302155357</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0196644144554351</v>
+        <v>0.01755722034020095</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1015443819033467</v>
+        <v>0.1137225959203248</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02711230875112303</v>
+        <v>0.02813856133250062</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1107468849218774</v>
+        <v>0.1126304025773022</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05948384188784112</v>
+        <v>0.06193680040606159</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1160157638786723</v>
+        <v>0.1121429396074199</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09936098060490833</v>
+        <v>0.01755722034020095</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1079550172188781</v>
+        <v>0.1137225959203248</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02050284541596151</v>
+        <v>0.01746525324185534</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1022446879854388</v>
+        <v>0.1145068896852925</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0268673731799845</v>
+        <v>0.02805753047618814</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1115106565420283</v>
+        <v>0.113407163974387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05854796959279723</v>
+        <v>0.06108318430559156</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1168158725950769</v>
+        <v>0.1129163391909193</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0987156785863193</v>
+        <v>0.01746525324185534</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1086995345790083</v>
+        <v>0.1145068896852925</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02035220861692006</v>
+        <v>0.01737611061980256</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1029449940675308</v>
+        <v>0.1152911834502603</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02631889331261551</v>
+        <v>0.02722787640374541</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1122744281621792</v>
+        <v>0.1141839253714719</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05831448975309292</v>
+        <v>0.05943769043245317</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1176159813114816</v>
+        <v>0.1136897387744187</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09905439701774688</v>
+        <v>0.01737611061980256</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1094440519391385</v>
+        <v>0.1152911834502603</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01821345559067638</v>
+        <v>0.01719001298463384</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1036453001496229</v>
+        <v>0.116075477215228</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02616688125087305</v>
+        <v>0.0277601001489709</v>
       </c>
       <c r="K213" t="n">
-        <v>0.11303819978233</v>
+        <v>0.1149606867685567</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05768351441142608</v>
+        <v>0.05889984360467276</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1184160900278862</v>
+        <v>0.1144631383579182</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09861741510257988</v>
+        <v>0.01719001298463384</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1101885692992687</v>
+        <v>0.116075477215228</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01808753786959607</v>
+        <v>0.01690718084694039</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1043456062317149</v>
+        <v>0.1168597709801958</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02591134909661406</v>
+        <v>0.02746010530861923</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1138019714024809</v>
+        <v>0.1157374481656416</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0576551556104947</v>
+        <v>0.05876916864027709</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1192161987442908</v>
+        <v>0.1152365379414176</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09838298057835942</v>
+        <v>0.01690718084694039</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1109330866593989</v>
+        <v>0.1168597709801958</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01897540698604476</v>
+        <v>0.01672783471731346</v>
       </c>
       <c r="G215" t="n">
-        <v>0.105045912313807</v>
+        <v>0.1176440647451635</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02585230895169556</v>
+        <v>0.02756012864904586</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1145657430226318</v>
+        <v>0.1165142095627264</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05722952539299667</v>
+        <v>0.05734519035729246</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1200163074606955</v>
+        <v>0.1160099375249171</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09825117480213341</v>
+        <v>0.01672783471731346</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1116776040195291</v>
+        <v>0.1176440647451635</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01987801447238807</v>
+        <v>0.01655219510634426</v>
       </c>
       <c r="G216" t="n">
-        <v>0.105746218395899</v>
+        <v>0.1184283585101313</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0252897729179745</v>
+        <v>0.02776018400756294</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1153295146427827</v>
+        <v>0.1172909709598112</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05690673580162992</v>
+        <v>0.05632743357374531</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1208164161771001</v>
+        <v>0.1167833371084165</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09722207913094988</v>
+        <v>0.01655219510634426</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1124221213796593</v>
+        <v>0.1184283585101313</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0177963118609916</v>
+        <v>0.01628048252462404</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1064465244779911</v>
+        <v>0.1192126522750991</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02522375309730783</v>
+        <v>0.02746028522148258</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1160932862629335</v>
+        <v>0.1180677323568961</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05608689887909241</v>
+        <v>0.05571542310766237</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1216165248935047</v>
+        <v>0.117556736691916</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09759577492185678</v>
+        <v>0.01628048252462404</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1131666387397894</v>
+        <v>0.1192126522750991</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01973125068422099</v>
+        <v>0.01621291748274399</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1071468305600831</v>
+        <v>0.1199969460400668</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02485426159155253</v>
+        <v>0.02746044612811699</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1168570578830844</v>
+        <v>0.1188444937539809</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05577012666808209</v>
+        <v>0.05470868377707</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1224166336099094</v>
+        <v>0.1183301362754154</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09747234353190221</v>
+        <v>0.01621291748274399</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1139111560999196</v>
+        <v>0.1199969460400668</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01968378247444185</v>
+        <v>0.01594972049129539</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1078471366421752</v>
+        <v>0.1207812398050346</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02478131050256556</v>
+        <v>0.02716068056477838</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1176208295032353</v>
+        <v>0.1196212551510658</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05525653121129687</v>
+        <v>0.05390674039999466</v>
       </c>
       <c r="M219" t="n">
-        <v>0.123216742326314</v>
+        <v>0.1191035358589149</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09675186631813409</v>
+        <v>0.01594972049129539</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1146556734600498</v>
+        <v>0.1207812398050346</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0196548587640198</v>
+        <v>0.01599109481593869</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1085474427242672</v>
+        <v>0.1215655335700023</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02430491193220391</v>
+        <v>0.02736100236877886</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1183846011233862</v>
+        <v>0.1203980165481506</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0546462245514347</v>
+        <v>0.05300911779446293</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1240168510427186</v>
+        <v>0.1198769354424143</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09743442463760055</v>
+        <v>0.01599109481593869</v>
       </c>
       <c r="O220" t="n">
-        <v>0.11540019082018</v>
+        <v>0.1215655335700023</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01864537444414495</v>
+        <v>0.01573488352350635</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1092477488063592</v>
+        <v>0.1223498273349701</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02412507798232454</v>
+        <v>0.02786142537743061</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1191483727435371</v>
+        <v>0.1211747779452355</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05453931873119353</v>
+        <v>0.05211534077850138</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1248169597591233</v>
+        <v>0.1206503350259138</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09712009984734943</v>
+        <v>0.01573488352350635</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1161447081803102</v>
+        <v>0.1223498273349701</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01964450184002661</v>
+        <v>0.01567949849720172</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1099480548884513</v>
+        <v>0.1231341210999378</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02384182075478442</v>
+        <v>0.02716196342804578</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1199121443636879</v>
+        <v>0.1219515393423203</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05413592579327126</v>
+        <v>0.05242493417013627</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1256170684755279</v>
+        <v>0.1214237346094132</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09630897330442889</v>
+        <v>0.01567949849720172</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1168892255404404</v>
+        <v>0.1231341210999378</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01964364963427456</v>
+        <v>0.01562497506115693</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1106483609705434</v>
+        <v>0.1239184148649056</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02335515235144051</v>
+        <v>0.02716263035793659</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1206759159838388</v>
+        <v>0.1227283007394051</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05343615778036581</v>
+        <v>0.05163742278739425</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1264171771919326</v>
+        <v>0.1221971341929127</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09680112636588684</v>
+        <v>0.01562497506115693</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1176337429005706</v>
+        <v>0.1239184148649056</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0176428178333226</v>
+        <v>0.0154713485395042</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1113486670526354</v>
+        <v>0.1247027086298734</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02336508487414979</v>
+        <v>0.02736344000441518</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1214396876039897</v>
+        <v>0.12350506213649</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0529401267351752</v>
+        <v>0.05005233144830185</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1272172859083372</v>
+        <v>0.1229705337764121</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09609664038877125</v>
+        <v>0.0154713485395042</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1183782602607008</v>
+        <v>0.1247027086298734</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01764200644360455</v>
+        <v>0.01501865425637568</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1120489731347274</v>
+        <v>0.1254870023948411</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02307163042476922</v>
+        <v>0.02746440620479371</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1222034592241406</v>
+        <v>0.1242818235335748</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05274794470039729</v>
+        <v>0.04976918497088556</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1280173946247418</v>
+        <v>0.1237439333599116</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09589559673013026</v>
+        <v>0.01501865425637568</v>
       </c>
       <c r="O225" t="n">
-        <v>0.119122777620831</v>
+        <v>0.1254870023948411</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01764121547155422</v>
+        <v>0.0148669275359036</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1127492792168195</v>
+        <v>0.1262712961598089</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02247480110515576</v>
+        <v>0.02766554279638433</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1229672308442915</v>
+        <v>0.1250585849306597</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05275972371873008</v>
+        <v>0.04928768247305987</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1288175033411465</v>
+        <v>0.124517332943411</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09599807674701183</v>
+        <v>0.0148669275359036</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1198672949809612</v>
+        <v>0.1262712961598089</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01764044492360543</v>
+        <v>0.01501620370222009</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1134495852989115</v>
+        <v>0.1270555899247766</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02247460901716641</v>
+        <v>0.02746686361649928</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1237310024644423</v>
+        <v>0.1258353463277445</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05247557583287141</v>
+        <v>0.04780962630514513</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1296176120575511</v>
+        <v>0.1252907325269104</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09490416179646388</v>
+        <v>0.01501620370222009</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1206118123410914</v>
+        <v>0.1270555899247766</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01963969480619201</v>
+        <v>0.01486651807945737</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1141498913810036</v>
+        <v>0.1278398836897444</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02187106626265814</v>
+        <v>0.02776838250245067</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1244947740845932</v>
+        <v>0.1266121077248294</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05209561308551935</v>
+        <v>0.04713566967833893</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1304177207739557</v>
+        <v>0.1260641321104099</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09491393323553449</v>
+        <v>0.01486651807945737</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1213563297012216</v>
+        <v>0.1278398836897444</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01763896512574772</v>
+        <v>0.01451790599174765</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1148501974630956</v>
+        <v>0.1286241774547121</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02186418494348785</v>
+        <v>0.02787011329155065</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1252585457047441</v>
+        <v>0.1273888691219142</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05131994751937172</v>
+        <v>0.04646588296261611</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1312178294903604</v>
+        <v>0.1268375316939094</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09562747242127168</v>
+        <v>0.01451790599174765</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1221008470613518</v>
+        <v>0.1286241774547121</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01963825588870644</v>
+        <v>0.01437040276322309</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1155505035451877</v>
+        <v>0.1294084712196799</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02145397716151259</v>
+        <v>0.02717206982111145</v>
       </c>
       <c r="K230" t="n">
-        <v>0.126022317324895</v>
+        <v>0.128165630518999</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05124869117712655</v>
+        <v>0.04580033652795179</v>
       </c>
       <c r="M230" t="n">
-        <v>0.132017938206765</v>
+        <v>0.1276109312774088</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09474486071072341</v>
+        <v>0.01437040276322309</v>
       </c>
       <c r="O230" t="n">
-        <v>0.122845364421482</v>
+        <v>0.1294084712196799</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01763756710150194</v>
+        <v>0.01432404371801588</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1162508096272797</v>
+        <v>0.1301927649846476</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0212404550185893</v>
+        <v>0.02747426592844518</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1267860889450458</v>
+        <v>0.1289423919160839</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05038195610148169</v>
+        <v>0.04543910074432073</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1328180469231696</v>
+        <v>0.1283843308609083</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09446617946093766</v>
+        <v>0.01432404371801588</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1235898817816122</v>
+        <v>0.1301927649846476</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01763689877056804</v>
+        <v>0.01407886418025819</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1169511157093718</v>
+        <v>0.1309770587496154</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02092363061657496</v>
+        <v>0.02777671545086408</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1275498605651967</v>
+        <v>0.1297191533131687</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05021985433513509</v>
+        <v>0.04448224598169775</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1336181556395743</v>
+        <v>0.1291577304444077</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0945915100289626</v>
+        <v>0.01407886418025819</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1243343991417424</v>
+        <v>0.1309770587496154</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01763625090233856</v>
+        <v>0.01403489947408222</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1176514217914638</v>
+        <v>0.1317613525145832</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02060351605732651</v>
+        <v>0.0276794322256802</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1283136321853476</v>
+        <v>0.1304959147102536</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04996249792078475</v>
+        <v>0.04322984261005802</v>
       </c>
       <c r="M233" t="n">
-        <v>0.134418264355979</v>
+        <v>0.1299311300279071</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09472093377184598</v>
+        <v>0.01403489947408222</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1250789165018726</v>
+        <v>0.1317613525145832</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01763562350324731</v>
+        <v>0.01379218492362018</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1183517278735559</v>
+        <v>0.1325456462795509</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02028012344270093</v>
+        <v>0.02778243009020584</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1290774038054985</v>
+        <v>0.1312726761073384</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04920999890112854</v>
+        <v>0.04248196099937629</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1352183730723836</v>
+        <v>0.1307045296114066</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09375453204663603</v>
+        <v>0.01379218492362018</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1258234338620027</v>
+        <v>0.1325456462795509</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01963501657972812</v>
+        <v>0.0136507558530042</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1190520339556479</v>
+        <v>0.1333299400445187</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0199534648745552</v>
+        <v>0.02748572288175308</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1298411754256494</v>
+        <v>0.1320494375044233</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04886246931886445</v>
+        <v>0.04173867151962746</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1360184817887882</v>
+        <v>0.131477929194906</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09409238621038069</v>
+        <v>0.0136507558530042</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1265679512221329</v>
+        <v>0.1333299400445187</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01763443013821479</v>
+        <v>0.01341064758636655</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1197523400377399</v>
+        <v>0.1341142338094864</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01932355245474628</v>
+        <v>0.02768932443763414</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1306049470458002</v>
+        <v>0.1328261989015081</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04912002121669043</v>
+        <v>0.04150004454078648</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1368185905051928</v>
+        <v>0.1322513287784055</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09383457762012787</v>
+        <v>0.01341064758636655</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1273124685822631</v>
+        <v>0.1341142338094864</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01963386418514112</v>
+        <v>0.01337189544783933</v>
       </c>
       <c r="G237" t="n">
-        <v>0.120452646119832</v>
+        <v>0.1348985275744542</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01919039828513115</v>
+        <v>0.02769324859516115</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1313687186659511</v>
+        <v>0.1336029602985929</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04868276663730431</v>
+        <v>0.04076615043282827</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1376186992215975</v>
+        <v>0.1330247283619049</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09418118763292571</v>
+        <v>0.01337189544783933</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1280569859423933</v>
+        <v>0.1348985275744542</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01963331872694094</v>
+        <v>0.01343453476155478</v>
       </c>
       <c r="G238" t="n">
-        <v>0.121152952201924</v>
+        <v>0.135682821339422</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01875401446756678</v>
+        <v>0.02719750919164629</v>
       </c>
       <c r="K238" t="n">
-        <v>0.132132490286102</v>
+        <v>0.1343797216956778</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0485508176234041</v>
+        <v>0.03943705956572774</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1384188079380021</v>
+        <v>0.1337981279454044</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09373229760582213</v>
+        <v>0.01343453476155478</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1288015033025235</v>
+        <v>0.135682821339422</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01863279377004806</v>
+        <v>0.01319860085164505</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1218532582840161</v>
+        <v>0.1364671151043897</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01851441310391014</v>
+        <v>0.02730212006440175</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1328962619062529</v>
+        <v>0.1351564830927626</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04802428621768773</v>
+        <v>0.03901284230945978</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1392189166544067</v>
+        <v>0.1345715275289038</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09348798889586524</v>
+        <v>0.01319860085164505</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1295460206626537</v>
+        <v>0.1364671151043897</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01863228932089631</v>
+        <v>0.01296412904224235</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1225535643661081</v>
+        <v>0.1372514088693575</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01807160629601816</v>
+        <v>0.02760709505073966</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1336600335264037</v>
+        <v>0.1359332444898475</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04730328446285317</v>
+        <v>0.0376935690339994</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1400190253708114</v>
+        <v>0.1353449271124033</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09324834286010297</v>
+        <v>0.01296412904224235</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1302905380227839</v>
+        <v>0.1372514088693575</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01763180538591946</v>
+        <v>0.01283115465747887</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1232538704482002</v>
+        <v>0.1380357026343252</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01762560614574786</v>
+        <v>0.02791244798797221</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1344238051465546</v>
+        <v>0.1367100058869323</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04688792440159828</v>
+        <v>0.03747931010932132</v>
       </c>
       <c r="M241" t="n">
-        <v>0.140819134087216</v>
+        <v>0.1361183266959027</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09361344085558326</v>
+        <v>0.01283115465747887</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1310350553829141</v>
+        <v>0.1380357026343252</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01763134197155138</v>
+        <v>0.01289971302148679</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1239541765302922</v>
+        <v>0.138819996399293</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01727642475495621</v>
+        <v>0.02741819271341156</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1351875767667055</v>
+        <v>0.1374867672840172</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0468783180766211</v>
+        <v>0.03647013590540055</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1416192428036206</v>
+        <v>0.1368917262794022</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09288336423935428</v>
+        <v>0.01289971302148679</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1317795727430443</v>
+        <v>0.138819996399293</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01863089908422585</v>
+        <v>0.01246983945839829</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1246544826123843</v>
+        <v>0.1396042901642607</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01692407422550013</v>
+        <v>0.02752434306436988</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1359513483868564</v>
+        <v>0.138263528681102</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04667457753061949</v>
+        <v>0.03666611679221204</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1424193515200253</v>
+        <v>0.1376651258629016</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09335819436846388</v>
+        <v>0.01246983945839829</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1325240901031745</v>
+        <v>0.1396042901642607</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01963047673037667</v>
+        <v>0.01264156929234558</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1253547886944763</v>
+        <v>0.1403885839292285</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01656856665923662</v>
+        <v>0.02753091287815934</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1367151200070073</v>
+        <v>0.1390402900781868</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04597681480629137</v>
+        <v>0.03586732313973068</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1432194602364299</v>
+        <v>0.1384385254464011</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09323801259996012</v>
+        <v>0.01264156929234558</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1332686074633047</v>
+        <v>0.1403885839292285</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01763007491643769</v>
+        <v>0.01251493784746081</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1260550947765684</v>
+        <v>0.1411728776941963</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01630991415802262</v>
+        <v>0.02723791599209213</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1374788916271582</v>
+        <v>0.1398170514752717</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04568514194633469</v>
+        <v>0.0351738253179314</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1440195689528346</v>
+        <v>0.1392119250299005</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09242290029089101</v>
+        <v>0.01251493784746081</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1340131248234349</v>
+        <v>0.1411728776941963</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0196296936488427</v>
+        <v>0.01208998044787618</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1267554008586604</v>
+        <v>0.141957171459164</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01604812882371516</v>
+        <v>0.0274453662434804</v>
       </c>
       <c r="K246" t="n">
-        <v>0.138242663247309</v>
+        <v>0.1405938128723565</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04539967099344747</v>
+        <v>0.03368569369678903</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1448196776692392</v>
+        <v>0.1399853246133999</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09211293879830457</v>
+        <v>0.01208998044787618</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1347576421835651</v>
+        <v>0.141957171459164</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01762933293402551</v>
+        <v>0.0121667324177239</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1274557069407525</v>
+        <v>0.1427414652241318</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01578322275817119</v>
+        <v>0.02725327746963632</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1390064348674599</v>
+        <v>0.1413705742694414</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04542051399032754</v>
+        <v>0.03350299864627859</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1456197863856439</v>
+        <v>0.1407587241968994</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09250820947924882</v>
+        <v>0.0121667324177239</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1355021595436953</v>
+        <v>0.1427414652241318</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01862899277841996</v>
+        <v>0.01214522908113612</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1281560130228445</v>
+        <v>0.1435257589890995</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01531520806324763</v>
+        <v>0.02776166350787204</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1397702064876108</v>
+        <v>0.1421473356665262</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04524778297967291</v>
+        <v>0.03222581053637491</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1464198951020485</v>
+        <v>0.1415321237803988</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09200879369077181</v>
+        <v>0.01214522908113612</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1362466769038255</v>
+        <v>0.1435257589890995</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01862867318845984</v>
+        <v>0.01192550576224505</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1288563191049366</v>
+        <v>0.1443100527540673</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01484409684080149</v>
+        <v>0.02767053819549975</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1405339781077617</v>
+        <v>0.1429240970636111</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04508159000418149</v>
+        <v>0.03195419973705288</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1472200038184531</v>
+        <v>0.1423055233638983</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0928147727899214</v>
+        <v>0.01192550576224505</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1369911942639556</v>
+        <v>0.1443100527540673</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01862837417057898</v>
+        <v>0.01170759778518287</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1295566251870286</v>
+        <v>0.145094346519035</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01456990119268975</v>
+        <v>0.02787991536983161</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1412977497279125</v>
+        <v>0.1437008584606959</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04452204710655122</v>
+        <v>0.03188823661828755</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1480201125348578</v>
+        <v>0.1430789229473977</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09222622813374565</v>
+        <v>0.01170759778518287</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1377357116240858</v>
+        <v>0.145094346519035</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01762809573121116</v>
+        <v>0.01149154047408177</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1302569312691206</v>
+        <v>0.1458786402840028</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01409263322076937</v>
+        <v>0.02788980886817979</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1420615213480634</v>
+        <v>0.1444776198577807</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04436926632947996</v>
+        <v>0.03022799155005373</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1488202212512624</v>
+        <v>0.1438523225308972</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09184324107929259</v>
+        <v>0.01149154047408177</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1384802289842161</v>
+        <v>0.1458786402840028</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01862783787679025</v>
+        <v>0.01147736915307393</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1309572373512127</v>
+        <v>0.1466629340489705</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01391230502689728</v>
+        <v>0.02760023252785646</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1428252929682143</v>
+        <v>0.1452543812548656</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04452335971566579</v>
+        <v>0.03057353490232628</v>
       </c>
       <c r="M252" t="n">
-        <v>0.149620329967667</v>
+        <v>0.1446257221143966</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09166589298361033</v>
+        <v>0.01147736915307393</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1392247463443462</v>
+        <v>0.1466629340489705</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01962760061375001</v>
+        <v>0.01156511914629153</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1316575434333047</v>
+        <v>0.1474472278139383</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01322892871293049</v>
+        <v>0.02781120018617378</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1435890645883652</v>
+        <v>0.1460311426519504</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04378443930780654</v>
+        <v>0.02902493704508019</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1504204386840717</v>
+        <v>0.1453991216978961</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09199426520374671</v>
+        <v>0.01156511914629153</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1399692637044764</v>
+        <v>0.1474472278139383</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01862738394852429</v>
+        <v>0.01115482577786678</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1323578495153968</v>
+        <v>0.1482315215789061</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01304251638072595</v>
+        <v>0.02752272568044392</v>
       </c>
       <c r="K254" t="n">
-        <v>0.144352836208516</v>
+        <v>0.1468079040490353</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04385261714860017</v>
+        <v>0.02918226834829041</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1512205474004763</v>
+        <v>0.1461725212813955</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09232843909674987</v>
+        <v>0.01115482577786678</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1407137810646066</v>
+        <v>0.1482315215789061</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01962718788754688</v>
+        <v>0.01124652437193184</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1330581555974888</v>
+        <v>0.1490158153438738</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01255308013214065</v>
+        <v>0.02803482284797906</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1451166078286669</v>
+        <v>0.1475846654461201</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04322800528074466</v>
+        <v>0.02804559918193184</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1520206561168809</v>
+        <v>0.146945920864895</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09236849601966768</v>
+        <v>0.01124652437193184</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1414582984247368</v>
+        <v>0.1490158153438738</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0196270124372516</v>
+        <v>0.01124025025261892</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1337584616795809</v>
+        <v>0.1498001091088416</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01206063206903155</v>
+        <v>0.02764750552609135</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1458803794488178</v>
+        <v>0.148361426843205</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04301071574693788</v>
+        <v>0.02711499991597927</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1528207648332855</v>
+        <v>0.1477193204483944</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0919145173295482</v>
+        <v>0.01124025025261892</v>
       </c>
       <c r="O256" t="n">
-        <v>0.142202815784867</v>
+        <v>0.1498001091088416</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01762685760407227</v>
+        <v>0.01093603874406018</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1344587677616729</v>
+        <v>0.1505844028738093</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0119651842932556</v>
+        <v>0.02786078755209298</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1466441510689687</v>
+        <v>0.1491381882402898</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04270086058987779</v>
+        <v>0.02679054092040772</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1536208735496902</v>
+        <v>0.1484927200318939</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09216658438343955</v>
+        <v>0.01093603874406018</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1429473331449972</v>
+        <v>0.1505844028738093</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0186267233944427</v>
+        <v>0.01093392517038783</v>
       </c>
       <c r="G258" t="n">
-        <v>0.135159073843765</v>
+        <v>0.1513686966387771</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01126674890666982</v>
+        <v>0.02807468276329611</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1474079226891195</v>
+        <v>0.1499149496373746</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04249855185226237</v>
+        <v>0.02647229256519201</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1544209822660949</v>
+        <v>0.1492661196153933</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09132477853838955</v>
+        <v>0.01093392517038783</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1436918505051274</v>
+        <v>0.1513686966387771</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01962660981479671</v>
+        <v>0.01073394485573405</v>
       </c>
       <c r="G259" t="n">
-        <v>0.135859379925857</v>
+        <v>0.1521529904037449</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01116533801113111</v>
+        <v>0.02758920499701289</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1481716943092704</v>
+        <v>0.1506917110344595</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04230390157678951</v>
+        <v>0.0261603252203072</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1552210909824995</v>
+        <v>0.1500395191988927</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09128918115144635</v>
+        <v>0.01073394485573405</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1444363678652576</v>
+        <v>0.1521529904037449</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0176265168715681</v>
+        <v>0.01063613312423101</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1365596860079491</v>
+        <v>0.1529372841687126</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01066096370849647</v>
+        <v>0.02740436809055549</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1489354659294213</v>
+        <v>0.1514684724315443</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04261702180615715</v>
+        <v>0.02505470925572806</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1560211996989041</v>
+        <v>0.1508129187823922</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09165987357965788</v>
+        <v>0.01063613312423101</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1451808852253878</v>
+        <v>0.1529372841687126</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01962644457119068</v>
+        <v>0.01074052530001093</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1372599920900411</v>
+        <v>0.1537215779336804</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01035363810062289</v>
+        <v>0.02792018588123613</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1496992375495722</v>
+        <v>0.1522452338286292</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04263802458306323</v>
+        <v>0.02445551504142962</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1568213084153088</v>
+        <v>0.1515863183658916</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09113693718007215</v>
+        <v>0.01074052530001093</v>
       </c>
       <c r="O261" t="n">
-        <v>0.145925402585518</v>
+        <v>0.1537215779336804</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01962639292009829</v>
+        <v>0.01044715670720596</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1379602981721332</v>
+        <v>0.1545058716986481</v>
       </c>
       <c r="J262" t="n">
-        <v>0.009843373289367317</v>
+        <v>0.02813667220636693</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1504630091697231</v>
+        <v>0.153021995225714</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0418670219502057</v>
+        <v>0.0241628129473867</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1576214171317134</v>
+        <v>0.1523597179493911</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09102045330973724</v>
+        <v>0.01044715670720596</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1466699199456482</v>
+        <v>0.1545058716986481</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01962636192472472</v>
+        <v>0.01035606266994831</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1386606042542252</v>
+        <v>0.1552901654636159</v>
       </c>
       <c r="J263" t="n">
-        <v>0.009330181376586734</v>
+        <v>0.02755384090326005</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1512267807898739</v>
+        <v>0.1537987566227988</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04210412595028248</v>
+        <v>0.02267667334357426</v>
       </c>
       <c r="M263" t="n">
-        <v>0.158421525848118</v>
+        <v>0.1531331175328906</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09211050332570109</v>
+        <v>0.01035606266994831</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1474144373057784</v>
+        <v>0.1552901654636159</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0196263515915038</v>
+        <v>0.01016727851237016</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1393609103363173</v>
+        <v>0.1560744592285837</v>
       </c>
       <c r="J264" t="n">
-        <v>0.009114074464138089</v>
+        <v>0.02747170580922767</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1519905524100248</v>
+        <v>0.1545755180198837</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04164944862599154</v>
+        <v>0.02309716659996719</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1592216345645227</v>
+        <v>0.15390651711639</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09210716858501172</v>
+        <v>0.01016727851237016</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1481589546659086</v>
+        <v>0.1560744592285837</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8263518223330697</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06610814578664558</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.0797905546699921</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.02979055466999209</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01156248072681956</v>
+        <v>0.01316835672499606</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001849206099983326</v>
+        <v>0.001192720045169161</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007842937649677569</v>
+        <v>0.0006376854214646067</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006377475261097387</v>
+        <v>0.001642967999590413</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007767613970848427</v>
+        <v>0.0007842937649677569</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01149754582085927</v>
+        <v>0.006549716233713421</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007733995834994472</v>
+        <v>0.0007747417053667109</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001849206099983326</v>
+        <v>0.009051033623512728</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007842937649677569</v>
+        <v>0.0007755959657818538</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004205565508927062</v>
+        <v>0.002418266362242308</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001568587529935514</v>
+        <v>0.001275370842929213</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01204695235742956</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001553522794169685</v>
+        <v>0.001362613636363634</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02167574690564217</v>
+        <v>0.01319227836646897</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001546799166998894</v>
+        <v>0.001549483410733422</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.004205565508927062</v>
+        <v>0.01723841916147861</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001568587529935514</v>
+        <v>0.001551191931563708</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006103003886888538</v>
+        <v>0.003675208932550925</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002352881294903271</v>
+        <v>0.00191305626439382</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01750584514158079</v>
+        <v>0.004618057653201023</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002330284191254528</v>
+        <v>0.002352881294903271</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03006353319451921</v>
+        <v>0.01867028770041987</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002320198750498342</v>
+        <v>0.002324225116100133</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.006103003886888538</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002352881294903271</v>
+        <v>0.00201868686868687</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007475446893925139</v>
+        <v>0.004962117737426497</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003137175059871028</v>
+        <v>0.002550741685858427</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02155156746613526</v>
+        <v>0.005632735687513754</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003107045588339371</v>
+        <v>0.003137175059871028</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03899999999999998</v>
+        <v>0.02262634553771931</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003280366161616159</v>
+        <v>0.003098966821466844</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.007475446893925139</v>
+        <v>0.02908790805401562</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003137175059871028</v>
+        <v>0.003102383863127415</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004542045454545451</v>
+        <v>0.01125998261544982</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.02479055466999209</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009156820190094207</v>
+        <v>0.006277562758200531</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003921468824838785</v>
+        <v>0.003188427107323034</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02399999999999997</v>
+        <v>0.006988813704661319</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003633636363636358</v>
+        <v>0.003921468824838785</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04151287543493704</v>
+        <v>0.02499999999999997</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003866997917497236</v>
+        <v>0.003504664702581364</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.009156820190094207</v>
+        <v>0.03437584180931369</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003921468824838785</v>
+        <v>0.003877979828909269</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.007620113976204511</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004542045454545451</v>
+        <v>0.003826112528787641</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0268177232784225</v>
+        <v>0.008086723817765346</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004660568382509056</v>
+        <v>0.004705762589806542</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04579307396496468</v>
+        <v>0.02820526338805102</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004640397500996683</v>
+        <v>0.004648450232200265</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.03865327450089645</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004542045454545451</v>
+        <v>0.004653575794691123</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01091794944043802</v>
+        <v>0.008988341372769937</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005490056354774299</v>
+        <v>0.004463797950252247</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02877182673393158</v>
+        <v>0.008826898139947505</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005437329779593899</v>
+        <v>0.005490056354774299</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04830092470405795</v>
+        <v>0.03029793033850564</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00541379708449613</v>
+        <v>0.005423191937566976</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01091794944043802</v>
+        <v>0.04331563354302609</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005490056354774299</v>
+        <v>0.005429171760472976</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01164817285716335</v>
+        <v>0.01038081492922831</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006274350119742055</v>
+        <v>0.005101483371716854</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03075660120948354</v>
+        <v>0.009809768784329445</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006214091176678742</v>
+        <v>0.006274350119742055</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05104053412806775</v>
+        <v>0.03230374192343829</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006187196667995578</v>
+        <v>0.006197933642933687</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01164817285716335</v>
+        <v>0.04675834634996495</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006274350119742055</v>
+        <v>0.006204767726254831</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01219417904570878</v>
+        <v>0.0117961046269111</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007058643884709813</v>
+        <v>0.005739168793181461</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03192419888057652</v>
+        <v>0.01073576786403284</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006990852573763584</v>
+        <v>0.007058643884709813</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05411600871284505</v>
+        <v>0.03328833746361645</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006960596251495026</v>
+        <v>0.006972675348300398</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01219417904570878</v>
+        <v>0.05067684033597553</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007058643884709813</v>
+        <v>0.006980363692036684</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01267198848192307</v>
+        <v>0.01323278044714982</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00784293764967757</v>
+        <v>0.006376854214646068</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0340267719227087</v>
+        <v>0.01190532749217933</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007767613970848427</v>
+        <v>0.00784293764967757</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05730159255302764</v>
+        <v>0.03511735627980764</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008032914752891815</v>
+        <v>0.007747417053667109</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01267198848192307</v>
+        <v>0.05306654291532004</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00784293764967757</v>
+        <v>0.007755959657818537</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0134976216416549</v>
+        <v>0.01468941237127597</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008627231414645326</v>
+        <v>0.007014539636110674</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03491647251137822</v>
+        <v>0.01241887978189058</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008544375367933271</v>
+        <v>0.008627231414645326</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05790722326440878</v>
+        <v>0.0362877612799673</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008507395418493919</v>
+        <v>0.008478429072906685</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0134976216416549</v>
+        <v>0.05730159255302764</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008627231414645326</v>
+        <v>0.008763179730427437</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01398709900075307</v>
+        <v>0.01616457038062103</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007652225057575282</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01347685684628823</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009411525179613084</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.0362877612799673</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009156703398739221</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06016520546008736</v>
+        <v>0.03707320839404324</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009280795001993367</v>
+        <v>0.00929690046440053</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01398709900075307</v>
+        <v>0.05824329492773994</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009411525179613084</v>
+        <v>0.009307151589382246</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01435644103506629</v>
+        <v>0.0176568244565165</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008289910479039889</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01407969079849396</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01019581894458084</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.0377654197363636</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01009789816210296</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06161293791135097</v>
+        <v>0.03818779636768982</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01005419458549281</v>
+        <v>0.01007164216976724</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01435644103506629</v>
+        <v>0.06001915062896002</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01019581894458084</v>
+        <v>0.0100827475551641</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01492166822044333</v>
+        <v>0.01916474458029387</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008927595900504494</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01472781375162942</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.0109801127095486</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03878478706148181</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.0108746595591878</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.0642488796253764</v>
+        <v>0.03929908604949184</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01082759416899226</v>
+        <v>0.01084638387513395</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01492166822044333</v>
+        <v>0.06246781565698728</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0109801127095486</v>
+        <v>0.01085834352094595</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>0.02068690073328464</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.009565281321969103</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.01527393000690699</v>
       </c>
-      <c r="G80" t="n">
+      <c r="K80" t="n">
         <v>0.01156248072681956</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03950262448886402</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01165142095627264</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06587148960934053</v>
+        <v>0.04090592073394286</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01160099375249171</v>
+        <v>0.01162112558050066</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.0643882136446064</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01156248072681956</v>
+        <v>0.01163393948672781</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01588582261042458</v>
+        <v>0.02222186289682027</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01020296674343371</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01600267385194069</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01254870023948411</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04081761595552438</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01242818235335748</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06707922687042051</v>
+        <v>0.0424071437155365</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01237439333599116</v>
+        <v>0.01239586728586737</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01588582261042458</v>
+        <v>0.06737926822460233</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01254870023948411</v>
+        <v>0.01240953545250966</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01628028962830623</v>
+        <v>0.02376820105223231</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01084065216489831</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0162795415155241</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01333299400445187</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04262844539847707</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01320494375044233</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06917055041579312</v>
+        <v>0.04340159828876644</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0131477929194906</v>
+        <v>0.01317060899123408</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01628028962830623</v>
+        <v>0.06943990302975989</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01333299400445187</v>
+        <v>0.01318513141829152</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01658064997587497</v>
+        <v>0.02479055466999209</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01125998261544982</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0171533682304629</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01411728776941963</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04353379675473629</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01398170514752717</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.07104391925263526</v>
+        <v>0.04468812774812622</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01392119250299005</v>
+        <v>0.0139453506966008</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01658064997587497</v>
+        <v>0.07036904169286384</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01411728776941963</v>
+        <v>0.01396072738407337</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01708591983429103</v>
+        <v>0.02729981093979148</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01211602300782753</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01752353018736851</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01490158153438738</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04483235396131618</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01475846654461201</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07279779238812401</v>
+        <v>0.04586557538810956</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0146945920864895</v>
+        <v>0.01472009240196751</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01708591983429103</v>
+        <v>0.07276560784669894</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01490158153438738</v>
+        <v>0.01473632334985522</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01759511538471474</v>
+        <v>0.02906660545471338</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01275370842929214</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01798940357685234</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01568587529935514</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04622280095523099</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01553522794169685</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07453062882943629</v>
+        <v>0.04643278450320998</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01546799166998894</v>
+        <v>0.01549483410733422</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01759511538471474</v>
+        <v>0.07462852512405005</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01568587529935514</v>
+        <v>0.01551191931563707</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01830725280830636</v>
+        <v>0.02979055466999209</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01316835672499606</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01855036458952584</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.0164701690643229</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04690382167349486</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.0163119893387817</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07674088758374886</v>
+        <v>0.04768859838792117</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01624139125348839</v>
+        <v>0.01626957581270093</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01830725280830636</v>
+        <v>0.07705671715770201</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0164701690643229</v>
+        <v>0.01628751528141893</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01892134828622614</v>
+        <v>0.03073669044871877</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01402907927222135</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01930578941600039</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01725446282929065</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04857410005312196</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01708875073586654</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.07862702765823881</v>
+        <v>0.04943186033673672</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01701479083698784</v>
+        <v>0.01704431751806764</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01892134828622614</v>
+        <v>0.07864910758043975</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01725446282929065</v>
+        <v>0.01706311124720078</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01923641799963439</v>
+        <v>0.03138939273702276</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01466676469368595</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0196550542468874</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01803875659425841</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04973232003112651</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01786551213295138</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.08068750806008307</v>
+        <v>0.05036141364415025</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01778819042048729</v>
+        <v>0.01781905922343435</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01923641799963439</v>
+        <v>0.08060462002504792</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01803875659425841</v>
+        <v>0.01783870721298264</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0196514781296914</v>
+        <v>0.03200290633574932</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01530445011515056</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02039753527279829</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01882305035922617</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05027716554452272</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01864227353003622</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.08192078779645851</v>
+        <v>0.0512761016046554</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01856159000398673</v>
+        <v>0.01859380092880106</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0196514781296914</v>
+        <v>0.08192217812431141</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01882305035922617</v>
+        <v>0.01861430317876449</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0202655448575574</v>
+        <v>0.03257892457689961</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01594213553661517</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0208326086843445</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01960734412419392</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05190732053032465</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01941903492712107</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08442532587454216</v>
+        <v>0.05277476751274579</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01933498958748618</v>
+        <v>0.01936854263416777</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0202655448575574</v>
+        <v>0.08470070551101494</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01960734412419392</v>
+        <v>0.01938989914454635</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02087763436439269</v>
+        <v>0.03311914079247461</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01657982095807978</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02125965067213745</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02039163788916168</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05272146892554655</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02019579632420591</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.0851995813015109</v>
+        <v>0.05345625466291501</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02010838917098563</v>
+        <v>0.02014328433953448</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02087763436439269</v>
+        <v>0.08583912581794351</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02039163788916168</v>
+        <v>0.0201654951103282</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02138676283135756</v>
+        <v>0.03362524831447545</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01721750637954438</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02197803742678853</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02117593165412944</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05391829466720263</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02097255772129075</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.08744201308454158</v>
+        <v>0.0546194063496567</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02088178875448507</v>
+        <v>0.02091802604490119</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02138676283135756</v>
+        <v>0.0873363626778817</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02117593165412944</v>
+        <v>0.02094109107611005</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02169194643961228</v>
+        <v>0.03409894047490313</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01785519180100899</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02248714513890913</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02196022541909719</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05489648169230707</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.0217493191183756</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.08845108023081133</v>
+        <v>0.05526306586746449</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02165518833798452</v>
+        <v>0.02169276775026791</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02169194643961228</v>
+        <v>0.08979133972361458</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02196022541909719</v>
+        <v>0.02171668704189191</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0224922013703171</v>
+        <v>0.03454191060575875</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0184928772224736</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02278634999911075</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02274451918406495</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05595471393787402</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02252608051546044</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09002524174749699</v>
+        <v>0.05698607651083198</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02242858792148397</v>
+        <v>0.02246750945563461</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0224922013703171</v>
+        <v>0.09050298058792677</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02274451918406495</v>
+        <v>0.02249228300767376</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02268654380463232</v>
+        <v>0.03495585203904335</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01913056264393821</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02347502819800472</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02352881294903271</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05689167534091769</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02330284191254528</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09166295664177537</v>
+        <v>0.05728728157425281</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02320198750498342</v>
+        <v>0.02324225116100133</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02268654380463232</v>
+        <v>0.09267020890360322</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02352881294903271</v>
+        <v>0.02326787897345561</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02347398992371823</v>
+        <v>0.03534245810675802</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01976824806540281</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02385255592620249</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02431310671400047</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05810604983845225</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02407960330963013</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.09296268392082363</v>
+        <v>0.05886552435222059</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02397538708848286</v>
+        <v>0.02401699286636804</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02347398992371823</v>
+        <v>0.09339194830342867</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02431310671400047</v>
+        <v>0.02404347493923747</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02395355590873507</v>
+        <v>0.03570342214090379</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02040593348686742</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02441830937431551</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02509740047896822</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05929652136749186</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02485636470671497</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.0952228825918186</v>
+        <v>0.05941964813922893</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02474878667198231</v>
+        <v>0.02479173457173475</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02395355590873507</v>
+        <v>0.09586712242018797</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02509740047896822</v>
+        <v>0.02481907090501932</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02412425794084316</v>
+        <v>0.03604043747348173</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02104361890833202</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02487166473295511</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02588169424393598</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.05996177386505072</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02563312610379981</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.0961420116619372</v>
+        <v>0.06074849622977152</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02552218625548176</v>
+        <v>0.02556647627710146</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02412425794084316</v>
+        <v>0.09639465488666588</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02588169424393598</v>
+        <v>0.02559466687080117</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02458511220120276</v>
+        <v>0.03635519743649291</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02168130432979663</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02541199819273282</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02666598800890373</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.061000491268143</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02640988750088465</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.09801853013835632</v>
+        <v>0.06135091191834185</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0262955858389812</v>
+        <v>0.02634121798246817</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02458511220120276</v>
+        <v>0.09817346933564725</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02666598800890373</v>
+        <v>0.02637026283658303</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0252351348709741</v>
+        <v>0.03664939536193839</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02231898975126124</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02583868594425996</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02745028177387149</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06191135751378293</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02718664889796949</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.09845089702825299</v>
+        <v>0.06212573849943367</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02706898542248065</v>
+        <v>0.02711595968783488</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0252351348709741</v>
+        <v>0.09930248939991698</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02745028177387149</v>
+        <v>0.02714585880236488</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02547334213131755</v>
+        <v>0.03692472458181922</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02295667517272584</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.026051104178148</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02823457553883925</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.06249305653898463</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02796341029505434</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.09973757133880412</v>
+        <v>0.06287181926754051</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0278423850059801</v>
+        <v>0.02789070139320159</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02547334213131755</v>
+        <v>0.1003806387122598</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02823457553883925</v>
+        <v>0.02792145476814674</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02609875016339332</v>
+        <v>0.03718287842813647</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02359436059419045</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02634862908500833</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02901886930380701</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06354427228076232</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02874017169213918</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1018770120771867</v>
+        <v>0.06408799751715602</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02861578458947955</v>
+        <v>0.02866544309856831</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02609875016339332</v>
+        <v>0.1026068409054605</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02901886930380701</v>
+        <v>0.02869705073392859</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0265103751483617</v>
+        <v>0.03742555023289119</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02423204601565506</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02673063685545238</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02980316306877476</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.0641636886761302</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02951693308922403</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1027676782505775</v>
+        <v>0.06447311654277385</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02938918417297899</v>
+        <v>0.02944018480393501</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0265103751483617</v>
+        <v>0.103480019612304</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02980316306877476</v>
+        <v>0.02947264669971044</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02680723326738295</v>
+        <v>0.03765443332808444</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02486973143711967</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02729650368009154</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03058745683374252</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.06494998966210236</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03029369448630887</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1034080288661537</v>
+        <v>0.06522601963888758</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03016258375647844</v>
+        <v>0.03021492650930172</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02680723326738295</v>
+        <v>0.1047990984655749</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03058745683374252</v>
+        <v>0.0302482426654923</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0273883407016174</v>
+        <v>0.03787122104571729</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02550741685858427</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02754560574953725</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03137175059871028</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.0660018591756931</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03107045588339371</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.105496522931092</v>
+        <v>0.06644555009999084</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03093598333997789</v>
+        <v>0.03098966821466844</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0273883407016174</v>
+        <v>0.1055630010980584</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03137175059871028</v>
+        <v>0.03102383863127415</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02745271363222528</v>
+        <v>0.03807760671779083</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02614510228004888</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02797731925440093</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03215604436367803</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06701798115391649</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03184721728047855</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1065316194525694</v>
+        <v>0.06663055122057729</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03170938292347734</v>
+        <v>0.03176440992003515</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02745271363222528</v>
+        <v>0.105870651142539</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03215604436367803</v>
+        <v>0.03179943459705601</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02809936824036688</v>
+        <v>0.03827528367630607</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02678278770151349</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02819102038529399</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03294033812864579</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.06769703953378683</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03262397867756339</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1072117774377629</v>
+        <v>0.06727986629514049</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03248278250697678</v>
+        <v>0.03253915162540186</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02809936824036688</v>
+        <v>0.1078209722318015</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03294033812864579</v>
+        <v>0.03257503056283786</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02832732070720248</v>
+        <v>0.03846594525326408</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02742047312297809</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02858608533282785</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03372463189361355</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.06833771825231824</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03340074007464824</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1076354558938495</v>
+        <v>0.0682923386181741</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03325618209047623</v>
+        <v>0.03331389333076856</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02832732070720248</v>
+        <v>0.108712887998631</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03372463189361355</v>
+        <v>0.03335062652861971</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02863558721389235</v>
+        <v>0.03865128478066596</v>
       </c>
       <c r="G109" t="n">
+        <v>0.0280581585444427</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02886189028761389</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.0345089256585813</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.06843870124652487</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03417750147173308</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1091011138280061</v>
+        <v>0.06836681148417173</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03402958167397568</v>
+        <v>0.03408863503613528</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02863558721389235</v>
+        <v>0.109145322075812</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0345089256585813</v>
+        <v>0.03412622249440157</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02882318394159677</v>
+        <v>0.03883300211354448</v>
       </c>
       <c r="G110" t="n">
+        <v>0.0286958439659073</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02911781144026358</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03529321942354906</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.06889867245342096</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03495426286881792</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1097072102474094</v>
+        <v>0.06960212818762701</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03480298125747513</v>
+        <v>0.03486337674150199</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02882318394159677</v>
+        <v>0.1099171980961295</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03529321942354906</v>
+        <v>0.03490181846018342</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02898912707147602</v>
+        <v>0.03901287918359634</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02933352938737191</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0294532249813883</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03607751318851682</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.07001631581002066</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03573102426590277</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1104522041592366</v>
+        <v>0.06969713202303354</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03557638084097457</v>
+        <v>0.0356381184468687</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02898912707147602</v>
+        <v>0.1102274396923683</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03607751318851682</v>
+        <v>0.03567741442596527</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02943243278469039</v>
+        <v>0.03919135012845996</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02997121480883652</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02936750710159949</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03686180695348457</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.07029031525333815</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0365077856629876</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1107345545706645</v>
+        <v>0.06985066628488495</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03634978042447402</v>
+        <v>0.03641286015223541</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02943243278469039</v>
+        <v>0.1107749704973133</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03686180695348457</v>
+        <v>0.03645301039174713</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02965211726240012</v>
+        <v>0.03936834042923729</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03060890023030113</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02986003399150854</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03764610071845233</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.07041935472038763</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03728454706007245</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1113527204888702</v>
+        <v>0.07046157426767485</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03712318000797347</v>
+        <v>0.03718760185760212</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02965211726240012</v>
+        <v>0.111558714143749</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03764610071845233</v>
+        <v>0.03722860635752898</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02974719668576553</v>
+        <v>0.03954377556703031</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03124658565176574</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02983018184172687</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.0384303944834201</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.07090211814818329</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03806130845715729</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1123051609210305</v>
+        <v>0.0706286992658969</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03789657959147291</v>
+        <v>0.03796234356296883</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02974719668576553</v>
+        <v>0.1118775942644606</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0384303944834201</v>
+        <v>0.03800420232331083</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02981668723594687</v>
+        <v>0.03971758102294096</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03188427107323034</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03017732684286592</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03921468824838785</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.07113728947373932</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03883806985424214</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1125903348743223</v>
+        <v>0.0713508845740447</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03866997917497236</v>
+        <v>0.03873708526833555</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02981668723594687</v>
+        <v>0.1132305344922327</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03921468824838785</v>
+        <v>0.03877979828909269</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02995960509410442</v>
+        <v>0.03988968227807125</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03252195649469494</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03030084518553708</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.0399989820133556</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.07152355263406984</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03961483125132698</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1131067013559227</v>
+        <v>0.07142697348661184</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03944337875847181</v>
+        <v>0.03951182697370226</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02995960509410442</v>
+        <v>0.1137164584598501</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0399989820133556</v>
+        <v>0.03955539425487455</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03037496644139843</v>
+        <v>0.04006000481352309</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03315964191615955</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03020011306035178</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04078327577832336</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.07195959156618909</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04039159264841182</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1137527193730085</v>
+        <v>0.07205580929809199</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04021677834197126</v>
+        <v>0.04028656867906897</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03037496644139843</v>
+        <v>0.1138342898000977</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04078327577832336</v>
+        <v>0.04033099022065639</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03026178745898925</v>
+        <v>0.04022847411039842</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03379732733762416</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03047450665792147</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04156756954329112</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.07234409020711119</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04116835404549666</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1138268479327566</v>
+        <v>0.07173623530297871</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0409901779254707</v>
+        <v>0.04106131038443567</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03026178745898925</v>
+        <v>0.1133829521457603</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04156756954329112</v>
+        <v>0.04110658618643825</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03031908432803709</v>
+        <v>0.04039501564979927</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03443501275908877</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03054786001381399</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04235186330825887</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.07177573249385041</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.0419451154425815</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1142275460423441</v>
+        <v>0.07246709479576566</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04176357750897015</v>
+        <v>0.04183605208980239</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03031908432803709</v>
+        <v>0.1134613691296228</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04235186330825887</v>
+        <v>0.04188218215222011</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03054786001381399</v>
+        <v>0.04055955491282755</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03507269818055338</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03054617578377128</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04313615707322663</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.07257552255993463</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04272187683966635</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.0426107937951691</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1146031851060553</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.0425369770924696</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03054786001381399</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04313615707322663</v>
+        <v>0.04265777811800196</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03034685822032139</v>
+        <v>0.04072201738058522</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03571038360201798</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0304457131429752</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04392045083819439</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.07217538699982434</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04349863823675119</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1143024869397447</v>
+        <v>0.07257548742301476</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04331037667596904</v>
+        <v>0.04338553550053581</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03034685822032139</v>
+        <v>0.1144031619848717</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04392045083819439</v>
+        <v>0.04343337408378381</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03044140461321337</v>
+        <v>0.04088232853417428</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03634806902348259</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03023411619882832</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04470474460316215</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.07206172114452966</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04427539963383603</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1143000427403324</v>
+        <v>0.07225747867627325</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04408377625946849</v>
+        <v>0.04416027720590252</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03044140461321337</v>
+        <v>0.1144658813465376</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04470474460316215</v>
+        <v>0.04420897004956566</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03023130141359326</v>
+        <v>0.04104041385469665</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03698575444494719</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03051284108458123</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.0454890383681299</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.072226198596339</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04505216103092088</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.113988605155927</v>
+        <v>0.07190158108200209</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04485717584296794</v>
+        <v>0.04493501891126923</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03023130141359326</v>
+        <v>0.1137599142361573</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0454890383681299</v>
+        <v>0.04498456601534753</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03021665363599242</v>
+        <v>0.04119619882325431</v>
       </c>
       <c r="G124" t="n">
+        <v>0.0376234398664118</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03038231277156943</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04627333213309766</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.07226959577390465</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04582892242800572</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1143688028655788</v>
+        <v>0.07200933729027928</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04563057542646739</v>
+        <v>0.04570976061663595</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03021665363599242</v>
+        <v>0.1131885968922871</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04627333213309766</v>
+        <v>0.04576016198112937</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03019756629494226</v>
+        <v>0.04134960892094918</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03826112528787641</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03014295623112849</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04705762589806541</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.07189268909587901</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04660568382509056</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1136406411609277</v>
+        <v>0.07208228088729005</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04640397500996683</v>
+        <v>0.04648450232200265</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03019756629494226</v>
+        <v>0.1140552655534833</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04705762589806541</v>
+        <v>0.04653575794691123</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03027414440497415</v>
+        <v>0.04150056962888327</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03889881070934102</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03019519643459392</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04784191966303317</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07199625498091436</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04738244522217541</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.113604125333614</v>
+        <v>0.07162194545921957</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04717737459346628</v>
+        <v>0.04725924402736936</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03027414440497415</v>
+        <v>0.1133632564583021</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04784191966303317</v>
+        <v>0.04731135391269308</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03014649298061951</v>
+        <v>0.04164900642815853</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03953649613080562</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03013945835330127</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04862621342800093</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.07158106984766299</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04815920661926025</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1143592606752775</v>
+        <v>0.07162986459225298</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04795077417696573</v>
+        <v>0.04803398573273607</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03014649298061951</v>
+        <v>0.1131159058453001</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04862621342800093</v>
+        <v>0.04808694987847494</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03021471703640971</v>
+        <v>0.04179484479987689</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04017418155227023</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03017616695858608</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04941050719296869</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.07134791011477726</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04893596801634509</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1139060524775583</v>
+        <v>0.07100757187257536</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04872417376046517</v>
+        <v>0.04880872743810279</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03021471703640971</v>
+        <v>0.1121165499530334</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04941050719296869</v>
+        <v>0.04886254584425679</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03037892158687615</v>
+        <v>0.04193801022514033</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04081186697373483</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03020574722178386</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05019480095793644</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.07169755220090951</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04971272941342993</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1141445060320965</v>
+        <v>0.07135660088637197</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04949757334396462</v>
+        <v>0.0495834691434695</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03037892158687615</v>
+        <v>0.1121685250200584</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05019480095793644</v>
+        <v>0.04963814181003864</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03033921164655021</v>
+        <v>0.04207842818505084</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04144955239519944</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02982862411423015</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0509790947229042</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.07143077252471203</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05048949081051477</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1140746266305319</v>
+        <v>0.07117848521982792</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05027097292746407</v>
+        <v>0.0503582108488362</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03033921164655021</v>
+        <v>0.1115751672849313</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0509790947229042</v>
+        <v>0.0504137377758205</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03019569222996328</v>
+        <v>0.04221602416071032</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04208723781666405</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02994522260726049</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05176338848787196</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.07154834750483713</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05126625220759962</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1133964195645048</v>
+        <v>0.07027475845912837</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05104437251096352</v>
+        <v>0.05113295255420292</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03019569222996328</v>
+        <v>0.1114398129862084</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05176338848787196</v>
+        <v>0.05118933374160235</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03004846835164673</v>
+        <v>0.04235072363322075</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04272492323812865</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.0299559676722104</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05254768225283971</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0708510535599372</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05204301360468446</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1132098901256551</v>
+        <v>0.07024695419045843</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05181777209446296</v>
+        <v>0.05190769425956963</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03004846835164673</v>
+        <v>0.1103657983624462</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05254768225283971</v>
+        <v>0.05196492970738421</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03019764502613201</v>
+        <v>0.04248245208368414</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04336260865959326</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02986128428041541</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05333197601780747</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.07093966710866448</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05281977500176931</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1137150436056228</v>
+        <v>0.0701966060000033</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05259117167796241</v>
+        <v>0.05268243596493634</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03019764502613201</v>
+        <v>0.1102564596522008</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05333197601780747</v>
+        <v>0.05274052567316606</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02984332726795046</v>
+        <v>0.04261113499320238</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04400029408105786</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0295615974032111</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05411626978277523</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.07071496456967136</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05359653639885414</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1137118852960481</v>
+        <v>0.06972524747394812</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05336457126146186</v>
+        <v>0.05345717767030305</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02984332726795046</v>
+        <v>0.1087151330940286</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05411626978277523</v>
+        <v>0.05351612163894791</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03008562009163346</v>
+        <v>0.04273669784287747</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04463797950252248</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02965733201193296</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05490056354774298</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07047772236161012</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05437329779593899</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1136004204885708</v>
+        <v>0.06943441219847804</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05413797084496131</v>
+        <v>0.05423191937566976</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03008562009163346</v>
+        <v>0.1083451549264859</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05490056354774298</v>
+        <v>0.05429171760472976</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02972462851171244</v>
+        <v>0.04285906611381134</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04527566492398708</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02934891307791651</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05568485731271075</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.06972871690313309</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05515005919302383</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.113480654474831</v>
+        <v>0.06872563375977822</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05491137042846075</v>
+        <v>0.05500666108103647</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02972462851171244</v>
+        <v>0.107249861388129</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05568485731271075</v>
+        <v>0.05506731357051162</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02976045754271875</v>
+        <v>0.04297816528710597</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04591335034545169</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02913676557249735</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.0564691510776785</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07016872461289264</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05592682059010867</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1134525925464688</v>
+        <v>0.06850044574403383</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05568477001196021</v>
+        <v>0.05578140278640319</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02976045754271875</v>
+        <v>0.1068325887175142</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0564691510776785</v>
+        <v>0.05584290953629347</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02969321219918379</v>
+        <v>0.04309392084386333</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04655103576691629</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02902131446701095</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05725344484264626</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.06969852190954101</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05670358198719352</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.112316239995124</v>
+        <v>0.06806038173743001</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05645816959545964</v>
+        <v>0.0565561444917699</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02969321219918379</v>
+        <v>0.1068966731531978</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05725344484264626</v>
+        <v>0.05661850550207533</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02972299749563898</v>
+        <v>0.04320625826518536</v>
       </c>
       <c r="G139" t="n">
+        <v>0.0471887211883809</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02890298473279287</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05803773860761402</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.06901888521173064</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05748034338427836</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1127716021124369</v>
+        <v>0.06700697532615188</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05723156917895909</v>
+        <v>0.05733088619713661</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02972299749563898</v>
+        <v>0.1061454509337362</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05803773860761402</v>
+        <v>0.05739410146785719</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02964991844661569</v>
+        <v>0.04331510303217403</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04782640660984551</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02878220134117862</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05882203237258177</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.06863059093811372</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.0582571047813632</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1123186841900475</v>
+        <v>0.06684176009638465</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05800496876245854</v>
+        <v>0.05810562790250332</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02964991844661569</v>
+        <v>0.1046822582976856</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05882203237258177</v>
+        <v>0.05816969743363903</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0293740800666453</v>
+        <v>0.04342038062593129</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04846409203131011</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02895938926350376</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05960632613754953</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.06883441550734262</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05903386617844805</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1128574915195956</v>
+        <v>0.06636626963431344</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05877836834595799</v>
+        <v>0.05888036960787003</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0293740800666453</v>
+        <v>0.1036104314836023</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05960632613754953</v>
+        <v>0.05894529339942089</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0294955873702592</v>
+        <v>0.04352201652755911</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04910177745277472</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02883497347110382</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06039061990251728</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.0685311353380697</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05981062757553288</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1124880293927214</v>
+        <v>0.06588203752612343</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05955176792945744</v>
+        <v>0.05965511131323673</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0294955873702592</v>
+        <v>0.1033333067300427</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06039061990251728</v>
+        <v>0.05972088936520274</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02951454537198879</v>
+        <v>0.04361993621815944</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04973946287423933</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02860937893531432</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06117491366748504</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.06772152684894725</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06058738897261774</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1117103031010649</v>
+        <v>0.06519059735799976</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06032516751295688</v>
+        <v>0.06042985301860344</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02951454537198879</v>
+        <v>0.102854220275563</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06117491366748504</v>
+        <v>0.0604964853309846</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02913105908636546</v>
+        <v>0.04371406517883427</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05037714829570393</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0283830306274708</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.0619592074324528</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.06770636645862763</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06136415036970257</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1119243179362662</v>
+        <v>0.06459348271612755</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06109856709645634</v>
+        <v>0.06120459472397016</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02913105908636546</v>
+        <v>0.1012765083587196</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0619592074324528</v>
+        <v>0.06127208129676644</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02904523352792059</v>
+        <v>0.04380432889068551</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05101483371716854</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0282563535189088</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06274350119742056</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06748643058576312</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06214091176678742</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1112300791899651</v>
+        <v>0.064792227186692</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06187196667995578</v>
+        <v>0.06197933642933687</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02904523352792059</v>
+        <v>0.1015035072180688</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06274350119742056</v>
+        <v>0.0620476772625483</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02895717371118559</v>
+        <v>0.04389065283481514</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05165251913863315</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02822977258096386</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06352779496238831</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.06726249564900602</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06291767316387226</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1120275921538019</v>
+        <v>0.06358836435587822</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06264536626345522</v>
+        <v>0.06275407813470359</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02895717371118559</v>
+        <v>0.09983855309216683</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06352779496238831</v>
+        <v>0.06282327322833015</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0291669846506918</v>
+        <v>0.04397296249232514</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05229020456009775</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02810371278497149</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06431208872735607</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06653533806700873</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06369443456095709</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1114168621194164</v>
+        <v>0.06378342780987145</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06341876584695468</v>
+        <v>0.06352881984007029</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0291669846506918</v>
+        <v>0.09928498221957011</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06431208872735607</v>
+        <v>0.06359886919411202</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02887477136097066</v>
+        <v>0.04405118334431744</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05292788998156236</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02807859910226725</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06509638249232381</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.06620573425842352</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06447119595804195</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1108978943784488</v>
+        <v>0.06267895113485678</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06419216543045413</v>
+        <v>0.064303561545437</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02887477136097066</v>
+        <v>0.09814613083883483</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06509638249232381</v>
+        <v>0.06437446515989387</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02868063885655356</v>
+        <v>0.04412524087189402</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05356557540302697</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02765485650418664</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06588067625729159</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.06597446064190271</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06524795735512678</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1110706942225389</v>
+        <v>0.06257646791701932</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06496556501395356</v>
+        <v>0.06507830325080372</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02868063885655356</v>
+        <v>0.09852533518851742</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06588067625729159</v>
+        <v>0.06515006112567572</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02858469215197186</v>
+        <v>0.04419506055615683</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05420326082449158</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02783290996206521</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06666497002225935</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.06564229363609864</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06602471875221164</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.110635266943327</v>
+        <v>0.06197751174254432</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06573896459745301</v>
+        <v>0.06585304495617042</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02858469215197186</v>
+        <v>0.09742593150717399</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06666497002225935</v>
+        <v>0.06592565709145758</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02858703626175695</v>
+        <v>0.04426056787820785</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05484094624595619</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02741318444723852</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.0674492637872271</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06541000965966365</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06680148014929647</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1097916178324529</v>
+        <v>0.06168361619761686</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06651236418095245</v>
+        <v>0.06662778666153713</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02858703626175695</v>
+        <v>0.09635125603336109</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0674492637872271</v>
+        <v>0.06670125305723942</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02848777620044024</v>
+        <v>0.044321688319149</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05547863166742079</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02729610493104206</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06823355755219486</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.06507838513125003</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06757824154638131</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1103397521815568</v>
+        <v>0.06109631486842212</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0672857637644519</v>
+        <v>0.06740252836690386</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02848777620044024</v>
+        <v>0.09640464500563495</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06823355755219486</v>
+        <v>0.06747684902302127</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02838701698255311</v>
+        <v>0.04437834736008226</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05611631708888539</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02728209638481137</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06901785131716261</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06444819646951011</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06835500294346616</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1092796752822787</v>
+        <v>0.06011714134114526</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06805916334795135</v>
+        <v>0.06817727007227056</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02838701698255311</v>
+        <v>0.09588943466255173</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06901785131716261</v>
+        <v>0.06825244498880313</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02838486362262696</v>
+        <v>0.04443047048210961</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05675400251035</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02717158377988202</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06980214508213037</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.06452022009309624</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.069131764340551</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1093113924262584</v>
+        <v>0.06024762920197146</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06883256293145081</v>
+        <v>0.06895201177763727</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02838486362262696</v>
+        <v>0.09420896124266798</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06980214508213037</v>
+        <v>0.06902804095458498</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02808142113519316</v>
+        <v>0.04447798316633299</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05739168793181461</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02726499208758951</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07058643884709813</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.06419523242066072</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06990852573763584</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1091349089051362</v>
+        <v>0.05938931203708581</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06960596251495026</v>
+        <v>0.06972675348300399</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02808142113519316</v>
+        <v>0.09396656098453976</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07058643884709813</v>
+        <v>0.06980363692036684</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02797679453478312</v>
+        <v>0.04452081089385435</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05802937335327922</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02686274627926939</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07137073261206588</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.06367400987085584</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07068528713472068</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1091502300105521</v>
+        <v>0.05874372343267348</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07037936209844969</v>
+        <v>0.07050149518837069</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02797679453478312</v>
+        <v>0.09366557012672361</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07137073261206588</v>
+        <v>0.0705792328861487</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0281710888359282</v>
+        <v>0.04455887914577567</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05866705877474382</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02706527132625718</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07215502637703364</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.06315732886233399</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07146204853180553</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1086573610341459</v>
+        <v>0.05841239697491968</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07115276168194914</v>
+        <v>0.0712762368937374</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0281710888359282</v>
+        <v>0.09350932490777564</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07215502637703364</v>
+        <v>0.07135482885193055</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02806440905315981</v>
+        <v>0.0445921134031989</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05930474419620844</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0267718190205302</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.0729393201420014</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06354596581374744</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07223880992889037</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1080563072675579</v>
+        <v>0.05788806114366354</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0719261612654486</v>
+        <v>0.0720509785991041</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02806440905315981</v>
+        <v>0.0929905979707234</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0729393201420014</v>
+        <v>0.07213042481771241</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02785686020100935</v>
+        <v>0.044620439147226</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05994242961767304</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02658049483713874</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07372361390696915</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06294069714374856</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07301557132597521</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1084470740024279</v>
+        <v>0.05815688196290647</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07269956084894805</v>
+        <v>0.07282572030447082</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02785686020100935</v>
+        <v>0.09269209629333058</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07372361390696915</v>
+        <v>0.07290602078349426</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02754854729400821</v>
+        <v>0.04464378185895892</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06058011503913764</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02669107935427575</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07450790767193691</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06294229927098963</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07379233272306006</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.107429666530396</v>
+        <v>0.05731899822559294</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07347296043244748</v>
+        <v>0.07360046200983754</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02754854729400821</v>
+        <v>0.09181215562238171</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07450790767193691</v>
+        <v>0.0736816167492761</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02773957534668775</v>
+        <v>0.04466206701949964</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06121780046060225</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02650338195511963</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07529220143690467</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06225154861412296</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.0745690941201449</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1076040901431023</v>
+        <v>0.05727477227204317</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07424636001594694</v>
+        <v>0.07437520371520424</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02773957534668775</v>
+        <v>0.09114939027285474</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07529220143690467</v>
+        <v>0.07445721271505797</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02743004937357936</v>
+        <v>0.04467522010995011</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06185548588206685</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02641721202284872</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07607649520187243</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06186922159180094</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07534585551722975</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1067703501321868</v>
+        <v>0.05652456644257728</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07501975959944637</v>
+        <v>0.07514994542057096</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02743004937357936</v>
+        <v>0.0917024145597275</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07607649520187243</v>
+        <v>0.07523280868083981</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02732007438921447</v>
+        <v>0.0446831666114123</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06249317130353147</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0264323789406414</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07686078896684019</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.06189609462267584</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07612261691431459</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1073284517892895</v>
+        <v>0.05636874307751544</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07579315918294582</v>
+        <v>0.07592468712593767</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02732007438921447</v>
+        <v>0.09046984279797798</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07686078896684019</v>
+        <v>0.07600840464662166</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02720620090415068</v>
+        <v>0.04468583200498814</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06313085672499608</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02634869209167603</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07764508273180794</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06173307150346705</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07689937831139942</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1066784004060504</v>
+        <v>0.05530766451717786</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07656655876644528</v>
+        <v>0.07669942883130437</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02720620090415068</v>
+        <v>0.0903502893025841</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07764508273180794</v>
+        <v>0.07678400061240354</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02697861006244744</v>
+        <v>0.04468583200498814</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06313085672499608</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02616596085913099</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.0784293764967757</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.06128039981717731</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07767613970848428</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1059202012741096</v>
+        <v>0.05474169310188468</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07733995834994473</v>
+        <v>0.07747417053667109</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02697861006244744</v>
+        <v>0.09094236838852371</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0784293764967757</v>
+        <v>0.07755959657818538</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02713750593337835</v>
+        <v>0.04390119834100403</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06313058819653206</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02608399462618463</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07921367026174346</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.06093681151140343</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07845290110556911</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1062538596851071</v>
+        <v>0.05447119117195609</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07811335793344416</v>
+        <v>0.0782489122420378</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02713750593337835</v>
+        <v>0.08974469437077487</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07921367026174346</v>
+        <v>0.07833519254396723</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02678375509316937</v>
+        <v>0.04312554136793052</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06313031966806804</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02590260277601532</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07999796402671121</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.0608009590295947</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07922966250265395</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1049793809306828</v>
+        <v>0.05429652106771221</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07888675751694361</v>
+        <v>0.07902365394740452</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02678375509316937</v>
+        <v>0.08945588156431539</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07999796402671121</v>
+        <v>0.07911078850974909</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02651822411804644</v>
+        <v>0.04235933064306065</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06313005113960402</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02612159469180143</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08078225779167897</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.0603714948152004</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08000642389973879</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1052967703024769</v>
+        <v>0.05401804512947328</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07966015710044307</v>
+        <v>0.07979839565277122</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02651822411804644</v>
+        <v>0.08957454428412326</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08078225779167897</v>
+        <v>0.07988638447553094</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02664177958423548</v>
+        <v>0.04160303572378731</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06312978261114</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.0258407797567213</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08156655155664672</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.06004707131166984</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08078318529682364</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1044060330921293</v>
+        <v>0.05293612569755946</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08043355668394252</v>
+        <v>0.08057313735813794</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02664177958423548</v>
+        <v>0.08949929684517638</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08156655155664672</v>
+        <v>0.08066198044131279</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02645528806796243</v>
+        <v>0.04085712616740315</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06312951408267599</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02595996735395334</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08235084532161448</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.05982634096245232</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08155994669390849</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1044071745912801</v>
+        <v>0.0523511251122909</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08120695626744197</v>
+        <v>0.08134787906350464</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02645528806796243</v>
+        <v>0.08882875356245268</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08235084532161448</v>
+        <v>0.08143757640709465</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02595961614545324</v>
+        <v>0.04012207153123434</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06312924555421197</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02557896686667591</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08313513908658224</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.05950795621099705</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08233670809099332</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1037002000915693</v>
+        <v>0.05196340571398775</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08198035585094141</v>
+        <v>0.08212262076887135</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02595961614545324</v>
+        <v>0.08886152875093006</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08313513908658224</v>
+        <v>0.08221317237287649</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02585563039293379</v>
+        <v>0.03939834137257581</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06312897702574795</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02569758767806732</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08391943285154999</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.05929056950075345</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08311346948807817</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.103385114884637</v>
+        <v>0.05157332984297019</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08275375543444086</v>
+        <v>0.08289736247423807</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02585563039293379</v>
+        <v>0.08829623672558651</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08391943285154999</v>
+        <v>0.08298876833865836</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02574419738663007</v>
+        <v>0.03868640524881676</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06312870849728393</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02571563917130598</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08470372661651775</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.05947283327517078</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08389023088516301</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1029619242621231</v>
+        <v>0.05148125983955845</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08352715501794029</v>
+        <v>0.08367210417960477</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02574419738663007</v>
+        <v>0.08823149180139978</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08470372661651775</v>
+        <v>0.08376436430444022</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02552618370276796</v>
+        <v>0.03798673271725162</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06312843996881992</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02543293072957024</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08548802038148551</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.05895339997769827</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08466699228224786</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1019306335156676</v>
+        <v>0.0506875580440726</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08430055460143974</v>
+        <v>0.08444684588497148</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02552618370276796</v>
+        <v>0.08776590829334796</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08548802038148551</v>
+        <v>0.08453996027022206</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02520245591757346</v>
+        <v>0.03729979333520659</v>
       </c>
       <c r="G175" t="n">
+        <v>0.0631281714403559</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02554927173603849</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08627231414645327</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.05863092205178527</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.0854437536793327</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1019893255652705</v>
+        <v>0.04989258679683287</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0850739541849392</v>
+        <v>0.0852215875903382</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02520245591757346</v>
+        <v>0.08709810051640893</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08627231414645327</v>
+        <v>0.08531555623600391</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02487388060727246</v>
+        <v>0.0366260566599788</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06312790291189188</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02516447157388908</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08705660791142103</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.05900405194088112</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08622051507641754</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1011815602702891</v>
+        <v>0.04969670843815943</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08584735376843865</v>
+        <v>0.08599632929570492</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02487388060727246</v>
+        <v>0.08722668278556062</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08705660791142103</v>
+        <v>0.08609115220178577</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02494132434809086</v>
+        <v>0.03596599224895313</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06312763438342786</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02507833962630038</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08784090167638878</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.05867144208843497</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08699727647350239</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1007296824527327</v>
+        <v>0.04930028530837247</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08662075335193808</v>
+        <v>0.08677107100107162</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02494132434809086</v>
+        <v>0.08695026941578093</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08784090167638878</v>
+        <v>0.08686674816756762</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02440565371625467</v>
+        <v>0.0353200696594261</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06312736585496385</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02529068527645073</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08862519544135654</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.05833174493789628</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08777403787058723</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.09946426043648809</v>
+        <v>0.04900367974779216</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08739415293543754</v>
+        <v>0.08754581270643833</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02440565371625467</v>
+        <v>0.08626747472204777</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08862519544135654</v>
+        <v>0.08764234413334948</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02416773528798977</v>
+        <v>0.03468875844872393</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06312709732649983</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02500131790751853</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.0894094892063243</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05778361293271425</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08855079926767206</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.097815862545442</v>
+        <v>0.04790725409673857</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08816755251893697</v>
+        <v>0.08832055441180504</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02416773528798977</v>
+        <v>0.0867769130193391</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0894094892063243</v>
+        <v>0.08841794009913133</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02402843563952209</v>
+        <v>0.03407252817414631</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06312682879803581</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02491004690268211</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09019378297129205</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.05752569851633824</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0893275606647569</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.09691505710348119</v>
+        <v>0.04771137069553197</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08894095210243642</v>
+        <v>0.08909529611717175</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02402843563952209</v>
+        <v>0.08567719862263284</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09019378297129205</v>
+        <v>0.08919353606491318</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02398862134707758</v>
+        <v>0.03347184839307308</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06312656026957179</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02491668164511988</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09097807673625981</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.05755665413221744</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09010432206184175</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.09569241243449256</v>
+        <v>0.04751639188449253</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08971435168593589</v>
+        <v>0.08987003782253845</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02398862134707758</v>
+        <v>0.08586694584690691</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09097807673625981</v>
+        <v>0.08996913203069505</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02364915898688219</v>
+        <v>0.03288718866280325</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06312629174110777</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02482103151801018</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09176237050122756</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.05747513222380127</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09088108345892661</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.09317849686236274</v>
+        <v>0.04702268000394039</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09048775126943533</v>
+        <v>0.09064477952790517</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02364915898688219</v>
+        <v>0.08564476900713924</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09176237050122756</v>
+        <v>0.0907447279964769</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02331091513516181</v>
+        <v>0.03231901854066303</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06312602321264377</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02452290590453138</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09254666426619532</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05667978523453895</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09165784485601143</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.09250387871097848</v>
+        <v>0.04653059739419574</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09126115085293478</v>
+        <v>0.09141952123327189</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02331091513516181</v>
+        <v>0.08520928241830772</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09254666426619532</v>
+        <v>0.09152032396225875</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02317475636814242</v>
+        <v>0.03176780758395498</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06312575468417973</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02452211418786183</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09333095803116308</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.05666926560787977</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09243460625309628</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.09009912630422662</v>
+        <v>0.04604050639557869</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09203455043643421</v>
+        <v>0.0921942629386386</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02317475636814242</v>
+        <v>0.08455910039539027</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09333095803116308</v>
+        <v>0.09229591992804061</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02284154926204993</v>
+        <v>0.03123402535005327</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06312548615571573</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02431846575117991</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09411525179613082</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05664222578727307</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09321136765018112</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.08889480796599403</v>
+        <v>0.04545276934840944</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09280795001993367</v>
+        <v>0.0929690046440053</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02284154926204993</v>
+        <v>0.08509283725336486</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09411525179613082</v>
+        <v>0.09307151589382245</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02281216039311026</v>
+        <v>0.03071814139625973</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06312521762725171</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.024211769977664</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09489954556109859</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.05629731821616812</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09398812904726597</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.08722149202016732</v>
+        <v>0.04516774859300826</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09358134960343312</v>
+        <v>0.09374374634937202</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02281216039311026</v>
+        <v>0.08370910730720943</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09489954556109859</v>
+        <v>0.0938471118596043</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02248745633754937</v>
+        <v>0.03022062527990054</v>
       </c>
       <c r="G187" t="n">
+        <v>0.0631249490987877</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02410183625049243</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09568383932606635</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.05573319533801419</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09476489044435081</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.0858097467906333</v>
+        <v>0.04398580646969519</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09435474918693257</v>
+        <v>0.09451848805473873</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02248745633754937</v>
+        <v>0.08340652487190181</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09568383932606635</v>
+        <v>0.09462270782538616</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02236830367159318</v>
+        <v>0.02974194655828147</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06312468057032367</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02398847395284359</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09646813309103411</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.05554850959626059</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09554165184143565</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.08419014060127883</v>
+        <v>0.04410730531879048</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09512814877043201</v>
+        <v>0.09529322976010543</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02236830367159318</v>
+        <v>0.08328370426242004</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09646813309103411</v>
+        <v>0.09539830379116801</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02205556897146763</v>
+        <v>0.02928257478877038</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06312441204185966</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02417149246789585</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09725242685600187</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.05474191343435666</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.0963184132385205</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.08199324177599054</v>
+        <v>0.04323260748061422</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09590154835393146</v>
+        <v>0.09606797146547215</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02205556897146763</v>
+        <v>0.08343925979374195</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09725242685600187</v>
+        <v>0.09617389975694987</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02195011881339862</v>
+        <v>0.02884106216959011</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06312414351339564</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02405070117882756</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09803672062096962</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.0545120592957517</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09709517463560534</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.08114961863865539</v>
+        <v>0.04316207529548663</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09667494793743089</v>
+        <v>0.09684271317083887</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02195011881339862</v>
+        <v>0.0820718057808455</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09803672062096962</v>
+        <v>0.09694949572273173</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02164796661807275</v>
+        <v>0.02840637410357526</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06312387498493162</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02362590946881708</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09882101438593738</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.05375759962389495</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09787193603269018</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.0800307215327537</v>
+        <v>0.04239607110372792</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09744834752093035</v>
+        <v>0.09761745487620557</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02164796661807275</v>
+        <v>0.08167995653870852</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09882101438593738</v>
+        <v>0.09772509168851358</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02124423148249659</v>
+        <v>0.02797706278895173</v>
       </c>
       <c r="G192" t="n">
+        <v>0.0631236064564676</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.0235969267210428</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09960530815090514</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.05346928657522779</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09864869742977501</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.07853249853801786</v>
+        <v>0.04213495724565822</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0982217471044298</v>
+        <v>0.09839219658157228</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02124423148249659</v>
+        <v>0.08126232638230912</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09960530815090514</v>
+        <v>0.09850068765429543</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02133913112197992</v>
+        <v>0.02755359778308304</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06312333792800358</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02335838755287052</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1003896019158729</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.05245546264115275</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09942545882685987</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.07765142622811022</v>
+        <v>0.04157559867115654</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09899514668792925</v>
+        <v>0.099166938286939</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02133913112197992</v>
+        <v>0.08106807460092119</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1003896019158729</v>
+        <v>0.09927628362007729</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02093288604711399</v>
+        <v>0.02713644864327656</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06312306939953957</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02330442529648563</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1011738956808406</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0518412271718009</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1002022202239447</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.07688702942105718</v>
+        <v>0.04141382738440916</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0997685462714287</v>
+        <v>0.0999416799923057</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02093288604711399</v>
+        <v>0.07984127323106921</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1011738956808406</v>
+        <v>0.1000518795858591</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02082571676849003</v>
+        <v>0.0267260849268585</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06312280087107555</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02313592026541976</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1019581894458084</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.05025167951823598</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1009789816210295</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.07593883293488535</v>
+        <v>0.04034991414183103</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1005419458549281</v>
+        <v>0.1007164216976724</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02082571676849003</v>
+        <v>0.07878969057294027</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1019581894458084</v>
+        <v>0.100827475551641</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02061784379669926</v>
+        <v>0.02632297619113765</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06312253234261153</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02305376987564516</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1027424832107762</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.04871191903152164</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1017557430181144</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.07440636158762109</v>
+        <v>0.04018414644228141</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1013153454384276</v>
+        <v>0.1014911634030391</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02061784379669926</v>
+        <v>0.07862124720841362</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1027424832107762</v>
+        <v>0.1016030715174228</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02040948764233291</v>
+        <v>0.02592759199347531</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06312226381414751</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02295887154313407</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1035267769757439</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.04764704506272158</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1025325044151992</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.07388914019729098</v>
+        <v>0.03941681178461945</v>
       </c>
       <c r="M197" t="n">
-        <v>0.102088745021927</v>
+        <v>0.1022659051084058</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02040948764233291</v>
+        <v>0.0775438637193685</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1035267769757439</v>
+        <v>0.1023786674832047</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02020086881598221</v>
+        <v>0.02554040189117995</v>
       </c>
       <c r="G198" t="n">
+        <v>0.0631219952856835</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02255212268385874</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1043110707407117</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.04588215696289949</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1033092658122841</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.07228669358192147</v>
+        <v>0.03884819766770425</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1028621446054265</v>
+        <v>0.1030406468137725</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02020086881598221</v>
+        <v>0.07546546068768423</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1043110707407117</v>
+        <v>0.1031542634489866</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01999220782823838</v>
+        <v>0.02516187544157773</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06312172675721948</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02253442071379143</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1050953645056794</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04414235408311906</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1040860272093689</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.07149854655953908</v>
+        <v>0.03847859159039516</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1036355441889259</v>
+        <v>0.1038153885191393</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01999220782823838</v>
+        <v>0.07449395869524011</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1050953645056794</v>
+        <v>0.1039298594147684</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01958372518969266</v>
+        <v>0.02479248220197899</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06312145822875546</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02220666304890438</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1058796582706472</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04255273577444402</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1048627886064538</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.07072422394817035</v>
+        <v>0.03840828105155117</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1044089437724254</v>
+        <v>0.104590130224506</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01958372518969266</v>
+        <v>0.07383727832391557</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1058796582706472</v>
+        <v>0.1047054553805503</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01937564141093627</v>
+        <v>0.02443269172974206</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06312118970029144</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02186974710516987</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1066639520356149</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.04113840138793803</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1056395500035386</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.0703632505658417</v>
+        <v>0.03763755355003159</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1051823433559248</v>
+        <v>0.1053648719298727</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01937564141093627</v>
+        <v>0.0725033401555899</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1066639520356149</v>
+        <v>0.1054810513463321</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01936817700256042</v>
+        <v>0.02408297358217684</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06312092117182744</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02162457029856012</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1074482458005827</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03902445027466478</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1064163114006235</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.06871515123057975</v>
+        <v>0.03766669658469551</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1059557429394243</v>
+        <v>0.1061396136352394</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01936817700256042</v>
+        <v>0.07090006477214222</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1074482458005827</v>
+        <v>0.106256647312114</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01916155247515634</v>
+        <v>0.02374379731660952</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06312065264336342</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0214720300450474</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1082325395655505</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.03773598178568802</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1071930727977083</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.06777945076041086</v>
+        <v>0.03689599765440213</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1067291425229237</v>
+        <v>0.1069143553406061</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01916155247515634</v>
+        <v>0.06843537275545197</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1082325395655505</v>
+        <v>0.1070322432778958</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0188559883393153</v>
+        <v>0.02341563249035226</v>
       </c>
       <c r="G204" t="n">
+        <v>0.0631203841148994</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02111302376060395</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1090168333305182</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03549809527207126</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1079698341947931</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.06695567397336155</v>
+        <v>0.03662574425801068</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1075025421064232</v>
+        <v>0.1076890970459728</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0188559883393153</v>
+        <v>0.06741718468739838</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1090168333305182</v>
+        <v>0.1078078392436777</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0187517051056285</v>
+        <v>0.02309894866075978</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06312011558643538</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02094844886120202</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.109801127095486</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03433589008487845</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.108746595591878</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.06604334568745834</v>
+        <v>0.03605622389438023</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1082759416899226</v>
+        <v>0.1084638387513395</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0187517051056285</v>
+        <v>0.06555342114986096</v>
       </c>
       <c r="O205" t="n">
-        <v>0.109801127095486</v>
+        <v>0.1085834352094595</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01834892328468715</v>
+        <v>0.02279421538514378</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06311984705797136</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02077920276281385</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1105854208604537</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.03247446557517306</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1095233569889628</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.06574199072072778</v>
+        <v>0.03518772406237006</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1090493412734221</v>
+        <v>0.1092385804567062</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01834892328468715</v>
+        <v>0.06345200272471879</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1105854208604537</v>
+        <v>0.1093590311752414</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01844786338708249</v>
+        <v>0.02250190222083043</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06311957852950735</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02050618288141175</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1113697146254215</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.03143892109401888</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1103001183860477</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.06395113389119633</v>
+        <v>0.03512053226083925</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1098227408569215</v>
+        <v>0.1100133221620729</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01844786338708249</v>
+        <v>0.06192084999385122</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1113697146254215</v>
+        <v>0.1101346271410232</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01824874592340575</v>
+        <v>0.02222247872513401</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06311931000104332</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.0201302866329679</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1121540083903892</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03025435599247964</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1110768797831325</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.06297030001689052</v>
+        <v>0.03465493598864708</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1105961404404209</v>
+        <v>0.1107880638674396</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01824874592340575</v>
+        <v>0.06066788353913755</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1121540083903892</v>
+        <v>0.1109102231068051</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01795179140424817</v>
+        <v>0.02195641445540509</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06311904147257931</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01975241143345459</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.112938302155357</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.029345869621619</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1118536411802173</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.06269901391583677</v>
+        <v>0.03409122274465268</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1113695400239204</v>
+        <v>0.1115628055728064</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01795179140424817</v>
+        <v>0.0582010239424573</v>
       </c>
       <c r="O209" t="n">
-        <v>0.112938302155357</v>
+        <v>0.1116858190725869</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01755722034020095</v>
+        <v>0.02170417896895734</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06311877294411529</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01967345469884405</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1137225959203248</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02813856133250062</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1126304025773022</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.06193680040606159</v>
+        <v>0.03342968002771515</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1121429396074199</v>
+        <v>0.1123375472781731</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01755722034020095</v>
+        <v>0.0572281917856895</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1137225959203248</v>
+        <v>0.1124614150383688</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01746525324185534</v>
+        <v>0.021466241823117</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06311850441565128</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01909431384510855</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1145068896852925</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.02805753047618814</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.113407163974387</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.06108318430559156</v>
+        <v>0.0327705953366938</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1129163391909193</v>
+        <v>0.1131122889835398</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01746525324185534</v>
+        <v>0.05455730765071348</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1145068896852925</v>
+        <v>0.1132370110041507</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01737611061980256</v>
+        <v>0.02124307257520084</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06311823588718725</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01911588628822034</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1152911834502603</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.02722787640374541</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1141839253714719</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.05943769043245317</v>
+        <v>0.0328142561704477</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1136897387744187</v>
+        <v>0.1138870306889065</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01737611061980256</v>
+        <v>0.05349629211940871</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1152911834502603</v>
+        <v>0.1140126069699325</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01719001298463384</v>
+        <v>0.02103514078255447</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06311796735872324</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01863906944415164</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.116075477215228</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.0277601001489709</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1149606867685567</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.05889984360467276</v>
+        <v>0.03196095002783611</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1144631383579182</v>
+        <v>0.1146617723942732</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01719001298463384</v>
+        <v>0.05195306577365438</v>
       </c>
       <c r="O213" t="n">
-        <v>0.116075477215228</v>
+        <v>0.1147882029357144</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01690718084694039</v>
+        <v>0.02084291600249407</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06311769883025922</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01826476072887474</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1168597709801958</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02746010530861923</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1157374481656416</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.05876916864027709</v>
+        <v>0.03141096440771812</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1152365379414176</v>
+        <v>0.1154365140996399</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01690718084694039</v>
+        <v>0.05033554919532995</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1168597709801958</v>
+        <v>0.1155637989014962</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01672783471731346</v>
+        <v>0.02084291600249408</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06311769883025922</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01819385755836188</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1176440647451635</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02756012864904586</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1165142095627264</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.05734519035729246</v>
+        <v>0.03166458680895298</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1160099375249171</v>
+        <v>0.1162112558050066</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01672783471731346</v>
+        <v>0.04825166296631439</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1176440647451635</v>
+        <v>0.1163393948672781</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01655219510634426</v>
+        <v>0.02030124171008697</v>
       </c>
       <c r="G216" t="n">
+        <v>0.0630481017415971</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01782725734858531</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1184283585101313</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02776018400756294</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1172909709598112</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.05632743357374531</v>
+        <v>0.03072210473039982</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1167833371084165</v>
+        <v>0.1169859975103733</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01655219510634426</v>
+        <v>0.04700932766848737</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1184283585101313</v>
+        <v>0.1171149908330599</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01628048252462404</v>
+        <v>0.019765888748045</v>
       </c>
       <c r="G217" t="n">
+        <v>0.062978504652935</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01756585751551726</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1192126522750991</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02746028522148258</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1180677323568961</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.05571542310766237</v>
+        <v>0.03078380567091782</v>
       </c>
       <c r="M217" t="n">
-        <v>0.117556736691916</v>
+        <v>0.1177607392157401</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01628048252462404</v>
+        <v>0.04541646388372794</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1192126522750991</v>
+        <v>0.1178905867988418</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01621291748274399</v>
+        <v>0.01923723591815254</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06290890756427288</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01721055547513003</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1199969460400668</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.02746044612811699</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1188444937539809</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.05470868377707</v>
+        <v>0.0299499771293662</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1183301362754154</v>
+        <v>0.1185354809211068</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01621291748274399</v>
+        <v>0.04308099219391565</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1199969460400668</v>
+        <v>0.1186661827646236</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01594972049129539</v>
+        <v>0.01871566202219432</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06283931047561077</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01726224864339583</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1207812398050346</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02716068056477838</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1196212551510658</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.05390674039999466</v>
+        <v>0.02922090660460408</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1191035358589149</v>
+        <v>0.1193102226264735</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01594972049129539</v>
+        <v>0.04141083318092953</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1207812398050346</v>
+        <v>0.1194417787304055</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01599109481593869</v>
+        <v>0.01820154586195476</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06276971338694866</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01692183443628691</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1215655335700023</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02736100236877886</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1203980165481506</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.05300911779446293</v>
+        <v>0.02939688159549067</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1198769354424143</v>
+        <v>0.1200849643318402</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01599109481593869</v>
+        <v>0.04041390742664908</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1215655335700023</v>
+        <v>0.1202173746961873</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01573488352350635</v>
+        <v>0.0176952662392186</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06270011629828655</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01679021026977554</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1223498273349701</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.02786142537743061</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1211747779452355</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.05211534077850138</v>
+        <v>0.02867818960088508</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1206503350259138</v>
+        <v>0.1208597060372069</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01573488352350635</v>
+        <v>0.03889813551295351</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1223498273349701</v>
+        <v>0.1209929706619692</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01567949849720172</v>
+        <v>0.01719720195577023</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06263051920962442</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01636827355983396</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1231341210999378</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.02716196342804578</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1219515393423203</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.05242493417013627</v>
+        <v>0.02816511811964661</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1214237346094132</v>
+        <v>0.1216344477425736</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01567949849720172</v>
+        <v>0.03807143802172219</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1231341210999378</v>
+        <v>0.1217685666277511</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01562497506115693</v>
+        <v>0.01670773181339438</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06256092212096231</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01635692172243444</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1239184148649056</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02716263035793659</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1227283007394051</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.05163742278739425</v>
+        <v>0.02815795465063434</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1221971341929127</v>
+        <v>0.1224091894479403</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01562497506115693</v>
+        <v>0.03684173553483439</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1239184148649056</v>
+        <v>0.1225441625935329</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0154713485395042</v>
+        <v>0.01622723461387549</v>
       </c>
       <c r="G224" t="n">
+        <v>0.0624913250323002</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01585705217354923</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1247027086298734</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02736344000441518</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.12350506213649</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.05005233144830185</v>
+        <v>0.02745698669270744</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1229705337764121</v>
+        <v>0.123183931153307</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0154713485395042</v>
+        <v>0.03641694863416939</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1247027086298734</v>
+        <v>0.1233197585593148</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01501865425637568</v>
+        <v>0.01575608915899825</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06242172794363809</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01576956232915053</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1254870023948411</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.02746440620479371</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1242818235335748</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.04976918497088556</v>
+        <v>0.02716250174472515</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1237439333599116</v>
+        <v>0.1239586728586737</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01501865425637568</v>
+        <v>0.03530499790160657</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1254870023948411</v>
+        <v>0.1240953545250966</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0148669275359036</v>
+        <v>0.01529467425054711</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06235213085497598</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01559534960521065</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1262712961598089</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.02766554279638433</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1250585849306597</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.04928768247305987</v>
+        <v>0.02647478730554662</v>
       </c>
       <c r="M226" t="n">
-        <v>0.124517332943411</v>
+        <v>0.1247334145640405</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0148669275359036</v>
+        <v>0.03421380391902523</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1262712961598089</v>
+        <v>0.1248709504908785</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01501620370222009</v>
+        <v>0.01484336869030675</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06228253376631387</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01543531141770182</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1270555899247766</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02746686361649928</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1258353463277445</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.04780962630514513</v>
+        <v>0.02669413087403102</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1252907325269104</v>
+        <v>0.1255081562694072</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01501620370222009</v>
+        <v>0.03315128726830452</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1270555899247766</v>
+        <v>0.1256465464566603</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01486651807945737</v>
+        <v>0.01440255128006163</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06221293667765175</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01519034518259629</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1278398836897444</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02776838250245067</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1266121077248294</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.04713566967833893</v>
+        <v>0.02622081994903749</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1260641321104099</v>
+        <v>0.1262828979747739</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01486651807945737</v>
+        <v>0.03302536853132393</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1278398836897444</v>
+        <v>0.1264221424224422</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01451790599174765</v>
+        <v>0.01397260082159645</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06214333958898964</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01506134831586632</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1286241774547121</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02787011329155065</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1273888691219142</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.04646588296261611</v>
+        <v>0.02535514202942529</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1268375316939094</v>
+        <v>0.1270576396801406</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01451790599174765</v>
+        <v>0.03234396828996267</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1286241774547121</v>
+        <v>0.127197738388224</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01437040276322309</v>
+        <v>0.01355389611669563</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06207374250032752</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01524912648444723</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1294084712196799</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02717206982111145</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.128165630518999</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.04580033652795179</v>
+        <v>0.02529735443052428</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1276109312774088</v>
+        <v>0.1278323813855073</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01437040276322309</v>
+        <v>0.0320141044837598</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1294084712196799</v>
+        <v>0.1279733343540059</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01432404371801588</v>
+        <v>0.01314681596714389</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06200414541166541</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01514403104218399</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1301927649846476</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02747426592844518</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1289423919160839</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.04543910074432073</v>
+        <v>0.02464440902144169</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1283843308609083</v>
+        <v>0.128607123090874</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01432404371801588</v>
+        <v>0.03264903235959199</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1301927649846476</v>
+        <v>0.1287489303197877</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01407886418025819</v>
+        <v>0.01275173917472566</v>
       </c>
       <c r="G232" t="n">
+        <v>0.0619345483230033</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01493924975485496</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1309770587496154</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02777671545086408</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1297191533131687</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.04448224598169775</v>
+        <v>0.02489417165673669</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1291577304444077</v>
+        <v>0.1293818647962407</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01407886418025819</v>
+        <v>0.03148767853056172</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1309770587496154</v>
+        <v>0.1295245262855696</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01403489947408222</v>
+        <v>0.01236904454122558</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06186495123434118</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01493495636021634</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1317613525145832</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.0276794322256802</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1304959147102536</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.04322984261005802</v>
+        <v>0.02424670019403846</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1299311300279071</v>
+        <v>0.1301566065016074</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01403489947408222</v>
+        <v>0.03163011741657801</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1317613525145832</v>
+        <v>0.1303001222513514</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01379218492362018</v>
+        <v>0.01199911086842827</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06179535414567907</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01453132459602435</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1325456462795509</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02778243009020584</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1312726761073384</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.04248196099937629</v>
+        <v>0.02360205249097638</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1307045296114066</v>
+        <v>0.1309313482069741</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01379218492362018</v>
+        <v>0.03197642343754975</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1325456462795509</v>
+        <v>0.1310757182171333</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0136507558530042</v>
+        <v>0.01164231695811822</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06172575705701695</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.0145285282000352</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1333299400445187</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02748572288175308</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1320494375044233</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.04173867151962746</v>
+        <v>0.02366028640517959</v>
       </c>
       <c r="M235" t="n">
-        <v>0.131477929194906</v>
+        <v>0.1317060899123408</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0136507558530042</v>
+        <v>0.03162667101338562</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1333299400445187</v>
+        <v>0.1318513141829152</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01341064758636655</v>
+        <v>0.01129904161208005</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06165615996835485</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01462674091000513</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1341142338094864</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02768932443763414</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1328261989015081</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.04150004454078648</v>
+        <v>0.02342145979427748</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1322513287784055</v>
+        <v>0.1324808316177075</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01341064758636655</v>
+        <v>0.03168093456399462</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1341142338094864</v>
+        <v>0.132626910148697</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01337189544783933</v>
+        <v>0.01096966363209827</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06158656287969273</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01422613646369032</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1348985275744542</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02769324859516115</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1336029602985929</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.04076615043282827</v>
+        <v>0.02298563051589925</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1330247283619049</v>
+        <v>0.1332555733230743</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01337189544783933</v>
+        <v>0.03073928850928559</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1348985275744542</v>
+        <v>0.1334025061144788</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01343453476155478</v>
+        <v>0.01065456181995754</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06151696579103062</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01442688859884701</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.135682821339422</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02719750919164629</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1343797216956778</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.03943705956572774</v>
+        <v>0.02265285642767412</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1337981279454044</v>
+        <v>0.134030315028441</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01343453476155478</v>
+        <v>0.03170180726916733</v>
       </c>
       <c r="O238" t="n">
-        <v>0.135682821339422</v>
+        <v>0.1341781020802607</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01319860085164505</v>
+        <v>0.01035411497744232</v>
       </c>
       <c r="G239" t="n">
+        <v>0.0614473687023685</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01402917105323141</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1364671151043897</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02730212006440175</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1351564830927626</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.03901284230945978</v>
+        <v>0.02202319538723146</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1345715275289038</v>
+        <v>0.1348050567338077</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01319860085164505</v>
+        <v>0.03066856526354877</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1364671151043897</v>
+        <v>0.1349536980460425</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01296412904224235</v>
+        <v>0.01006715513238363</v>
       </c>
       <c r="G240" t="n">
+        <v>0.0613777716137064</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01423315756459977</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1372514088693575</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02760709505073966</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1359332444898475</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.0376935690339994</v>
+        <v>0.02149670525220049</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1353449271124033</v>
+        <v>0.1355797984391744</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01296412904224235</v>
+        <v>0.0309396369123387</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1372514088693575</v>
+        <v>0.1357292940118244</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01283115465747887</v>
+        <v>0.009784780442843984</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06130817452504428</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01403902187070827</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1380357026343252</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02791244798797221</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1367100058869323</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.03747931010932132</v>
+        <v>0.02127344388021049</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1361183266959027</v>
+        <v>0.1363545401445411</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01283115465747887</v>
+        <v>0.03041509663544617</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1380357026343252</v>
+        <v>0.1365048899776063</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01289971302148679</v>
+        <v>0.009505822936654362</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06123857743638217</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01394693770931314</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.138819996399293</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02741819271341156</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1374867672840172</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.03647013590540055</v>
+        <v>0.02125346912889065</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1368917262794022</v>
+        <v>0.1371292818499078</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01289971302148679</v>
+        <v>0.03109501885277977</v>
       </c>
       <c r="O242" t="n">
-        <v>0.138819996399293</v>
+        <v>0.1372804859433881</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01246983945839829</v>
+        <v>0.009230661415599264</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06116898034772005</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.0138570788181706</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1396042901642607</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02752434306436988</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.138263528681102</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.03666611679221204</v>
+        <v>0.02123683885587033</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1376651258629016</v>
+        <v>0.1379040235552745</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01246983945839829</v>
+        <v>0.03047947798424849</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1396042901642607</v>
+        <v>0.13805608190917</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01264156929234558</v>
+        <v>0.008959674681463352</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06109938325905794</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01356961893503687</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1403885839292285</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02753091287815934</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1390402900781868</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.03586732313973068</v>
+        <v>0.02052361091877875</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1384385254464011</v>
+        <v>0.1386787652606412</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01264156929234558</v>
+        <v>0.03016854844976125</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1403885839292285</v>
+        <v>0.1388316778749518</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01251493784746081</v>
+        <v>0.008693241536031092</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06102978617039582</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01378473179766815</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1411728776941963</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02723791599209213</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1398170514752717</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.0351738253179314</v>
+        <v>0.0206138431752452</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1392119250299005</v>
+        <v>0.139453506966008</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01251493784746081</v>
+        <v>0.03056230466922683</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1411728776941963</v>
+        <v>0.1396072738407337</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01208998044787618</v>
+        <v>0.008431740781087139</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06096018908173371</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01370259114382068</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.141957171459164</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.0274453662434804</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1405938128723565</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.03368569369678903</v>
+        <v>0.01980759348289893</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1399853246133999</v>
+        <v>0.1402282486713747</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01208998044787618</v>
+        <v>0.03006082106255409</v>
       </c>
       <c r="O246" t="n">
-        <v>0.141957171459164</v>
+        <v>0.1403828698065155</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0121667324177239</v>
+        <v>0.00817555121841599</v>
       </c>
       <c r="G247" t="n">
+        <v>0.0608905919930716</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01362337071125067</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1427414652241318</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02725327746963632</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1413705742694414</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.03350299864627859</v>
+        <v>0.01980491969936921</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1407587241968994</v>
+        <v>0.1410029903767414</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0121667324177239</v>
+        <v>0.03056417204965189</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1427414652241318</v>
+        <v>0.1411584657722974</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01214522908113612</v>
+        <v>0.007925051649802256</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06082099490440948</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01334724423771431</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1435257589890995</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02776166350787204</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1421473356665262</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.03222581053637491</v>
+        <v>0.01950587968228532</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1415321237803988</v>
+        <v>0.1417777320821081</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01214522908113612</v>
+        <v>0.02947243205042921</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1435257589890995</v>
+        <v>0.1419340617380792</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01192550576224505</v>
+        <v>0.007680620877030545</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06075139781574737</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01317438546096787</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1443100527540673</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02767053819549975</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1429240970636111</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.03195419973705288</v>
+        <v>0.01911053128927651</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1423055233638983</v>
+        <v>0.1425524737874748</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01192550576224505</v>
+        <v>0.02978567548479477</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1443100527540673</v>
+        <v>0.1427096577038611</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01170759778518287</v>
+        <v>0.007442637701885343</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06068180072708525</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01330496811876752</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.145094346519035</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02787991536983161</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1437008584606959</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.03188823661828755</v>
+        <v>0.01911893237797202</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1430789229473977</v>
+        <v>0.1433272154928415</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01170759778518287</v>
+        <v>0.02970397677265746</v>
       </c>
       <c r="O250" t="n">
-        <v>0.145094346519035</v>
+        <v>0.1434852536696429</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01149154047408177</v>
+        <v>0.007211480926151315</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06061220363842314</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01313916594886951</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1458786402840028</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02788980886817979</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1444776198577807</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.03022799155005373</v>
+        <v>0.01823114080600119</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1438523225308972</v>
+        <v>0.1441019571982082</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01149154047408177</v>
+        <v>0.02982741033392611</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1458786402840028</v>
+        <v>0.1442608496354248</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01147736915307393</v>
+        <v>0.006987529351612926</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06054260654976103</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01307715268903004</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1466629340489705</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02760023252785646</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1452543812548656</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.03057353490232628</v>
+        <v>0.0184472144309932</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1446257221143966</v>
+        <v>0.1448766989035749</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01147736915307393</v>
+        <v>0.02935605058850965</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1466629340489705</v>
+        <v>0.1450364456012067</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01156511914629153</v>
+        <v>0.006771161780054845</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06047300946109892</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01321910207700533</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1474472278139383</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02781120018617378</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1460311426519504</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.02902493704508019</v>
+        <v>0.01826721111057739</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1453991216978961</v>
+        <v>0.1456514406089416</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01156511914629153</v>
+        <v>0.02998997195631697</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1474472278139383</v>
+        <v>0.1458120415669885</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01115482577786678</v>
+        <v>0.006562757013261561</v>
       </c>
       <c r="G254" t="n">
+        <v>0.0604034123724368</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01306518785055161</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1482315215789061</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02752272568044392</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1468079040490353</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.02918226834829041</v>
+        <v>0.01799118870238298</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1461725212813955</v>
+        <v>0.1464261823143084</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01115482577786678</v>
+        <v>0.02912924885725682</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1482315215789061</v>
+        <v>0.1465876375327704</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01124652437193184</v>
+        <v>0.006362693853017708</v>
       </c>
       <c r="G255" t="n">
+        <v>0.0603338152837747</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01291558374742506</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1490158153438738</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02803482284797906</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1475846654461201</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.02804559918193184</v>
+        <v>0.01731920506403928</v>
       </c>
       <c r="M255" t="n">
-        <v>0.146945920864895</v>
+        <v>0.1472009240196751</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01124652437193184</v>
+        <v>0.02937395571123819</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1490158153438738</v>
+        <v>0.1473632334985522</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01124025025261892</v>
+        <v>0.006171351101107794</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06026421819511257</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01307046350538195</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1498001091088416</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02764750552609135</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.148361426843205</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.02711499991597927</v>
+        <v>0.01675131805317548</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1477193204483944</v>
+        <v>0.1479756657250418</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01124025025261892</v>
+        <v>0.02942416693816979</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1498001091088416</v>
+        <v>0.1481388294643341</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01093603874406018</v>
+        <v>0.005989107559316448</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06019462110645047</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01273000086217846</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1505844028738093</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02786078755209298</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1491381882402898</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.02679054092040772</v>
+        <v>0.01658758552742096</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1484927200318939</v>
+        <v>0.1487504074304085</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01093603874406018</v>
+        <v>0.02947995695796057</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1505844028738093</v>
+        <v>0.1489144254301159</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01093392517038783</v>
+        <v>0.005816342029428191</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06012502401778835</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.0128943695555708</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1513686966387771</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.02807468276329611</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1499149496373746</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.02647229256519201</v>
+        <v>0.01672806534440485</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1492661196153933</v>
+        <v>0.1495251491357752</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01093392517038783</v>
+        <v>0.0299414001905195</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1513686966387771</v>
+        <v>0.1496900213958978</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01073394485573405</v>
+        <v>0.005653433313227652</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06005542692912624</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01286374332331523</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1521529904037449</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02758920499701289</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1506917110344595</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.0261603252203072</v>
+        <v>0.01667281536175652</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1500395191988927</v>
+        <v>0.1502998908411419</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01073394485573405</v>
+        <v>0.02920857105575525</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1521529904037449</v>
+        <v>0.1504656173616796</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01063613312423101</v>
+        <v>0.005500760212499324</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05998582984046413</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01283829590316794</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1529372841687126</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02740436809055549</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1514684724315443</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.02505470925572806</v>
+        <v>0.01592189343710518</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1508129187823922</v>
+        <v>0.1510746325465086</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01063613312423101</v>
+        <v>0.02928154397357668</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1529372841687126</v>
+        <v>0.1512412133274615</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01074052530001093</v>
+        <v>0.00535870152902785</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05991623275180202</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01281820103288514</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1537215779336804</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02792018588123613</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1522452338286292</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.02445551504142962</v>
+        <v>0.01567535742808016</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1515863183658916</v>
+        <v>0.1518493742518753</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01074052530001093</v>
+        <v>0.02896039336389283</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1537215779336804</v>
+        <v>0.1520168092932433</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01044715670720596</v>
+        <v>0.005227636064597738</v>
       </c>
       <c r="G262" t="n">
+        <v>0.0598466356631399</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01260363245022308</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1545058716986481</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02813667220636693</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.153021995225714</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.0241628129473867</v>
+        <v>0.01553326519231066</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1523597179493911</v>
+        <v>0.152624115957242</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01044715670720596</v>
+        <v>0.02894519364661235</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1545058716986481</v>
+        <v>0.1527924052590252</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01035606266994831</v>
+        <v>0.005107942620993615</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05977703857447779</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01269476389293793</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1552901654636159</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02755384090326005</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1537987566227988</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.02267667334357426</v>
+        <v>0.01569567458742599</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1531331175328906</v>
+        <v>0.1533988576626087</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01035606266994831</v>
+        <v>0.02953601924164428</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1552901654636159</v>
+        <v>0.1535680012248071</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01016727851237016</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05970744148581567</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01289176909878596</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1560744592285837</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02747170580922767</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1545755180198837</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.02309716659996719</v>
+        <v>0.01486264347105537</v>
       </c>
       <c r="M264" t="n">
-        <v>0.15390651711639</v>
+        <v>0.1541735993679755</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01016727851237016</v>
+        <v>0.02883294456889735</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1560744592285837</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1543435971905889</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05969428359107883</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005579915647700315</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05969455211954284</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006156283067867585</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05969482064800685</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006729055829085187</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05969508917647088</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007298187499861809</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05969535770493489</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.007863631648780976</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05969562623339891</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008425341844401218</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05969589476186293</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.008983271655305283</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05969616329032695</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009537374650003129</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05969643181879097</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01008760439707765</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05969670034725498</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01063391446508739</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05969696887571899</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01117625842261439</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05969723740418302</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01171458983816998</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05969750593264703</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01224886228033639</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05969777446111105</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01277902931767212</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05969804298957506</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01330504451875855</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05969831151803909</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0138268614521084</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0596985800465031</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01434443368630319</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05969884857496712</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01485771478990146</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05969911710343113</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01536665833148379</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05969938563189516</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01587121787956441</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05969965416035918</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01637134700272411</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05969992268882319</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01686699926952141</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0597001912172872</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01735812824853612</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05970045974575123</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01784468750828404</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05970072827421524</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01832682021239783</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05970099680267926</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01880561749975198</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05970126533114327</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01928122253397829</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0597015338596073</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01975358888359389</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05970180238807131</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0202226701171781</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05970207091653532</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02068841980328942</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05970233944499934</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02115079151050647</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05970260797346336</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0216097388073475</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05970287650192738</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02206521526239128</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0597031450303914</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02251717444419633</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05970341355885541</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02296556992134057</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05970368208731944</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02341035526234359</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05970395061578345</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02385148403578344</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05970421914424746</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0242889098102187</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05970448767271148</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02472258615422666</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0597047562011755</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02515246663632813</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05970502472963952</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02557850482510059</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05970529325810353</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02600065428910258</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05970556178656755</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02641886859691073</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05970583031503157</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02683310131704721</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05970609884349559</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0272433060180888</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05970636737195961</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02764943626859403</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05970663590042362</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02805144563713887</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05970690442888765</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02844928769224685</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05970717295735166</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.02884291600249408</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05970744148581567</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.02884291600249408</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05969428359107883</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.02924925297325493</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05976441773666898</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.02965145729690023</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05983455188225912</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03004938887897157</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05990468602784927</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03044290762501056</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05997482017343941</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03083187344055877</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06004495431902956</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03121614623115784</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06011508846461971</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03159558590234932</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06018522261020986</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03197005235967484</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06025535675580001</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03233940550867598</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06032549090139015</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03270350525489434</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0603956250469803</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03306221150387153</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06046575919257045</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03341538416114912</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0605358933381606</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03376288313226872</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06060602748375075</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03410456832277194</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06067616162934089</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03444029963820035</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06074629577493104</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03476993698409559</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06081642992052119</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.0350933402659992</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06088656406611134</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03541036938945281</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06095669821170149</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03572088425999802</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06102683235729163</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03602474478317642</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06109696650288178</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0363218108645296</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06116710064847192</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03661194240959916</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06123723479406207</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0368949993239267</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06130736893965222</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03717084151305385</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06137750308524238</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0374399009348939</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06144763723083252</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.03770546980921952</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06151777137642268</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.03796798009394397</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06158790552201282</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.03822729169460886</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06165803966760297</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.03848326451675583</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06172817381319312</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.03873575846592648</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06179830795878326</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.03898463344766238</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06186844210437342</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.03922974936750512</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06193857624996356</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.03947096613099633</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06200871039555371</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.03970814364367758</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06207884454114385</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.03994114181109047</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.062148978686734</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04016982053877664</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06221911283232415</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04039403973227761</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0622892469779143</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04061365929713504</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06235938112350445</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04082853913889049</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06242951526909459</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04103853916308556</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06249964941468474</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04124351927526187</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06256978356027489</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04144333938096103</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06263991770586504</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04163785938572457</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06271005185145519</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04182693919509414</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06278018599704534</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04201043871461133</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06285032014263547</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04218821784981771</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06292045428822562</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04236013650625491</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06299058843381578</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04252605458946453</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06306072257940593</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04268583200498813</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06313085672499608</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.0347905546699921</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06313085672499608</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04290535950802251</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06486610286068897</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04310820480943308</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06660134899638187</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04329502713895565</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06833659513207477</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04346648572632609</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07007184126776766</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04362323980128021</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07180708740346058</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04376594859355391</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07354233353915347</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04389527133288294</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07527757967484637</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04401186724900318</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07701282581053927</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04411639557165049</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07874807194623216</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04420951553056066</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08048331808192506</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04429188635546957</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08221856421761797</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04436416727611302</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08395381035331087</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04442701752222689</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08568905648900377</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04448109632354699</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08742430262469666</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04452706290980914</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08915954876038956</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04456557651074921</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09089479489608246</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04459729635610304</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09263004103177536</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04462288167560646</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09436528716746825</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04464299169899528</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09610053330316116</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04465828565600536</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09783577943885406</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04466942277637254</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09957102557454696</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04467706228983267</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1013062717102399</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04468186342612155</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1030415178459328</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04468448541497504</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1047767639816257</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.044685587486129</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1065120101173186</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04468582886931922</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1082472562530115</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04466616757897835</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1099825023887044</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0445714379604298</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1117177485243973</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04440336519125571</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1134529946600902</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04416756725487792</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1151882407957831</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04386966213471822</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.116923486931476</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04351526781419845</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1186587330671689</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04311000227674045</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1203939792028618</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04265948350576603</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1221292253385547</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04216932948469703</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1238644714742476</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04164515819695527</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1255997176099405</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04109258762596258</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1273349637456334</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04051723575514076</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1290702098813263</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.03992472056791167</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1308054560170192</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03932066004769714</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.132540702152712</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.03871067217791895</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.134275948288405</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03810037494199898</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1360111944240978</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03749538632335903</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1377464405597908</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.03690132430542092</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1394816866954836</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.03632380687160649</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1412169328311766</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03576845200533756</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1429521789668694</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03524087769003597</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1446874251025624</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03474670190912352</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1464226712382553</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03429154264602204</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1481579173739482</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03388101788415338</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03349372658347902</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.151628409645334</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03309874256560915</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1533636557810269</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03269752760031858</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1550989019167198</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03229165038735953</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1568341480524127</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03188267962648413</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1585693941881056</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03147218401744457</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1603046403237985</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03106173225999299</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1620398864594914</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0306528930538816</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1637751325951843</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03024723509886253</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1655103787308772</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02984632709468795</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1672456248665701</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02945173774111006</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1689808710022629</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02906503573788097</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1707161171379559</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02868778978475293</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1724513632736487</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02832156858147803</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1741866094093417</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02796794082780846</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1759218555450345</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02762847522349641</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1776571016807275</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02730474046829402</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1793923478164203</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02699830526195347</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1811275939521133</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02671073830422693</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1828628400878061</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02644360829486655</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.184598086223499</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02619848393362453</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1863333323591919</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.025976933920253</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1880685784948849</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02578052695450416</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1898038246305777</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02561083173613014</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1915390707662707</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02546941696488313</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1932743169019636</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02535724167612004</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1950095630376565</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02525606335717264</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1967448091733494</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02515691745286035</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1984800553090423</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02506003324915008</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2002153014447352</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02496564003200868</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.201950547580428</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02487396708740303</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.203685793716121</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02478524370130007</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2054210398518138</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0246996991596666</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2071562859875068</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02461756274846954</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2088915321231996</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02453906375367577</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2106267782588926</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02446443146125215</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2123620243945854</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02439389515716558</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2140972705302784</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02432768412738292</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2158325166659712</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02426602765787107</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2175677628016641</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02420915503459691</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.219303008937357</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02415729554352731</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2210382550730499</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02411067847062916</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2227735012087428</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02406953310186933</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2245087473444357</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0240340887232147</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2262439934801286</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02400457462063214</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2279792396158216</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02398122008008855</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2297144857515144</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02396425438755079</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2314497318872074</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02395390682898576</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2331849780229003</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02395040669036034</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2349202241585931</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.0797905546699921</v>
+        <v>0.06115574960149644</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02979055466999209</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01316835672499606</v>
+        <v>0.008444986961587358</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001192720045169161</v>
+        <v>0.004054027458287049</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006376854214646067</v>
+        <v>0.001624659273763004</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001642967999590413</v>
+        <v>0.003915428667633884</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007842937649677569</v>
+        <v>0.001633576938643104</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006549716233713421</v>
+        <v>0.01086978691769802</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007747417053667109</v>
+        <v>0.001635716721363524</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009051033623512728</v>
+        <v>0.0263587325743927</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007755959657818538</v>
+        <v>0.002324709931594166</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002418266362242308</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001275370842929213</v>
+        <v>0.002814995653862453</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001362613636363634</v>
+        <v>0.003406534090909087</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01319227836646897</v>
+        <v>0.01669237018878494</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001549483410733422</v>
+        <v>0.002632552227137524</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01723841916147861</v>
+        <v>0.03207893252742544</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001551191931563708</v>
+        <v>0.003264162336395524</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003675208932550925</v>
+        <v>0.00850630809564247</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00191305626439382</v>
+        <v>0.004873977821289013</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004618057653201023</v>
+        <v>0.009470397855666918</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002352881294903271</v>
+        <v>0.004900730815929314</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01867028770041987</v>
+        <v>0.0241407220396799</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002324225116100133</v>
+        <v>0.004907150164090573</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02200000000000002</v>
+        <v>0.04025566064181646</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00201868686868687</v>
+        <v>0.004896243504593285</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004962117737426497</v>
+        <v>0.009863462572118696</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002550741685858427</v>
+        <v>0.006498637095052016</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005632735687513754</v>
+        <v>0.01141081581342331</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003137175059871028</v>
+        <v>0.006534307754572417</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02262634553771931</v>
+        <v>0.0277685739348946</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003098966821466844</v>
+        <v>0.006542866885454098</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02908790805401562</v>
+        <v>0.0465175405745471</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003102383863127415</v>
+        <v>0.006528324672791047</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01125998261544982</v>
+        <v>0.002814995653862453</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006277562758200531</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003188427107323034</v>
+        <v>0.008444986961587358</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006988813704661319</v>
+        <v>0.01344876452738433</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003921468824838785</v>
+        <v>0.008167884693215522</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02499999999999997</v>
+        <v>0.0310128422045613</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003504664702581364</v>
+        <v>0.008178583606817622</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03437584180931369</v>
+        <v>0.05107049530884894</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003877979828909269</v>
+        <v>0.008160405840988809</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007620113976204511</v>
+        <v>0.01093596454392445</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003826112528787641</v>
+        <v>0.009747955642578026</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008086723817765346</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004705762589806542</v>
+        <v>0.01021960227272726</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02820526338805102</v>
+        <v>0.03437802614403526</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004648450232200265</v>
+        <v>0.009814300328181147</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03865327450089645</v>
+        <v>0.05730159255302764</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004653575794691123</v>
+        <v>0.00992194395410414</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008988341372769937</v>
+        <v>0.01087656344323699</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004463797950252247</v>
+        <v>0.01137261491634103</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008826898139947505</v>
+        <v>0.0161439837521342</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005490056354774299</v>
+        <v>0.01143503857050173</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03029793033850564</v>
+        <v>0.0362877612799673</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005423191937566976</v>
+        <v>0.0106454190340909</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04331563354302609</v>
+        <v>0.0613916242243519</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005429171760472976</v>
+        <v>0.01142456817738433</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01038081492922831</v>
+        <v>0.01177808669667545</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005101483371716854</v>
+        <v>0.01299727419010403</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009809768784329445</v>
+        <v>0.01741485014978157</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006274350119742055</v>
+        <v>0.01306861550914483</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03230374192343829</v>
+        <v>0.04038695693206484</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006197933642933687</v>
+        <v>0.0130857337709082</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04675834634996495</v>
+        <v>0.06615427105493538</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006204767726254831</v>
+        <v>0.01305664934558209</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0117961046269111</v>
+        <v>0.01263701291246273</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005739168793181461</v>
+        <v>0.01462193346386704</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01073576786403284</v>
+        <v>0.01864212121777958</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007058643884709813</v>
+        <v>0.01470219244778794</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03328833746361645</v>
+        <v>0.04306433432730822</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006972675348300398</v>
+        <v>0.01472145049227172</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05067684033597553</v>
+        <v>0.07037928660019038</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006980363692036684</v>
+        <v>0.01468873051377986</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01323278044714982</v>
+        <v>0.0144498206988217</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006376854214646068</v>
+        <v>0.01624659273763004</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01190532749217933</v>
+        <v>0.01971939581870176</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00784293764967757</v>
+        <v>0.01633576938643104</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03511735627980764</v>
+        <v>0.04636020153710285</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007747417053667109</v>
+        <v>0.01635716721363524</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05306654291532004</v>
+        <v>0.07453825260537705</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007755959657818537</v>
+        <v>0.01632081168197762</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01468941237127597</v>
+        <v>0.01521298866397528</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007014539636110674</v>
+        <v>0.01787125201139305</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01241887978189058</v>
+        <v>0.02084027281512152</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008627231414645326</v>
+        <v>0.01796934632507415</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0362877612799673</v>
+        <v>0.04845373355536234</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008478429072906685</v>
+        <v>0.01799288393499877</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05730159255302764</v>
+        <v>0.07840275081575504</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008763179730427437</v>
+        <v>0.01795289285017538</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01616457038062103</v>
+        <v>0.01592299541614633</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007652225057575282</v>
+        <v>0.01949591128515605</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01347685684628823</v>
+        <v>0.02199835106961237</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009411525179613084</v>
+        <v>0.01960292326371725</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03707320839404324</v>
+        <v>0.0514241053760002</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00929690046440053</v>
+        <v>0.01962860065636229</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05824329492773994</v>
+        <v>0.08304436297658435</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009307151589382246</v>
+        <v>0.01958497401837314</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0176568244565165</v>
+        <v>0.01757631956355776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008289910479039889</v>
+        <v>0.02112057055891906</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01407969079849396</v>
+        <v>0.02278722944474777</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01019581894458084</v>
+        <v>0.02123650020236036</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03818779636768982</v>
+        <v>0.05385049199293004</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01007164216976724</v>
+        <v>0.02126431737772582</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06001915062896002</v>
+        <v>0.08673467083312497</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0100827475551641</v>
+        <v>0.0212170551865709</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01916474458029387</v>
+        <v>0.01716943971443245</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008927595900504494</v>
+        <v>0.02274522983268206</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01472781375162942</v>
+        <v>0.02370050680310115</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0109801127095486</v>
+        <v>0.02287007714100346</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03929908604949184</v>
+        <v>0.05591206840006535</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01084638387513395</v>
+        <v>0.02290003409908934</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06246781565698728</v>
+        <v>0.09044525613063659</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01085834352094595</v>
+        <v>0.02284913635476866</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02068690073328464</v>
+        <v>0.01669883447699329</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009565281321969103</v>
+        <v>0.02436988910644506</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.02463178200724599</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01156248072681956</v>
+        <v>0.02450365407964656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04090592073394286</v>
+        <v>0.05768800959131981</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01162112558050066</v>
+        <v>0.02453575082045287</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0643882136446064</v>
+        <v>0.09264770061437916</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01163393948672781</v>
+        <v>0.02448121752296643</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02222186289682027</v>
+        <v>0.01916098245946318</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01020296674343371</v>
+        <v>0.02599454838020807</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01600267385194069</v>
+        <v>0.0254746539197558</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01254870023948411</v>
+        <v>0.02613723101828967</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0424071437155365</v>
+        <v>0.05975749056060684</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01239586728586737</v>
+        <v>0.02617146754181639</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06737926822460233</v>
+        <v>0.09571358602961266</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01240953545250966</v>
+        <v>0.02611329869116419</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02376820105223231</v>
+        <v>0.01755236227006499</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01084065216489831</v>
+        <v>0.02761920765397107</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0162795415155241</v>
+        <v>0.02602272140320401</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01333299400445187</v>
+        <v>0.02777080795693277</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04340159828876644</v>
+        <v>0.06129968630184007</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01317060899123408</v>
+        <v>0.02780718426317992</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06943990302975989</v>
+        <v>0.09841449412159681</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01318513141829152</v>
+        <v>0.02774537985936195</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.01786945251702163</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01125998261544982</v>
+        <v>0.02924386692773407</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0171533682304629</v>
+        <v>0.02646958332016408</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01411728776941963</v>
+        <v>0.02940438489557588</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04468812774812622</v>
+        <v>0.06329377180893297</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0139453506966008</v>
+        <v>0.02944290098454344</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07036904169286384</v>
+        <v>0.1000220066355917</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01396072738407337</v>
+        <v>0.02937746102755971</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02729981093979148</v>
+        <v>0.02013554097998021</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01211602300782753</v>
+        <v>0.03086852620149708</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01752353018736851</v>
+        <v>0.02710883853320949</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01490158153438738</v>
+        <v>0.03103796183421898</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04586557538810956</v>
+        <v>0.06411892207579922</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01472009240196751</v>
+        <v>0.03107861770590696</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07276560784669894</v>
+        <v>0.1015079539718802</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01473632334985522</v>
+        <v>0.03100954219575747</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02906660545471338</v>
+        <v>0.01839361714355776</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01275370842929214</v>
+        <v>0.03249318547526009</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01798940357685234</v>
+        <v>0.02747490827668202</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01568587529935514</v>
+        <v>0.03267153877286209</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04643278450320998</v>
+        <v>0.06511092498418586</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01549483410733422</v>
+        <v>0.03271433442727049</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07462852512405005</v>
+        <v>0.1036710297924802</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01551191931563707</v>
+        <v>0.03264162336395524</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02979055466999209</v>
+        <v>0.01864271658699797</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01316835672499606</v>
+        <v>0.03411784474902309</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01855036458952584</v>
+        <v>0.02762996584350476</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0164701690643229</v>
+        <v>0.03430511571150519</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04768859838792117</v>
+        <v>0.06606170095002048</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01626957581270093</v>
+        <v>0.03435005114863401</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07705671715770201</v>
+        <v>0.103894805945116</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01628751528141893</v>
+        <v>0.034273704532153</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03073669044871877</v>
+        <v>0.02088113322870846</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01402907927222135</v>
+        <v>0.03574250402278609</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01930578941600039</v>
+        <v>0.02827254337045763</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01725446282929065</v>
+        <v>0.03593869265014829</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04943186033673672</v>
+        <v>0.06638406794835658</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01704431751806764</v>
+        <v>0.03598576786999754</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07864910758043975</v>
+        <v>0.1061703984796738</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01706311124720078</v>
+        <v>0.03590578570035076</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03138939273702276</v>
+        <v>0.02010716098709685</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01466676469368595</v>
+        <v>0.03736716329654909</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0196550542468874</v>
+        <v>0.02860026629432769</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01803875659425841</v>
+        <v>0.0375722695887914</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05036141364415025</v>
+        <v>0.06707236230041794</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01781905922343435</v>
+        <v>0.03762148459136106</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08060462002504792</v>
+        <v>0.10688892344604</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01783870721298264</v>
+        <v>0.03753786686854852</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03200290633574932</v>
+        <v>0.02031909378057074</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01530445011515056</v>
+        <v>0.03899182257031211</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02039753527279829</v>
+        <v>0.02871076005190194</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01882305035922617</v>
+        <v>0.03920584652743451</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0512761016046554</v>
+        <v>0.06822092032742846</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01859380092880106</v>
+        <v>0.03925720131272459</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08192217812431141</v>
+        <v>0.1082414968941006</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01861430317876449</v>
+        <v>0.03916994803674628</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03257892457689961</v>
+        <v>0.02151522552753776</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01594213553661517</v>
+        <v>0.0406164818440751</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0208326086843445</v>
+        <v>0.02890165007996748</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01960734412419392</v>
+        <v>0.04083942346607761</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05277476751274579</v>
+        <v>0.06902407835061181</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01936854263416777</v>
+        <v>0.04089291803408811</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08470070551101494</v>
+        <v>0.109519234873742</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01938989914454635</v>
+        <v>0.04080202920494404</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03311914079247461</v>
+        <v>0.01969385014640556</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01657982095807978</v>
+        <v>0.04224114111783811</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02125965067213745</v>
+        <v>0.02927056181531129</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02039163788916168</v>
+        <v>0.04247300040472071</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05345625466291501</v>
+        <v>0.06917617269119186</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02014328433953448</v>
+        <v>0.04252863475545163</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08583912581794351</v>
+        <v>0.1098132534348507</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0201654951103282</v>
+        <v>0.04243411037314181</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03362524831447545</v>
+        <v>0.02085326155558171</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01721750637954438</v>
+        <v>0.04386580039160112</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02197803742678853</v>
+        <v>0.02971512069472042</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02117593165412944</v>
+        <v>0.04410657734336382</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0546194063496567</v>
+        <v>0.07007153967039245</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02091802604490119</v>
+        <v>0.04416435147681516</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0873363626778817</v>
+        <v>0.1113146686273126</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02094109107611005</v>
+        <v>0.04406619154133957</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03409894047490313</v>
+        <v>0.02199175367347384</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01785519180100899</v>
+        <v>0.04549045966536411</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02248714513890913</v>
+        <v>0.02983295215498188</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02196022541909719</v>
+        <v>0.04574015428200692</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05526306586746449</v>
+        <v>0.07050451560943732</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02169276775026791</v>
+        <v>0.04580006819817868</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08979133972361458</v>
+        <v>0.1117145965010143</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02171668704189191</v>
+        <v>0.04569827270953733</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03454191060575875</v>
+        <v>0.02110762041848962</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0184928772224736</v>
+        <v>0.04711511893912712</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02278634999911075</v>
+        <v>0.03002168163288275</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02274451918406495</v>
+        <v>0.04737373122065002</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05698607651083198</v>
+        <v>0.07136943682955033</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02246750945563461</v>
+        <v>0.04743578491954221</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09050298058792677</v>
+        <v>0.1122041531058418</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02249228300767376</v>
+        <v>0.04733035387773509</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03495585203904335</v>
+        <v>0.0201991557090366</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01913056264393821</v>
+        <v>0.04873977821289013</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02347502819800472</v>
+        <v>0.03017893456521004</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02352881294903271</v>
+        <v>0.04900730815929313</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05728728157425281</v>
+        <v>0.07126063965195523</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02324225116100133</v>
+        <v>0.04907150164090573</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09267020890360322</v>
+        <v>0.1136744544916815</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02326787897345561</v>
+        <v>0.04896243504593285</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03534245810675802</v>
+        <v>0.02126465346352244</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01976824806540281</v>
+        <v>0.05036443748665313</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02385255592620249</v>
+        <v>0.03020233638875076</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02431310671400047</v>
+        <v>0.05064088509793623</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05886552435222059</v>
+        <v>0.07207246039787576</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02401699286636804</v>
+        <v>0.05070721836226926</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09339194830342867</v>
+        <v>0.1137166167084196</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02404347493923747</v>
+        <v>0.05059451621413062</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03570342214090379</v>
+        <v>0.02231149920299288</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02040593348686742</v>
+        <v>0.05198909676041613</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02441830937431551</v>
+        <v>0.03048951254029196</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02509740047896822</v>
+        <v>0.05227446203657934</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05941964813922893</v>
+        <v>0.07169923538853584</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02479173457173475</v>
+        <v>0.05234293508363278</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09586712242018797</v>
+        <v>0.1140217558059424</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02481907090501932</v>
+        <v>0.05222659738232838</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03604043747348173</v>
+        <v>0.02031111671429871</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02104361890833202</v>
+        <v>0.05361375603417914</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02487166473295511</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02588169424393598</v>
+        <v>0.05390803897522244</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06074849622977152</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02556647627710146</v>
+        <v>0.0539786518049963</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09639465488666588</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02559466687080117</v>
+        <v>0.05385867855052614</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03635519743649291</v>
+        <v>0.02230044582360603</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02168130432979663</v>
+        <v>0.05523841530794214</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02541199819273282</v>
+        <v>0.03024680919310228</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02666598800890373</v>
+        <v>0.05554161591386555</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06135091191834185</v>
+        <v>0.07247526421616476</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02634121798246817</v>
+        <v>0.05561436852635984</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09817346933564725</v>
+        <v>0.113994638363658</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02637026283658303</v>
+        <v>0.0554907597187239</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03664939536193839</v>
+        <v>0.02227579534283865</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02231898975126124</v>
+        <v>0.05686307458170514</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02583868594425996</v>
+        <v>0.03053019712669901</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02745028177387149</v>
+        <v>0.05717519285250865</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06212573849943367</v>
+        <v>0.07244599128291559</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02711595968783488</v>
+        <v>0.05725008524772336</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09930248939991698</v>
+        <v>0.1136212186931451</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02714585880236488</v>
+        <v>0.05712284088692166</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03692472458181922</v>
+        <v>0.02123806442619646</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02295667517272584</v>
+        <v>0.05848773385546815</v>
       </c>
       <c r="J101" t="n">
-        <v>0.026051104178148</v>
+        <v>0.03039435839497011</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02823457553883925</v>
+        <v>0.05880876979115175</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06287181926754051</v>
+        <v>0.07177027956450521</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02789070139320159</v>
+        <v>0.05888580196908687</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1003806387122598</v>
+        <v>0.1137765041333126</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02792145476814674</v>
+        <v>0.05875492205511942</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03718287842813647</v>
+        <v>0.02018815222787929</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02359436059419045</v>
+        <v>0.06011239312923116</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02634862908500833</v>
+        <v>0.03024054446120746</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02901886930380701</v>
+        <v>0.06044234672979485</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06408799751715602</v>
+        <v>0.07165111398298021</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02866544309856831</v>
+        <v>0.0605215186904504</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1026068409054605</v>
+        <v>0.1139651767820692</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02869705073392859</v>
+        <v>0.06038700322331719</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03742555023289119</v>
+        <v>0.02012695790208701</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02423204601565506</v>
+        <v>0.06173705240299415</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02673063685545238</v>
+        <v>0.03017000678870287</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02980316306877476</v>
+        <v>0.06207592366843797</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06447311654277385</v>
+        <v>0.071791479460387</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02944018480393501</v>
+        <v>0.06215723541181393</v>
       </c>
       <c r="N103" t="n">
-        <v>0.103480019612304</v>
+        <v>0.1132919187373237</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02947264669971044</v>
+        <v>0.06201908439151495</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03765443332808444</v>
+        <v>0.02205538060301943</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02486973143711967</v>
+        <v>0.06336171167675717</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02729650368009154</v>
+        <v>0.02998399684074819</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03058745683374252</v>
+        <v>0.06370950060708107</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06522601963888758</v>
+        <v>0.07189436091877216</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03021492650930172</v>
+        <v>0.06379295213317744</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1047990984655749</v>
+        <v>0.1125614120969852</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0302482426654923</v>
+        <v>0.0636511655597127</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03787122104571729</v>
+        <v>0.01997431948487643</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02550741685858427</v>
+        <v>0.06498637095052018</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02754560574953725</v>
+        <v>0.03018376608063525</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03137175059871028</v>
+        <v>0.06534307754572417</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06644555009999084</v>
+        <v>0.07136274328018205</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03098966821466844</v>
+        <v>0.06542866885454098</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1055630010980584</v>
+        <v>0.1127783389589624</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03102383863127415</v>
+        <v>0.06528324672791047</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03807760671779083</v>
+        <v>0.02088467370185786</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02614510228004888</v>
+        <v>0.06661103022428316</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02797731925440093</v>
+        <v>0.02977056597165592</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03215604436367803</v>
+        <v>0.06697665448436728</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06663055122057729</v>
+        <v>0.07149961146666331</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03176440992003515</v>
+        <v>0.06706438557590451</v>
       </c>
       <c r="N106" t="n">
-        <v>0.105870651142539</v>
+        <v>0.1120473814211643</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03179943459705601</v>
+        <v>0.06691532789610823</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03827528367630607</v>
+        <v>0.02178734240816355</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02678278770151349</v>
+        <v>0.06823568949804618</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02819102038529399</v>
+        <v>0.02994564797710199</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03294033812864579</v>
+        <v>0.06861023142301038</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06727986629514049</v>
+        <v>0.07110795040026241</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03253915162540186</v>
+        <v>0.06870010229726803</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1078209722318015</v>
+        <v>0.1122732215814994</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03257503056283786</v>
+        <v>0.06854740906430599</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03846594525326408</v>
+        <v>0.01968322475799338</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02742047312297809</v>
+        <v>0.06986034877180919</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02858608533282785</v>
+        <v>0.02981026356026532</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03372463189361355</v>
+        <v>0.07024380836165349</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0682923386181741</v>
+        <v>0.07059074500302576</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03331389333076856</v>
+        <v>0.07033581901863155</v>
       </c>
       <c r="N108" t="n">
-        <v>0.108712887998631</v>
+        <v>0.111460541537877</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03335062652861971</v>
+        <v>0.07017949023250375</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03865128478066596</v>
+        <v>0.01957321990554716</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0280581585444427</v>
+        <v>0.07148500804557219</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02886189028761389</v>
+        <v>0.02936566418443778</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0345089256585813</v>
+        <v>0.07187738530029658</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06836681148417173</v>
+        <v>0.07015098019699992</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03408863503613528</v>
+        <v>0.07197153573999508</v>
       </c>
       <c r="N109" t="n">
-        <v>0.109145322075812</v>
+        <v>0.1108140233882057</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03412622249440157</v>
+        <v>0.07181157140070152</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03883300211354448</v>
+        <v>0.02145822700502476</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0286958439659073</v>
+        <v>0.07310966731933519</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02911781144026358</v>
+        <v>0.02951310131291118</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03529321942354906</v>
+        <v>0.0735109622389397</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06960212818762701</v>
+        <v>0.06949164090423141</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03486337674150199</v>
+        <v>0.0736072524613586</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1099171980961295</v>
+        <v>0.1098383492303943</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03490181846018342</v>
+        <v>0.07344365256889927</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03901287918359634</v>
+        <v>0.02133914521062604</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02933352938737191</v>
+        <v>0.07473432659309819</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0294532249813883</v>
+        <v>0.02935382640897737</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03607751318851682</v>
+        <v>0.07514453917758279</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06969713202303354</v>
+        <v>0.0691157120467667</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0356381184468687</v>
+        <v>0.07524296918272212</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1102274396923683</v>
+        <v>0.1089382011623519</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03567741442596527</v>
+        <v>0.07507573373709704</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03919135012845996</v>
+        <v>0.02021687367655083</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02997121480883652</v>
+        <v>0.0763589858668612</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02936750710159949</v>
+        <v>0.02898909093592818</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03686180695348457</v>
+        <v>0.0767781161162259</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06985066628488495</v>
+        <v>0.0693261785466523</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03641286015223541</v>
+        <v>0.07687868590408564</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1107749704973133</v>
+        <v>0.1088182612819872</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03645301039174713</v>
+        <v>0.0767078149052948</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03936834042923729</v>
+        <v>0.021092311556999</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03060890023030113</v>
+        <v>0.07798364514062421</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02986003399150854</v>
+        <v>0.02882014635705545</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03764610071845233</v>
+        <v>0.07841169305486902</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07046157426767485</v>
+        <v>0.06892602532593464</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03718760185760212</v>
+        <v>0.07851440262544918</v>
       </c>
       <c r="N113" t="n">
-        <v>0.111558714143749</v>
+        <v>0.108283211687209</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03722860635752898</v>
+        <v>0.07833989607349257</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03954377556703031</v>
+        <v>0.01996635800617039</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03124658565176574</v>
+        <v>0.0796083044143872</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02983018184172687</v>
+        <v>0.02874824413565104</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0384303944834201</v>
+        <v>0.08004526999351211</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0706286992658969</v>
+        <v>0.0684182373066603</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03796234356296883</v>
+        <v>0.0801501193468127</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1118775942644606</v>
+        <v>0.1070377344759262</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03800420232331083</v>
+        <v>0.07997197724169033</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03971758102294096</v>
+        <v>0.02083991217826484</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03188427107323034</v>
+        <v>0.08123296368815021</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03017732684286592</v>
+        <v>0.02867463573500677</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03921468824838785</v>
+        <v>0.08167884693215521</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0713508845740447</v>
+        <v>0.06780579941087572</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03873708526833555</v>
+        <v>0.08178583606817622</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1132305344922327</v>
+        <v>0.1064865117460477</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03877979828909269</v>
+        <v>0.08160405840988809</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03988968227807125</v>
+        <v>0.02071387322748221</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03252195649469494</v>
+        <v>0.08285762296191322</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03030084518553708</v>
+        <v>0.02830057261841448</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0399989820133556</v>
+        <v>0.08331242387079832</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07142697348661184</v>
+        <v>0.06709169656062747</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03951182697370226</v>
+        <v>0.08342155278953975</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1137164584598501</v>
+        <v>0.1064342255954824</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03955539425487455</v>
+        <v>0.08323613957808586</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04006000481352309</v>
+        <v>0.01858914030802234</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03315964191615955</v>
+        <v>0.08448228223567622</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03020011306035178</v>
+        <v>0.02812730624916601</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04078327577832336</v>
+        <v>0.08494600080944142</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07205580929809199</v>
+        <v>0.06707891367796198</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04028656867906897</v>
+        <v>0.08505726951090327</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1138342898000977</v>
+        <v>0.105385558122139</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04033099022065639</v>
+        <v>0.08486822074628361</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04022847411039842</v>
+        <v>0.02045831501992385</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03379732733762416</v>
+        <v>0.08610694150943922</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03047450665792147</v>
+        <v>0.02795604252779205</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04156756954329112</v>
+        <v>0.08657957774808453</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07173623530297871</v>
+        <v>0.0662704356849258</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04106131038443567</v>
+        <v>0.08669298623226679</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1133829521457603</v>
+        <v>0.1044430910336061</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04110658618643825</v>
+        <v>0.08650030191448138</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04039501564979927</v>
+        <v>0.01830929046213237</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03443501275908877</v>
+        <v>0.08773160078320223</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03054786001381399</v>
+        <v>0.02777084283070541</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04235186330825887</v>
+        <v>0.08821315468672764</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07246709479576566</v>
+        <v>0.0660414325048303</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04183605208980239</v>
+        <v>0.08832870295363032</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1134613691296228</v>
+        <v>0.1042357129922646</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04188218215222011</v>
+        <v>0.08813238308267914</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04055955491282755</v>
+        <v>0.02014474999208115</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03507269818055338</v>
+        <v>0.08935626005696523</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03054617578377128</v>
+        <v>0.02756093813409591</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04313615707322663</v>
+        <v>0.08984673162537073</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07257552255993463</v>
+        <v>0.06595246910319905</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0426107937951691</v>
+        <v>0.08996441967499384</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1146031851060553</v>
+        <v>0.1039378486705161</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04265777811800196</v>
+        <v>0.0897644642508769</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04072201738058522</v>
+        <v>0.0199676231616339</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03571038360201798</v>
+        <v>0.09098091933072823</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0304457131429752</v>
+        <v>0.02723040585496232</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04392045083819439</v>
+        <v>0.09148030856401385</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07257548742301476</v>
+        <v>0.06511253828295888</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04338553550053581</v>
+        <v>0.09160013639635736</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1144031619848717</v>
+        <v>0.1031647529030232</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04343337408378381</v>
+        <v>0.09139654541907466</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04088232853417428</v>
+        <v>0.01778083952265432</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03634806902348259</v>
+        <v>0.09260557860449124</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03023411619882832</v>
+        <v>0.02698332341030339</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04470474460316215</v>
+        <v>0.09311388550265694</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07225747867627325</v>
+        <v>0.06433136527694056</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04416027720590252</v>
+        <v>0.0932358531177209</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1144658813465376</v>
+        <v>0.1011316805244485</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04420897004956566</v>
+        <v>0.09302862658727243</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04104041385469665</v>
+        <v>0.01958732862700613</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03698575444494719</v>
+        <v>0.09423023787825424</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03051284108458123</v>
+        <v>0.0267237682171179</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0454890383681299</v>
+        <v>0.09474746244130004</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07190158108200209</v>
+        <v>0.06421867531797484</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04493501891126923</v>
+        <v>0.09487156983908442</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1137599142361573</v>
+        <v>0.1006538863694549</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04498456601534753</v>
+        <v>0.09466070775547018</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04119619882325431</v>
+        <v>0.01839002002655303</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0376234398664118</v>
+        <v>0.09585489715201725</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03038231277156943</v>
+        <v>0.02645581769240457</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04627333213309766</v>
+        <v>0.09638103937994316</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07200933729027928</v>
+        <v>0.06358419363889262</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04570976061663595</v>
+        <v>0.09650728656044794</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1131885968922871</v>
+        <v>0.09984662527270466</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04576016198112937</v>
+        <v>0.09629278892366795</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04134960892094918</v>
+        <v>0.01719184327315872</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03826112528787641</v>
+        <v>0.09747955642578025</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03014295623112849</v>
+        <v>0.02638354925316219</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04705762589806541</v>
+        <v>0.09801461631858625</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07208228088729005</v>
+        <v>0.06293764547252467</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04648450232200265</v>
+        <v>0.09814300328181147</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1140552655534833</v>
+        <v>0.0981251520688608</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04653575794691123</v>
+        <v>0.09792487009186571</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04150056962888327</v>
+        <v>0.01799572791868694</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03889881070934102</v>
+        <v>0.09910421569954325</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03019519643459392</v>
+        <v>0.02611104031638953</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04784191966303317</v>
+        <v>0.09964819325722936</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07162194545921957</v>
+        <v>0.06228875605170175</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04725924402736936</v>
+        <v>0.09977872000317499</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1133632564583021</v>
+        <v>0.09720472159258586</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04731135391269308</v>
+        <v>0.09955695126006348</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04164900642815853</v>
+        <v>0.01880460351500136</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03953649613080562</v>
+        <v>0.1007288749733063</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03013945835330127</v>
+        <v>0.02584236829908532</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04862621342800093</v>
+        <v>0.1012817701958725</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07162986459225298</v>
+        <v>0.06134725060925481</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04803398573273607</v>
+        <v>0.1014144367245385</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1131159058453001</v>
+        <v>0.09690058867854245</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04808694987847494</v>
+        <v>0.1011890324282612</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04179484479987689</v>
+        <v>0.01762139961396572</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04017418155227023</v>
+        <v>0.1023535342470693</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03017616695858608</v>
+        <v>0.02548161061824834</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04941050719296869</v>
+        <v>0.1029153471345156</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07100757187257536</v>
+        <v>0.06062285437801457</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04880872743810279</v>
+        <v>0.103050153445902</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1121165499530334</v>
+        <v>0.09572800816139349</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04886254584425679</v>
+        <v>0.102821113596459</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04193801022514033</v>
+        <v>0.01744095004449461</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04081186697373483</v>
+        <v>0.1039781935208323</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03020574722178386</v>
+        <v>0.02523284469087735</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05019480095793644</v>
+        <v>0.1045489240731587</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07135660088637197</v>
+        <v>0.06052529259081182</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0495834691434695</v>
+        <v>0.1046858701672656</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1121685250200584</v>
+        <v>0.09510153498791674</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04963814181003864</v>
+        <v>0.1044531947646568</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04207842818505084</v>
+        <v>0.01724398871077348</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04144955239519944</v>
+        <v>0.1056028527945953</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02982862411423015</v>
+        <v>0.02497931143739197</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0509790947229042</v>
+        <v>0.1061825010118018</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07117848521982792</v>
+        <v>0.05993104440885338</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0503582108488362</v>
+        <v>0.1063215868886291</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1115751672849313</v>
+        <v>0.09393942786235288</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0504137377758205</v>
+        <v>0.1060852759328545</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04221602416071032</v>
+        <v>0.01803331734335158</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04208723781666405</v>
+        <v>0.1072275120683583</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02994522260726049</v>
+        <v>0.02460255472779453</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05176338848787196</v>
+        <v>0.1078160779504449</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07027475845912837</v>
+        <v>0.05858133591097023</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05113295255420292</v>
+        <v>0.1079573036099926</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1114398129862084</v>
+        <v>0.0924929472672199</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05118933374160235</v>
+        <v>0.1077173571010523</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04235072363322075</v>
+        <v>0.01681312959658007</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04272492323812865</v>
+        <v>0.1088521713421213</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0299559676722104</v>
+        <v>0.02460838741626459</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05254768225283971</v>
+        <v>0.109449654889088</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07024695419045843</v>
+        <v>0.0581877327476556</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05190769425956963</v>
+        <v>0.1095930203313562</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1103657983624462</v>
+        <v>0.09208393050280633</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05196492970738421</v>
+        <v>0.10934943826925</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04248245208368414</v>
+        <v>0.01758761912481002</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04336260865959326</v>
+        <v>0.1104768306158843</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02986128428041541</v>
+        <v>0.02400264632643036</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05333197601780747</v>
+        <v>0.1110832318277311</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0701966060000033</v>
+        <v>0.05786415659255587</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05268243596493634</v>
+        <v>0.1112287370527197</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1102564596522008</v>
+        <v>0.09073421486940048</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05274052567316606</v>
+        <v>0.1109815194374478</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04261113499320238</v>
+        <v>0.01636097958239258</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04400029408105786</v>
+        <v>0.1121014898896473</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0295615974032111</v>
+        <v>0.02369116828192003</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05411626978277523</v>
+        <v>0.1127168087663742</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06972524747394812</v>
+        <v>0.05672452911931733</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05345717767030305</v>
+        <v>0.1128644537740832</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1087151330940286</v>
+        <v>0.08876563766729118</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05351612163894791</v>
+        <v>0.1126136006056456</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04273669784287747</v>
+        <v>0.01513740462367883</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04463797950252248</v>
+        <v>0.1137261491634103</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02965733201193296</v>
+        <v>0.02357979010636184</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05490056354774298</v>
+        <v>0.1143503857050173</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06943441219847804</v>
+        <v>0.05598277200158633</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05423191937566976</v>
+        <v>0.1145001704954467</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1083451549264859</v>
+        <v>0.08810003619676682</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05429171760472976</v>
+        <v>0.1142456817738433</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04285906611381134</v>
+        <v>0.01492108790301992</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04527566492398708</v>
+        <v>0.1153508084371733</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02934891307791651</v>
+        <v>0.02307434862338398</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05568485731271075</v>
+        <v>0.1159839626436604</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06872563375977822</v>
+        <v>0.05545280691300919</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05500666108103647</v>
+        <v>0.1161358872168102</v>
       </c>
       <c r="N136" t="n">
-        <v>0.107249861388129</v>
+        <v>0.08695924775811592</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05506731357051162</v>
+        <v>0.1158777629420411</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04297816528710597</v>
+        <v>0.01671622307476693</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04591335034545169</v>
+        <v>0.1169754677109363</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02913676557249735</v>
+        <v>0.02308068065661467</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0564691510776785</v>
+        <v>0.1176175395823035</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06850044574403383</v>
+        <v>0.05444855552723224</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05578140278640319</v>
+        <v>0.1177716039381737</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1068325887175142</v>
+        <v>0.08546510965162707</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05584290953629347</v>
+        <v>0.1175098441102388</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04309392084386333</v>
+        <v>0.016527003793271</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04655103576691629</v>
+        <v>0.1186001269846993</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02902131446701095</v>
+        <v>0.02270462302968208</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05725344484264626</v>
+        <v>0.1192511165209466</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06806038173743001</v>
+        <v>0.05428393951790181</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0565561444917699</v>
+        <v>0.1194073206595373</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1068966731531978</v>
+        <v>0.08543945917758872</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05661850550207533</v>
+        <v>0.1191419252784366</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04320625826518536</v>
+        <v>0.01435762371288324</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0471887211883809</v>
+        <v>0.1202247862584623</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02890298473279287</v>
+        <v>0.02255201256621449</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05803773860761402</v>
+        <v>0.1208846934595897</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06700697532615188</v>
+        <v>0.0536728805586642</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05733088619713661</v>
+        <v>0.1210430373809008</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1061454509337362</v>
+        <v>0.08370413363628953</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05739410146785719</v>
+        <v>0.1207740064466344</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04331510303217403</v>
+        <v>0.01621227648795476</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04782640660984551</v>
+        <v>0.1218494455322253</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02878220134117862</v>
+        <v>0.02232868608984007</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05882203237258177</v>
+        <v>0.1225182703982328</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06684176009638465</v>
+        <v>0.05272930032316578</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05810562790250332</v>
+        <v>0.1226787541022643</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1046822582976856</v>
+        <v>0.0834809703280181</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05816969743363903</v>
+        <v>0.1224060876148321</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04342038062593129</v>
+        <v>0.01609515577283668</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04846409203131011</v>
+        <v>0.1234741048059883</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02895938926350376</v>
+        <v>0.02184048042418701</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05960632613754953</v>
+        <v>0.1241518473368759</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06636626963431344</v>
+        <v>0.05226712048505286</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05888036960787003</v>
+        <v>0.1243144708236279</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1036104314836023</v>
+        <v>0.08219180655306274</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05894529339942089</v>
+        <v>0.1240381687830299</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04352201652755911</v>
+        <v>0.01501045522188011</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04910177745277472</v>
+        <v>0.1250987640797513</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02883497347110382</v>
+        <v>0.02179323239288354</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06039061990251728</v>
+        <v>0.125785424275519</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06588203752612343</v>
+        <v>0.05200026271797181</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05965511131323673</v>
+        <v>0.1259501875449914</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1033333067300427</v>
+        <v>0.08225847961171223</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05972088936520274</v>
+        <v>0.1256702499512277</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04361993621815944</v>
+        <v>0.01596236848943617</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04973946287423933</v>
+        <v>0.1267234233535143</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02860937893531432</v>
+        <v>0.02179277881955789</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06117491366748504</v>
+        <v>0.1274190012141621</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06519059735799976</v>
+        <v>0.05204264869556888</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06042985301860344</v>
+        <v>0.1275859042663549</v>
       </c>
       <c r="N143" t="n">
-        <v>0.102854220275563</v>
+        <v>0.08190282680425498</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0604964853309846</v>
+        <v>0.1273023311194254</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04371406517883427</v>
+        <v>0.01595306173370842</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05037714829570393</v>
+        <v>0.1283480826272773</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0283830306274708</v>
+        <v>0.02154495652783824</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0619592074324528</v>
+        <v>0.1290525781528052</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06459348271612755</v>
+        <v>0.05130820009149045</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06120459472397016</v>
+        <v>0.1292216209877184</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1012765083587196</v>
+        <v>0.08154668543097948</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06127208129676644</v>
+        <v>0.1289344122876232</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04380432889068551</v>
+        <v>0.01495820895850507</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05101483371716854</v>
+        <v>0.1299727419010404</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0282563535189088</v>
+        <v>0.02184367983064781</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06274350119742056</v>
+        <v>0.1306861550914483</v>
       </c>
       <c r="L145" t="n">
-        <v>0.064792227186692</v>
+        <v>0.05139424955148492</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06197933642933687</v>
+        <v>0.130857337709082</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1015035072180688</v>
+        <v>0.08135119492540355</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0620476772625483</v>
+        <v>0.1305664934558209</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04389065283481514</v>
+        <v>0.01496930868544408</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05165251913863315</v>
+        <v>0.1315974011748033</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02822977258096386</v>
+        <v>0.02175367839680113</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06352779496238831</v>
+        <v>0.1323197320300914</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06358836435587822</v>
+        <v>0.05191495662233087</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06275407813470359</v>
+        <v>0.1324930544304455</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09983855309216683</v>
+        <v>0.08119203885240023</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06282327322833015</v>
+        <v>0.1321985746240187</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04397296249232514</v>
+        <v>0.01498605276633136</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05229020456009775</v>
+        <v>0.1332220604485663</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02810371278497149</v>
+        <v>0.02167176629005453</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06431208872735607</v>
+        <v>0.1339533089687346</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06378342780987145</v>
+        <v>0.05135509058262164</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06352881984007029</v>
+        <v>0.134128771151809</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09928498221957011</v>
+        <v>0.08096300157612746</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06359886919411202</v>
+        <v>0.1338306557922165</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04405118334431744</v>
+        <v>0.01600813305297279</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05292788998156236</v>
+        <v>0.1348467197223294</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02807859910226725</v>
+        <v>0.02169751462273399</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06509638249232381</v>
+        <v>0.1355868859073777</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06267895113485678</v>
+        <v>0.0518136284728489</v>
       </c>
       <c r="M148" t="n">
-        <v>0.064303561545437</v>
+        <v>0.1357644878731725</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09814613083883483</v>
+        <v>0.08166247849971442</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06437446515989387</v>
+        <v>0.1354627369604142</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04412524087189402</v>
+        <v>0.01503524139717428</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05356557540302697</v>
+        <v>0.1364713789960924</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02765485650418664</v>
+        <v>0.02183049450716543</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06588067625729159</v>
+        <v>0.1372204628460208</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06257646791701932</v>
+        <v>0.05188954733350437</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06507830325080372</v>
+        <v>0.1374002045945361</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09852533518851742</v>
+        <v>0.08148886502629071</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06515006112567572</v>
+        <v>0.137094818128612</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04419506055615683</v>
+        <v>0.0140670696507417</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05420326082449158</v>
+        <v>0.1380960382698554</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02783290996206521</v>
+        <v>0.02187027705567485</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06666497002225935</v>
+        <v>0.1388540397846639</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06197751174254432</v>
+        <v>0.05198182420507974</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06585304495617042</v>
+        <v>0.1390359213158996</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09742593150717399</v>
+        <v>0.08164055655898567</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06592565709145758</v>
+        <v>0.1387268992968098</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04426056787820785</v>
+        <v>0.01410330966548097</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05484094624595619</v>
+        <v>0.1397206975436184</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02741318444723852</v>
+        <v>0.02171643338058822</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0674492637872271</v>
+        <v>0.140487616723307</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06168361619761686</v>
+        <v>0.0521894361280667</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06662778666153713</v>
+        <v>0.1406716380372631</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09635125603336109</v>
+        <v>0.08161594850092874</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06670125305723942</v>
+        <v>0.1403589804650075</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.044321688319149</v>
+        <v>0.01514365329319798</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05547863166742079</v>
+        <v>0.1413453568173814</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02729610493104206</v>
+        <v>0.02186853459423148</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06823355755219486</v>
+        <v>0.1421211936619501</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06109631486842212</v>
+        <v>0.05221136014295688</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06740252836690386</v>
+        <v>0.1423073547586266</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09640464500563495</v>
+        <v>0.08181343625524939</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06747684902302127</v>
+        <v>0.1419910616332053</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04437834736008226</v>
+        <v>0.01518779238569861</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05611631708888539</v>
+        <v>0.1429700160911444</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02728209638481137</v>
+        <v>0.02202615180893062</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06901785131716261</v>
+        <v>0.1437547706005932</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06011714134114526</v>
+        <v>0.05184657329024206</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06817727007227056</v>
+        <v>0.1439430714799902</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09588943466255173</v>
+        <v>0.08243141522507708</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06825244498880313</v>
+        <v>0.143623142801403</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04443047048210961</v>
+        <v>0.01523541879478877</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05675400251035</v>
+        <v>0.1445946753649074</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02717158377988202</v>
+        <v>0.02188885613701162</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06980214508213037</v>
+        <v>0.1453883475392363</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06024762920197146</v>
+        <v>0.05199405261041384</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06895201177763727</v>
+        <v>0.1455787882013537</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09420896124266798</v>
+        <v>0.08266828081354111</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06902804095458498</v>
+        <v>0.1452552239696008</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04447798316633299</v>
+        <v>0.01428622437227434</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05739168793181461</v>
+        <v>0.1462193346386704</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02726499208758951</v>
+        <v>0.02225621869080041</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07058643884709813</v>
+        <v>0.1470219244778794</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05938931203708581</v>
+        <v>0.05265277514396399</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06972675348300399</v>
+        <v>0.1472145049227172</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09396656098453976</v>
+        <v>0.08252242842377094</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06980363692036684</v>
+        <v>0.1468873051377985</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04452081089385435</v>
+        <v>0.01634129335284851</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05802937335327922</v>
+        <v>0.1478439939124334</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02686274627926939</v>
+        <v>0.02202781058262299</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07137073261206588</v>
+        <v>0.1486555014165225</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05874372343267348</v>
+        <v>0.05252171793138419</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07050149518837069</v>
+        <v>0.1488502216440807</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09366557012672361</v>
+        <v>0.08339225345889612</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0705792328861487</v>
+        <v>0.1485193863059963</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04455887914577567</v>
+        <v>0.01643497420113178</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05866705877474382</v>
+        <v>0.1494686531861964</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02706527132625718</v>
+        <v>0.02241811550459646</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07215502637703364</v>
+        <v>0.1502890783551656</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05841239697491968</v>
+        <v>0.05322154011900504</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0712762368937374</v>
+        <v>0.1504859383654442</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09350932490777564</v>
+        <v>0.08415028642247452</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07135482885193055</v>
+        <v>0.1501514674741941</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0445921134031989</v>
+        <v>0.01657526454964971</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05930474419620844</v>
+        <v>0.1510933124599594</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0267718190205302</v>
+        <v>0.02247528830038378</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0729393201420014</v>
+        <v>0.1519226552938087</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05788806114366354</v>
+        <v>0.05317336440265413</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0720509785991041</v>
+        <v>0.1521216550868078</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0929905979707234</v>
+        <v>0.08416314776454259</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07213042481771241</v>
+        <v>0.1517835486423919</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.044620439147226</v>
+        <v>0.01575286214816443</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05994242961767304</v>
+        <v>0.1527179717337224</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02658049483713874</v>
+        <v>0.02279159457352242</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07372361390696915</v>
+        <v>0.1535562322324518</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05815688196290647</v>
+        <v>0.05367032820345383</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07282572030447082</v>
+        <v>0.1537573718081713</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09269209629333058</v>
+        <v>0.08529274217248167</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07290602078349426</v>
+        <v>0.1534156298105896</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04464378185895892</v>
+        <v>0.0149584647464381</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06058011503913764</v>
+        <v>0.1543426310074854</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02669107935427575</v>
+        <v>0.02275408724029064</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07450790767193691</v>
+        <v>0.1551898091710949</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05731899822559294</v>
+        <v>0.05418155084284901</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07360046200983754</v>
+        <v>0.1553930885295348</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09181215562238171</v>
+        <v>0.08549063073960206</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0736816167492761</v>
+        <v>0.1550477109787874</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04466206701949964</v>
+        <v>0.01618277009423284</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06121780046060225</v>
+        <v>0.1559672902812484</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02650338195511963</v>
+        <v>0.02304981921696671</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07529220143690467</v>
+        <v>0.156823386109738</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05727477227204317</v>
+        <v>0.05517615164228457</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07437520371520424</v>
+        <v>0.1570288052508984</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09114939027285474</v>
+        <v>0.08700837455921362</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07445721271505797</v>
+        <v>0.1566797921469851</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04467522010995011</v>
+        <v>0.01641647594131081</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06185548588206685</v>
+        <v>0.1575919495550114</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02641721202284872</v>
+        <v>0.02366584341982886</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07607649520187243</v>
+        <v>0.1584569630483811</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05652456644257728</v>
+        <v>0.05582324992320542</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07514994542057096</v>
+        <v>0.1586645219722619</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0917024145597275</v>
+        <v>0.08809753472462656</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07523280868083981</v>
+        <v>0.1583118733151829</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0446831666114123</v>
+        <v>0.01665028003743413</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06249317130353147</v>
+        <v>0.1592166088287744</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0264323789406414</v>
+        <v>0.02378921276515542</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07686078896684019</v>
+        <v>0.1600905399870242</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05636874307751544</v>
+        <v>0.05669196500705642</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07592468712593767</v>
+        <v>0.1603002386936254</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09046984279797798</v>
+        <v>0.08960967232915112</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07600840464662166</v>
+        <v>0.1599439544833807</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04468583200498814</v>
+        <v>0.01587488013236495</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06313085672499608</v>
+        <v>0.1608412681025374</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02634869209167603</v>
+        <v>0.02420698016922468</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07764508273180794</v>
+        <v>0.1617241169256673</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05530766451717786</v>
+        <v>0.0571514162152825</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07669942883130437</v>
+        <v>0.1619359554149889</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0903502893025841</v>
+        <v>0.09069634846609709</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07678400061240354</v>
+        <v>0.1615760356515784</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04468583200498814</v>
+        <v>0.01708097397586539</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06313085672499608</v>
+        <v>0.1624659273763004</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02616596085913099</v>
+        <v>0.02440619854831487</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0784293764967757</v>
+        <v>0.1633576938643104</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05474169310188468</v>
+        <v>0.05787072286932851</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07747417053667109</v>
+        <v>0.1635716721363524</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09094236838852371</v>
+        <v>0.09180912422877485</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07755959657818538</v>
+        <v>0.1632081168197762</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04390119834100403</v>
+        <v>0.01825960249441452</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06313058819653206</v>
+        <v>0.1640905866500634</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02608399462618463</v>
+        <v>0.02467392081870429</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07921367026174346</v>
+        <v>0.1649912708029535</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05447119117195609</v>
+        <v>0.05861900429063938</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0782489122420378</v>
+        <v>0.165207388857716</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08974469437077487</v>
+        <v>0.09279956071049433</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07833519254396723</v>
+        <v>0.1648401979879739</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04312554136793052</v>
+        <v>0.01642348052865079</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06313031966806804</v>
+        <v>0.1657152459238264</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02590260277601532</v>
+        <v>0.02480581600550209</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07999796402671121</v>
+        <v>0.1666248477415966</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05429652106771221</v>
+        <v>0.05887806437679452</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07902365394740452</v>
+        <v>0.1668431055790795</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08945588156431539</v>
+        <v>0.09336198667716156</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07911078850974909</v>
+        <v>0.1664722791561717</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04235933064306065</v>
+        <v>0.01758333091037269</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06313005113960402</v>
+        <v>0.1673399051975894</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02612159469180143</v>
+        <v>0.02522876351266254</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08078225779167897</v>
+        <v>0.1682584246802397</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05401804512947328</v>
+        <v>0.05991012429018655</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07979839565277122</v>
+        <v>0.168478822300443</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08957454428412326</v>
+        <v>0.09509578494078319</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07988638447553094</v>
+        <v>0.1681043603243695</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04160303572378731</v>
+        <v>0.01773944873495554</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06312978261114</v>
+        <v>0.1689645644713524</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0258407797567213</v>
+        <v>0.02534632907847068</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08156655155664672</v>
+        <v>0.1698920016188828</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05293612569755946</v>
+        <v>0.0603292412576634</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08057313735813794</v>
+        <v>0.1701145390218065</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08949929684517638</v>
+        <v>0.09530956449659245</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08066198044131279</v>
+        <v>0.1697364414925672</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04085712616740315</v>
+        <v>0.01689212909777463</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06312951408267599</v>
+        <v>0.1705892237451155</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02595996735395334</v>
+        <v>0.02565892342339006</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08235084532161448</v>
+        <v>0.171525578557526</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0523511251122909</v>
+        <v>0.06063639490729292</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08134787906350464</v>
+        <v>0.1717502557431701</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08882875356245268</v>
+        <v>0.09650486197250013</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08143757640709465</v>
+        <v>0.171368522660765</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04012207153123434</v>
+        <v>0.01904166709420528</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06312924555421197</v>
+        <v>0.1722138830188784</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02557896686667591</v>
+        <v>0.02596695726788428</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08313513908658224</v>
+        <v>0.1731591554961691</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05196340571398775</v>
+        <v>0.06123256486714307</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08212262076887135</v>
+        <v>0.1733859724645336</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08886152875093006</v>
+        <v>0.09728321399641715</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08221317237287649</v>
+        <v>0.1730006038289628</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03939834137257581</v>
+        <v>0.01818835781962277</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06312897702574795</v>
+        <v>0.1738385422926415</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02569758767806732</v>
+        <v>0.02617084133241691</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08391943285154999</v>
+        <v>0.1747927324348122</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05157332984297019</v>
+        <v>0.06201873076528189</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08289736247423807</v>
+        <v>0.1750216891858971</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08829623672558651</v>
+        <v>0.09774615719625424</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08298876833865836</v>
+        <v>0.1746326849971605</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03868640524881676</v>
+        <v>0.01733249636940244</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06312870849728393</v>
+        <v>0.1754632015664045</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02571563917130598</v>
+        <v>0.02617098633745152</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08470372661651775</v>
+        <v>0.1764263093734553</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05148125983955845</v>
+        <v>0.06199587222977715</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08367210417960477</v>
+        <v>0.1766574059072606</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08823149180139978</v>
+        <v>0.09809522819992228</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08376436430444022</v>
+        <v>0.1762647661653583</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03798673271725162</v>
+        <v>0.01947437783891957</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06312843996881992</v>
+        <v>0.1770878608401674</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02543293072957024</v>
+        <v>0.02626780300345169</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08548802038148551</v>
+        <v>0.1780598863120983</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0506875580440726</v>
+        <v>0.06236496888869689</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08444684588497148</v>
+        <v>0.1782931226286242</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08776590829334796</v>
+        <v>0.09933196363533209</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08453996027022206</v>
+        <v>0.177896847333556</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03729979333520659</v>
+        <v>0.01961429732354947</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0631281714403559</v>
+        <v>0.1787125201139305</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02554927173603849</v>
+        <v>0.026461702050881</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08627231414645327</v>
+        <v>0.1796934632507415</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04989258679683287</v>
+        <v>0.06352700037010897</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0852215875903382</v>
+        <v>0.1799288393499877</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08709810051640893</v>
+        <v>0.1002579001303945</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08531555623600391</v>
+        <v>0.1795289285017538</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0366260566599788</v>
+        <v>0.01875254991866745</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06312790291189188</v>
+        <v>0.1803371793876935</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02516447157388908</v>
+        <v>0.02685309420020299</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08705660791142103</v>
+        <v>0.1813270401893846</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04969670843815943</v>
+        <v>0.06378294630208134</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08599632929570492</v>
+        <v>0.1815645560713512</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08722668278556062</v>
+        <v>0.1005745743130205</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08609115220178577</v>
+        <v>0.1811610096699516</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03596599224895313</v>
+        <v>0.01888943071964882</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06312763438342786</v>
+        <v>0.1819618386614565</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02507833962630038</v>
+        <v>0.02694239017188127</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08784090167638878</v>
+        <v>0.1829606171280277</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04930028530837247</v>
+        <v>0.06413378631268193</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08677107100107162</v>
+        <v>0.1832002727927147</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08695026941578093</v>
+        <v>0.1017835228111206</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08686674816756762</v>
+        <v>0.1827930908381493</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0353200696594261</v>
+        <v>0.02002897434689532</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06312736585496385</v>
+        <v>0.1835864979352195</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02529068527645073</v>
+        <v>0.02733090261507862</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08862519544135654</v>
+        <v>0.1845941940666708</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04900367974779216</v>
+        <v>0.0646814148732342</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08754581270643833</v>
+        <v>0.1848359895140783</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08626747472204777</v>
+        <v>0.102591475896479</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08764234413334948</v>
+        <v>0.1844251720063471</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03468875844872393</v>
+        <v>0.02017646843485515</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06312709732649983</v>
+        <v>0.1852111572089825</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02500131790751853</v>
+        <v>0.02752949530673572</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0894094892063243</v>
+        <v>0.1862277710053139</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04790725409673857</v>
+        <v>0.06475076036363717</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08832055441180504</v>
+        <v>0.1864717062354418</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0867769130193391</v>
+        <v>0.102839037598883</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08841794009913133</v>
+        <v>0.1860572531745449</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03407252817414631</v>
+        <v>0.01832713318344075</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06312682879803581</v>
+        <v>0.1868358164827455</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02491004690268211</v>
+        <v>0.02773575073007774</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09019378297129205</v>
+        <v>0.187861347943957</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04771137069553197</v>
+        <v>0.06564022987554916</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08909529611717175</v>
+        <v>0.1881074229568053</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08567719862263284</v>
+        <v>0.1032132378291925</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08919353606491318</v>
+        <v>0.1876893343427426</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03347184839307308</v>
+        <v>0.0184758993745724</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06312656026957179</v>
+        <v>0.1884604757565085</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02491668164511988</v>
+        <v>0.02774261343193975</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09097807673625981</v>
+        <v>0.1894949248826001</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04751639188449253</v>
+        <v>0.06573299512656086</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08987003782253845</v>
+        <v>0.1897431396781688</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08586694584690691</v>
+        <v>0.1042876800300933</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08996913203069505</v>
+        <v>0.1893214155109404</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03288718866280325</v>
+        <v>0.02061769779017043</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06312629174110777</v>
+        <v>0.1900851350302715</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02482103151801018</v>
+        <v>0.02794302795915686</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09176237050122756</v>
+        <v>0.1911285018212432</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04702268000394039</v>
+        <v>0.06631222783426302</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09064477952790517</v>
+        <v>0.1913788563995324</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08564476900713924</v>
+        <v>0.1054359676442715</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0907447279964769</v>
+        <v>0.1909534966791381</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03231901854066303</v>
+        <v>0.01974745921215515</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06312602321264377</v>
+        <v>0.1917097943040345</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02452290590453138</v>
+        <v>0.02832993885856418</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09254666426619532</v>
+        <v>0.1927620787598863</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04653059739419574</v>
+        <v>0.06686109971624632</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09141952123327189</v>
+        <v>0.1930145731208959</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08520928241830772</v>
+        <v>0.1059317041144132</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09152032396225875</v>
+        <v>0.1925855778473359</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03176780758395498</v>
+        <v>0.01886011442244687</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06312575468417973</v>
+        <v>0.1933344535777975</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02452211418786183</v>
+        <v>0.02849629067699681</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09333095803116308</v>
+        <v>0.1943956556985294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04604050639557869</v>
+        <v>0.06726278249010154</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0921942629386386</v>
+        <v>0.1946502898422594</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08455910039539027</v>
+        <v>0.1060484928832043</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09229591992804061</v>
+        <v>0.1942176590155336</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03123402535005327</v>
+        <v>0.0199505942029659</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06312548615571573</v>
+        <v>0.1949591128515605</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02431846575117991</v>
+        <v>0.02833502796128987</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09411525179613082</v>
+        <v>0.1960292326371725</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04545276934840944</v>
+        <v>0.06780044787341938</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0929690046440053</v>
+        <v>0.1962860065636229</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08509283725336486</v>
+        <v>0.1073599373933309</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09307151589382245</v>
+        <v>0.1958497401837314</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03071814139625973</v>
+        <v>0.02001465141095565</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06312521762725171</v>
+        <v>0.1965837721253235</v>
       </c>
       <c r="J186" t="n">
-        <v>0.024211769977664</v>
+        <v>0.02843909525827842</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09489954556109859</v>
+        <v>0.1976628095758156</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04516774859300826</v>
+        <v>0.06795726758379048</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09374374634937202</v>
+        <v>0.1979217232849865</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08370910730720943</v>
+        <v>0.1068396410874789</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0938471118596043</v>
+        <v>0.1974818213519292</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03022062527990054</v>
+        <v>0.02106910126298437</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0631249490987877</v>
+        <v>0.1982084313990865</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02410183625049243</v>
+        <v>0.02851551435397509</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09568383932606635</v>
+        <v>0.1992963865144587</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04398580646969519</v>
+        <v>0.06834186845475362</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09451848805473873</v>
+        <v>0.19955744000635</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08340652487190181</v>
+        <v>0.1072239056919275</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09462270782538616</v>
+        <v>0.199113902520127</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02974194655828147</v>
+        <v>0.01912236913588516</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06312468057032367</v>
+        <v>0.1998330906728495</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02398847395284359</v>
+        <v>0.0285895329319598</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09646813309103411</v>
+        <v>0.2009299634531018</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04410730531879048</v>
+        <v>0.06811834213159296</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09529322976010543</v>
+        <v>0.2011931567277135</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08328370426242004</v>
+        <v>0.1080009087914485</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09539830379116801</v>
+        <v>0.2007459836883247</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02928257478877038</v>
+        <v>0.0191744363742495</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06312441204185966</v>
+        <v>0.2014577499466125</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02417149246789585</v>
+        <v>0.02876190033423016</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09725242685600187</v>
+        <v>0.2025635403917449</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04323260748061422</v>
+        <v>0.06809088882316131</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09606797146547215</v>
+        <v>0.202828873449077</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08343925979374195</v>
+        <v>0.1086717219216758</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09617389975694987</v>
+        <v>0.2023780648565225</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02884106216959011</v>
+        <v>0.02122528432266895</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06312414351339564</v>
+        <v>0.2030824092203755</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02405070117882756</v>
+        <v>0.02873259059576386</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09803672062096962</v>
+        <v>0.204197117330388</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04316207529548663</v>
+        <v>0.06855944659910229</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09684271317083887</v>
+        <v>0.2044645901704406</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0820718057808455</v>
+        <v>0.1089362479397066</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09694949572273173</v>
+        <v>0.2040101460247202</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02840637410357526</v>
+        <v>0.02127489432573499</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06312387498493162</v>
+        <v>0.2047070684941385</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02362590946881708</v>
+        <v>0.02910157775153846</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09882101438593738</v>
+        <v>0.2058306942690311</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04239607110372792</v>
+        <v>0.06872395352905947</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09761745487620557</v>
+        <v>0.2061003068918041</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08167995653870852</v>
+        <v>0.1087943897026382</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09772509168851358</v>
+        <v>0.205642227192918</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02797706278895173</v>
+        <v>0.02032324772803915</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0631236064564676</v>
+        <v>0.2063317277679015</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0235969267210428</v>
+        <v>0.02906883583653162</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09960530815090514</v>
+        <v>0.2074642712076742</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04213495724565822</v>
+        <v>0.06918434768267642</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09839219658157228</v>
+        <v>0.2077360236131676</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08126232638230912</v>
+        <v>0.1089460500675676</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09850068765429543</v>
+        <v>0.2072743083611157</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02755359778308304</v>
+        <v>0.01937032587417296</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06312333792800358</v>
+        <v>0.2079563870416645</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02335838755287052</v>
+        <v>0.02923433888572097</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1003896019158729</v>
+        <v>0.2090978481463173</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04157559867115654</v>
+        <v>0.06874056712959667</v>
       </c>
       <c r="M193" t="n">
-        <v>0.099166938286939</v>
+        <v>0.2093717403345311</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08106807460092119</v>
+        <v>0.1090911318915921</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09927628362007729</v>
+        <v>0.2089063895293135</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02713644864327656</v>
+        <v>0.0204161101087279</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06312306939953957</v>
+        <v>0.2095810463154275</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02330442529648563</v>
+        <v>0.02929806093408413</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1011738956808406</v>
+        <v>0.2107314250849605</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04141382738440916</v>
+        <v>0.06939254993946389</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0999416799923057</v>
+        <v>0.2110074570558947</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07984127323106921</v>
+        <v>0.1099295380318089</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1000518795858591</v>
+        <v>0.2105384706975113</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0267260849268585</v>
+        <v>0.0194605817762955</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06312280087107555</v>
+        <v>0.2112057055891906</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02313592026541976</v>
+        <v>0.02905997601659877</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1019581894458084</v>
+        <v>0.2123650020236036</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04034991414183103</v>
+        <v>0.06974023418192163</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1007164216976724</v>
+        <v>0.2126431737772582</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07878969057294027</v>
+        <v>0.1094611713453151</v>
       </c>
       <c r="O195" t="n">
-        <v>0.100827475551641</v>
+        <v>0.212170551865709</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02632297619113765</v>
+        <v>0.0195037222214673</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06312253234261153</v>
+        <v>0.2128303648629535</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02305376987564516</v>
+        <v>0.02932005816824244</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1027424832107762</v>
+        <v>0.2139985789622466</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04018414644228141</v>
+        <v>0.06958355792661344</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1014911634030391</v>
+        <v>0.2142788904986217</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07862124720841362</v>
+        <v>0.1103859346892078</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1016030715174228</v>
+        <v>0.2138026330339068</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02592759199347531</v>
+        <v>0.02154551278883476</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06312226381414751</v>
+        <v>0.2144550241367165</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02295887154313407</v>
+        <v>0.02927828142399284</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1035267769757439</v>
+        <v>0.2156321559008897</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03941681178461945</v>
+        <v>0.06992245924318291</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1022659051084058</v>
+        <v>0.2159146072199852</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0775438637193685</v>
+        <v>0.1102037309205844</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1023786674832047</v>
+        <v>0.2154347142021046</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02554040189117995</v>
+        <v>0.01958593482298945</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0631219952856835</v>
+        <v>0.2160796834104796</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02255212268385874</v>
+        <v>0.02953461981882761</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1043110707407117</v>
+        <v>0.2172657328395328</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03884819766770425</v>
+        <v>0.06975687620127366</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1030406468137725</v>
+        <v>0.2175503239413487</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07546546068768423</v>
+        <v>0.1103144628965419</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1031542634489866</v>
+        <v>0.2170667953703023</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02516187544157773</v>
+        <v>0.02062496966852286</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06312172675721948</v>
+        <v>0.2177043426842425</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02253442071379143</v>
+        <v>0.02928904738772432</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1050953645056794</v>
+        <v>0.218899309778176</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03847859159039516</v>
+        <v>0.06958674687052926</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1038153885191393</v>
+        <v>0.2191860406627123</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07449395869524011</v>
+        <v>0.1102180334741776</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1039298594147684</v>
+        <v>0.2186988765385001</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02479248220197899</v>
+        <v>0.02166259867002653</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06312145822875546</v>
+        <v>0.2193290019580056</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02220666304890438</v>
+        <v>0.02934153816566064</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1058796582706472</v>
+        <v>0.2205328867168191</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03840828105155117</v>
+        <v>0.06971200932059329</v>
       </c>
       <c r="M200" t="n">
-        <v>0.104590130224506</v>
+        <v>0.2208217573840758</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07383727832391557</v>
+        <v>0.1112143455105886</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1047054553805503</v>
+        <v>0.2203309577066978</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02443269172974206</v>
+        <v>0.01969880317209193</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06312118970029144</v>
+        <v>0.2209536612317686</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02186974710516987</v>
+        <v>0.02969206618761418</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1066639520356149</v>
+        <v>0.2221664636554622</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03763755355003159</v>
+        <v>0.07043260162110926</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1053648719298727</v>
+        <v>0.2224574741054393</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0725033401555899</v>
+        <v>0.1106033018628721</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1054810513463321</v>
+        <v>0.2219630388748956</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02408297358217684</v>
+        <v>0.02073356451931063</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06312092117182744</v>
+        <v>0.2225783205055316</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02162457029856012</v>
+        <v>0.02974060548856258</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1074482458005827</v>
+        <v>0.2238000405941053</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03766669658469551</v>
+        <v>0.07054846184172084</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1061396136352394</v>
+        <v>0.2240931908268028</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07090006477214222</v>
+        <v>0.1106848053881253</v>
       </c>
       <c r="O202" t="n">
-        <v>0.106256647312114</v>
+        <v>0.2235951200430934</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02374379731660952</v>
+        <v>0.01976686405627408</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06312065264336342</v>
+        <v>0.2242029797792946</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0214720300450474</v>
+        <v>0.02958713010348346</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1082325395655505</v>
+        <v>0.2254336175327484</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03689599765440213</v>
+        <v>0.0701595280520716</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1069143553406061</v>
+        <v>0.2257289075481664</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06843537275545197</v>
+        <v>0.1112587589434455</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1070322432778958</v>
+        <v>0.2252272012112911</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02341563249035226</v>
+        <v>0.02079868312757385</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0631203841148994</v>
+        <v>0.2258276390530576</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02111302376060395</v>
+        <v>0.0298316140673545</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1090168333305182</v>
+        <v>0.2270671944713915</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03662574425801068</v>
+        <v>0.07086573832180504</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1076890970459728</v>
+        <v>0.2273646242695299</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06741718468739838</v>
+        <v>0.1108250653859297</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1078078392436777</v>
+        <v>0.2268592823794889</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02309894866075978</v>
+        <v>0.01982900307780142</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06312011558643538</v>
+        <v>0.2274522983268206</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02094844886120202</v>
+        <v>0.02977403141515327</v>
       </c>
       <c r="K205" t="n">
-        <v>0.109801127095486</v>
+        <v>0.2287007714100346</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03605622389438023</v>
+        <v>0.07066703072056482</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1084638387513395</v>
+        <v>0.2290003409908934</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06555342114986096</v>
+        <v>0.112083627572675</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1085834352094595</v>
+        <v>0.2284913635476866</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02279421538514378</v>
+        <v>0.02085780525154835</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06311984705797136</v>
+        <v>0.2290769576005836</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02077920276281385</v>
+        <v>0.0298143561818574</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1105854208604537</v>
+        <v>0.2303343483486777</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03518772406237006</v>
+        <v>0.07106334331799452</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1092385804567062</v>
+        <v>0.230636057712257</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06345200272471879</v>
+        <v>0.1118343483607789</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1093590311752414</v>
+        <v>0.2301234447158844</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02250190222083043</v>
+        <v>0.01988507099340611</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06311957852950735</v>
+        <v>0.2307016168743466</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02050618288141175</v>
+        <v>0.02985256240244456</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1113697146254215</v>
+        <v>0.2319679252873208</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03512053226083925</v>
+        <v>0.07085461418373773</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1100133221620729</v>
+        <v>0.2322717744336205</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06192084999385122</v>
+        <v>0.1114771306073383</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1101346271410232</v>
+        <v>0.2317555258840822</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02222247872513401</v>
+        <v>0.02191078164796625</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06311931000104332</v>
+        <v>0.2323262761481096</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0201302866329679</v>
+        <v>0.02978862411189237</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1121540083903892</v>
+        <v>0.2336015022259639</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03465493598864708</v>
+        <v>0.07124078138743797</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1107880638674396</v>
+        <v>0.233907491154984</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06066788353913755</v>
+        <v>0.1114118771694505</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1109102231068051</v>
+        <v>0.2333876070522799</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02195641445540509</v>
+        <v>0.02193491855982024</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06311904147257931</v>
+        <v>0.2339509354218726</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01975241143345459</v>
+        <v>0.02982251534517844</v>
       </c>
       <c r="K209" t="n">
-        <v>0.112938302155357</v>
+        <v>0.235235079164607</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03409122274465268</v>
+        <v>0.07122178299873883</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1115628055728064</v>
+        <v>0.2355432078763475</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0582010239424573</v>
+        <v>0.1115384909042127</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1116858190725869</v>
+        <v>0.2350196882204777</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02170417896895734</v>
+        <v>0.02195746307355963</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06311877294411529</v>
+        <v>0.2355755946956356</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01967345469884405</v>
+        <v>0.02995421013728043</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1137225959203248</v>
+        <v>0.2368686561032501</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03342968002771515</v>
+        <v>0.07089755708728393</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1123375472781731</v>
+        <v>0.237178924597711</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0572281917856895</v>
+        <v>0.112256874668722</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1124614150383688</v>
+        <v>0.2366517693886755</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.021466241823117</v>
+        <v>0.02097839653377593</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06311850441565128</v>
+        <v>0.2372002539693986</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01909431384510855</v>
+        <v>0.02998368252317594</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1145068896852925</v>
+        <v>0.2385022330418932</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0327705953366938</v>
+        <v>0.07076804172271683</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1131122889835398</v>
+        <v>0.2388146413190746</v>
       </c>
       <c r="N211" t="n">
-        <v>0.05455730765071348</v>
+        <v>0.1128669313200756</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1132370110041507</v>
+        <v>0.2382838505568732</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02124307257520084</v>
+        <v>0.01999770028506066</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06311823588718725</v>
+        <v>0.2388249132431616</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01911588628822034</v>
+        <v>0.0299109065378426</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1152911834502603</v>
+        <v>0.2401358099805363</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0328142561704477</v>
+        <v>0.07093317497468116</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1138870306889065</v>
+        <v>0.2404503580404381</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05349629211940871</v>
+        <v>0.1122685637153708</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1140126069699325</v>
+        <v>0.239915931725071</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02103514078255447</v>
+        <v>0.02201535567200532</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06311796735872324</v>
+        <v>0.2404495725169246</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01863906944415164</v>
+        <v>0.03013585621625807</v>
       </c>
       <c r="K213" t="n">
-        <v>0.116075477215228</v>
+        <v>0.2417693869191794</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03196095002783611</v>
+        <v>0.0709928949128204</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1146617723942732</v>
+        <v>0.2420860747618016</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05195306577365438</v>
+        <v>0.1125616747117045</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1147882029357144</v>
+        <v>0.2415480128932687</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02084291600249407</v>
+        <v>0.02003134403920142</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06311769883025922</v>
+        <v>0.2420742317906876</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01826476072887474</v>
+        <v>0.02995850559339995</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1168597709801958</v>
+        <v>0.2434029638578225</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03141096440771812</v>
+        <v>0.07164713960677821</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1154365140996399</v>
+        <v>0.2437217914831651</v>
       </c>
       <c r="N214" t="n">
-        <v>0.05033554919532995</v>
+        <v>0.1123461671661742</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1155637989014962</v>
+        <v>0.2431800940614665</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02084291600249408</v>
+        <v>0.02204564673124051</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06311769883025922</v>
+        <v>0.2436988910644506</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01819385755836188</v>
+        <v>0.03007882870424591</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1176440647451635</v>
+        <v>0.2450365407964657</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03166458680895298</v>
+        <v>0.07119584712619814</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1162112558050066</v>
+        <v>0.2453575082045286</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04825166296631439</v>
+        <v>0.112721943935877</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1163393948672781</v>
+        <v>0.2448121752296643</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02030124171008697</v>
+        <v>0.02105824509271408</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0630481017415971</v>
+        <v>0.2453235503382137</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01782725734858531</v>
+        <v>0.02999679958377353</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1184283585101313</v>
+        <v>0.2466701177351088</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03072210473039982</v>
+        <v>0.07123895554072376</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1169859975103733</v>
+        <v>0.2469932249258922</v>
       </c>
       <c r="N216" t="n">
-        <v>0.04700932766848737</v>
+        <v>0.1124889078779098</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1171149908330599</v>
+        <v>0.246444256397862</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.019765888748045</v>
+        <v>0.02006912046821364</v>
       </c>
       <c r="G217" t="n">
-        <v>0.062978504652935</v>
+        <v>0.2469482096119766</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01756585751551726</v>
+        <v>0.02991239226696048</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1192126522750991</v>
+        <v>0.2483036946737519</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03078380567091782</v>
+        <v>0.07167640291999872</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1177607392157401</v>
+        <v>0.2486289416472557</v>
       </c>
       <c r="N217" t="n">
-        <v>0.04541646388372794</v>
+        <v>0.1123469618493703</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1178905867988418</v>
+        <v>0.2480763375660598</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01923723591815254</v>
+        <v>0.02007825420233073</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06290890756427288</v>
+        <v>0.2485728688857397</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01721055547513003</v>
+        <v>0.03022558078878436</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1199969460400668</v>
+        <v>0.249937271612395</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0299499771293662</v>
+        <v>0.07120812733366652</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1185354809211068</v>
+        <v>0.2502646583686192</v>
       </c>
       <c r="N218" t="n">
-        <v>0.04308099219391565</v>
+        <v>0.1122960087073552</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1186661827646236</v>
+        <v>0.2497084187342576</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01871566202219432</v>
+        <v>0.02008562763965683</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06283931047561077</v>
+        <v>0.2501975281595026</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01726224864339583</v>
+        <v>0.0301363391842228</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1207812398050346</v>
+        <v>0.2515708485510381</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02922090660460408</v>
+        <v>0.07153406685137079</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1193102226264735</v>
+        <v>0.2519003750899828</v>
       </c>
       <c r="N219" t="n">
-        <v>0.04141083318092953</v>
+        <v>0.113435951308962</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1194417787304055</v>
+        <v>0.2513404999024553</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01820154586195476</v>
+        <v>0.02009122212478349</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06276971338694866</v>
+        <v>0.2518221874332656</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01692183443628691</v>
+        <v>0.03004464148825346</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1215655335700023</v>
+        <v>0.2532044254896812</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02939688159549067</v>
+        <v>0.07125415954275502</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1200849643318402</v>
+        <v>0.2535360918113463</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04041390742664908</v>
+        <v>0.1129666925112876</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1202173746961873</v>
+        <v>0.2529725810706531</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0176952662392186</v>
+        <v>0.02209501900230221</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06270011629828655</v>
+        <v>0.2534468467070287</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01679021026977554</v>
+        <v>0.03015046173585396</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1223498273349701</v>
+        <v>0.2548380024283243</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02867818960088508</v>
+        <v>0.07176834347746291</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1208597060372069</v>
+        <v>0.2551718085327098</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03889813551295351</v>
+        <v>0.1128881351714294</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1209929706619692</v>
+        <v>0.2546046622388508</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01719720195577023</v>
+        <v>0.02009699961680449</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06263051920962442</v>
+        <v>0.2550715059807917</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01636827355983396</v>
+        <v>0.03005377396200193</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1231341210999378</v>
+        <v>0.2564715793669674</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02816511811964661</v>
+        <v>0.071476556725138</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1216344477425736</v>
+        <v>0.2568075252540734</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03807143802172219</v>
+        <v>0.1127001821464846</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1217685666277511</v>
+        <v>0.2562367434070486</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01670773181339438</v>
+        <v>0.02009221441631443</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06256092212096231</v>
+        <v>0.2566961652545546</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01635692172243444</v>
+        <v>0.03005308127860704</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1239184148649056</v>
+        <v>0.2581051563056105</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02815795465063434</v>
+        <v>0.07127690276552862</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1224091894479403</v>
+        <v>0.2584432419754369</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03684173553483439</v>
+        <v>0.1127948923869336</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1225441625935329</v>
+        <v>0.2578688245752463</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01622723461387549</v>
+        <v>0.02204115065166708</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0624913250323002</v>
+        <v>0.2583208245283177</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01585705217354923</v>
+        <v>0.02999922122628587</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1247027086298734</v>
+        <v>0.2597387332442536</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02745698669270744</v>
+        <v>0.07135829758977366</v>
       </c>
       <c r="M224" t="n">
-        <v>0.123183931153307</v>
+        <v>0.2600789586968004</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03641694863416939</v>
+        <v>0.1130825786278736</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1233197585593148</v>
+        <v>0.2595009057434441</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01575608915899825</v>
+        <v>0.02093994120407981</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06242172794363809</v>
+        <v>0.2599454838020807</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01576956232915053</v>
+        <v>0.02987418078191212</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1254870023948411</v>
+        <v>0.2613723101828967</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02716250174472515</v>
+        <v>0.07146912868083463</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1239586728586737</v>
+        <v>0.2617146754181639</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03530499790160657</v>
+        <v>0.1119048238749098</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1240953545250966</v>
+        <v>0.2611329869116419</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01529467425054711</v>
+        <v>0.0197944017736957</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06235213085497598</v>
+        <v>0.2615701430758436</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01559534960521065</v>
+        <v>0.02968605436938618</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1262712961598089</v>
+        <v>0.2630058871215398</v>
       </c>
       <c r="L226" t="n">
-        <v>0.02647478730554662</v>
+        <v>0.07042870241750157</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1247334145640405</v>
+        <v>0.2633503921395274</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03421380391902523</v>
+        <v>0.1117919117851536</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1248709504908785</v>
+        <v>0.2627650680798396</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01484336869030675</v>
+        <v>0.01961034806065786</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06228253376631387</v>
+        <v>0.2631948023496067</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01543531141770182</v>
+        <v>0.02954293641260847</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1270555899247766</v>
+        <v>0.2646394640601828</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02669413087403102</v>
+        <v>0.07035632517856447</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1255081562694072</v>
+        <v>0.2649861088608909</v>
       </c>
       <c r="N227" t="n">
-        <v>0.03315128726830452</v>
+        <v>0.1100741260157164</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1256465464566603</v>
+        <v>0.2643971492480374</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01440255128006163</v>
+        <v>0.02039359576510936</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06221293667765175</v>
+        <v>0.2648194616233697</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01519034518259629</v>
+        <v>0.02935292133547943</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1278398836897444</v>
+        <v>0.266273040998826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.02622081994903749</v>
+        <v>0.06957130334281328</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1262828979747739</v>
+        <v>0.2666218255822545</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03302536853132393</v>
+        <v>0.1093817502237094</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1264221424224422</v>
+        <v>0.2660292304162352</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01397260082159645</v>
+        <v>0.02014996058719331</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06214333958898964</v>
+        <v>0.2664441208971327</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01506134831586632</v>
+        <v>0.02892410356189944</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1286241774547121</v>
+        <v>0.2679066179374691</v>
       </c>
       <c r="L229" t="n">
-        <v>0.02535514202942529</v>
+        <v>0.06879294328903812</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1270576396801406</v>
+        <v>0.268257542303618</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03234396828996267</v>
+        <v>0.1084450680662442</v>
       </c>
       <c r="O229" t="n">
-        <v>0.127197738388224</v>
+        <v>0.2676613115844329</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01355389611669563</v>
+        <v>0.02088525822705279</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06207374250032752</v>
+        <v>0.2680687801708957</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01524912648444723</v>
+        <v>0.02846457751576896</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1294084712196799</v>
+        <v>0.2695401948761122</v>
       </c>
       <c r="L230" t="n">
-        <v>0.02529735443052428</v>
+        <v>0.06784055139602896</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1278323813855073</v>
+        <v>0.2698932590249815</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0320141044837598</v>
+        <v>0.1068943632004321</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1279733343540059</v>
+        <v>0.2692933927526307</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01314681596714389</v>
+        <v>0.02060530438483089</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06200414541166541</v>
+        <v>0.2696934394446587</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01514403104218399</v>
+        <v>0.02818243762098842</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1301927649846476</v>
+        <v>0.2711737718147553</v>
       </c>
       <c r="L231" t="n">
-        <v>0.02464440902144169</v>
+        <v>0.06653343404257581</v>
       </c>
       <c r="M231" t="n">
-        <v>0.128607123090874</v>
+        <v>0.271528975746345</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03264903235959199</v>
+        <v>0.1052599192833843</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1287489303197877</v>
+        <v>0.2709254739208284</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01275173917472566</v>
+        <v>0.02031591476067073</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0619345483230033</v>
+        <v>0.2713180987184217</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01493924975485496</v>
+        <v>0.02788577830145822</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1309770587496154</v>
+        <v>0.2728073487533984</v>
       </c>
       <c r="L232" t="n">
-        <v>0.02489417165673669</v>
+        <v>0.06559089760746875</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1293818647962407</v>
+        <v>0.2731646924677086</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03148767853056172</v>
+        <v>0.1043720199722125</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1295245262855696</v>
+        <v>0.2725575550890262</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01236904454122558</v>
+        <v>0.02002290505471536</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06186495123434118</v>
+        <v>0.2729427579921847</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01493495636021634</v>
+        <v>0.02718269398107878</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1317613525145832</v>
+        <v>0.2744409256920415</v>
       </c>
       <c r="L233" t="n">
-        <v>0.02424670019403846</v>
+        <v>0.06463224846949767</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1301566065016074</v>
+        <v>0.2748004091890721</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03163011741657801</v>
+        <v>0.1027609489240278</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1303001222513514</v>
+        <v>0.274189636257224</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01199911086842827</v>
+        <v>0.01873209096710789</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06179535414567907</v>
+        <v>0.2745674172659477</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01453132459602435</v>
+        <v>0.02688127908375054</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1325456462795509</v>
+        <v>0.2760745026306846</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02360205249097638</v>
+        <v>0.06417679300745271</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1309313482069741</v>
+        <v>0.2764361259104356</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03197642343754975</v>
+        <v>0.1013569897959418</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1310757182171333</v>
+        <v>0.2758217174254217</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01164231695811822</v>
+        <v>0.01744928819799141</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06172575705701695</v>
+        <v>0.2761920765397107</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0145285282000352</v>
+        <v>0.0265896280333739</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1333299400445187</v>
+        <v>0.2777080795693277</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02366028640517959</v>
+        <v>0.06304383760012383</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1317060899123408</v>
+        <v>0.2780718426317992</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03162667101338562</v>
+        <v>0.09949042624506554</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1318513141829152</v>
+        <v>0.2774537985936195</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01129904161208005</v>
+        <v>0.01918031244750901</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06165615996835485</v>
+        <v>0.2778167358134737</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01462674091000513</v>
+        <v>0.02631583525384931</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1341142338094864</v>
+        <v>0.2793416565079708</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02342145979427748</v>
+        <v>0.06205268862630106</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1324808316177075</v>
+        <v>0.2797075593531627</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03168093456399462</v>
+        <v>0.09779154192851069</v>
       </c>
       <c r="O236" t="n">
-        <v>0.132626910148697</v>
+        <v>0.2790858797618173</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01096966363209827</v>
+        <v>0.01693097941580379</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06158656287969273</v>
+        <v>0.2794413950872368</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01422613646369032</v>
+        <v>0.02576799516907716</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1348985275744542</v>
+        <v>0.280975233446614</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02298563051589925</v>
+        <v>0.06102265246477442</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1332555733230743</v>
+        <v>0.2813432760745262</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03073928850928559</v>
+        <v>0.0972906205033886</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1334025061144788</v>
+        <v>0.280717960930015</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01065456181995754</v>
+        <v>0.01669998122616006</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06151696579103062</v>
+        <v>0.2810660543609997</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01442688859884701</v>
+        <v>0.0253480976947314</v>
       </c>
       <c r="K238" t="n">
-        <v>0.135682821339422</v>
+        <v>0.282608810385257</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02265285642767412</v>
+        <v>0.06086030189681163</v>
       </c>
       <c r="M238" t="n">
-        <v>0.134030315028441</v>
+        <v>0.2829789927958897</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03170180726916733</v>
+        <v>0.09599297889917524</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1341781020802607</v>
+        <v>0.2823500420982128</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01035411497744232</v>
+        <v>0.01746939546605975</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0614473687023685</v>
+        <v>0.2826907136347627</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01402917105323141</v>
+        <v>0.02503082431965394</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1364671151043897</v>
+        <v>0.2842423873239001</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02202319538723146</v>
+        <v>0.06000563237493778</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1348050567338077</v>
+        <v>0.2846147095172533</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03066856526354877</v>
+        <v>0.0947036829692533</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1349536980460425</v>
+        <v>0.2839821232664105</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01006715513238363</v>
+        <v>0.01623793642450783</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0613777716137064</v>
+        <v>0.2843153729085258</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01423315756459977</v>
+        <v>0.02491234474373326</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1372514088693575</v>
+        <v>0.2858759642625432</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02149670525220049</v>
+        <v>0.05874809114788224</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1355797984391744</v>
+        <v>0.2862504262386168</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0309396369123387</v>
+        <v>0.09290986850212718</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1357292940118244</v>
+        <v>0.2856142044346083</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.009784780442843984</v>
+        <v>0.01800559032389498</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06130817452504428</v>
+        <v>0.2859400321822888</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01403902187070827</v>
+        <v>0.02439263979097904</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1380357026343252</v>
+        <v>0.2875095412011863</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02127344388021049</v>
+        <v>0.0584876324781175</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1363545401445411</v>
+        <v>0.2878861429599803</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03041509663544617</v>
+        <v>0.09231146375469018</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1365048899776063</v>
+        <v>0.2872462856028061</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.009505822936654362</v>
+        <v>0.01577234338661188</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06123857743638217</v>
+        <v>0.2875646914560517</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01394693770931314</v>
+        <v>0.02437169028540084</v>
       </c>
       <c r="K242" t="n">
-        <v>0.138819996399293</v>
+        <v>0.2891431181398295</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02125346912889065</v>
+        <v>0.05772421062811645</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1371292818499078</v>
+        <v>0.2895218596813438</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03109501885277977</v>
+        <v>0.09050839698383556</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1372804859433881</v>
+        <v>0.2888783667710038</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009230661415599264</v>
+        <v>0.01753818183504926</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06116898034772005</v>
+        <v>0.2891893507298148</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0138570788181706</v>
+        <v>0.02374947705100827</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1396042901642607</v>
+        <v>0.2907766950784726</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02123683885587033</v>
+        <v>0.0570577798603516</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1379040235552745</v>
+        <v>0.2911575764027073</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03047947798424849</v>
+        <v>0.08950059644645658</v>
       </c>
       <c r="O243" t="n">
-        <v>0.13805608190917</v>
+        <v>0.2905104479392016</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.008959674681463352</v>
+        <v>0.0163030918915978</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06109938325905794</v>
+        <v>0.2908140100035778</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01356961893503687</v>
+        <v>0.02352598091181095</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1403885839292285</v>
+        <v>0.2924102720171157</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02052361091877875</v>
+        <v>0.05638829443729576</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1386787652606412</v>
+        <v>0.2927932931240709</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03016854844976125</v>
+        <v>0.08868799039944641</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1388316778749518</v>
+        <v>0.2921425291073994</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.008693241536031092</v>
+        <v>0.01706705977864819</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06102978617039582</v>
+        <v>0.2924386692773407</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01378473179766815</v>
+        <v>0.02340118269181851</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1411728776941963</v>
+        <v>0.2940438489557588</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0206138431752452</v>
+        <v>0.05501570862142155</v>
       </c>
       <c r="M245" t="n">
-        <v>0.139453506966008</v>
+        <v>0.2944290098454344</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03056230466922683</v>
+        <v>0.08687050709969868</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1396072738407337</v>
+        <v>0.2937746102755971</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008431740781087139</v>
+        <v>0.01683007171859112</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06096018908173371</v>
+        <v>0.2940633285511037</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01370259114382068</v>
+        <v>0.02277506321504055</v>
       </c>
       <c r="K246" t="n">
-        <v>0.141957171459164</v>
+        <v>0.2956774258944019</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01980759348289893</v>
+        <v>0.05413997667520173</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1402282486713747</v>
+        <v>0.2960647265667979</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03006082106255409</v>
+        <v>0.08544807480410632</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1403828698065155</v>
+        <v>0.2954066914437949</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.00817555121841599</v>
+        <v>0.01659211393381729</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0608905919930716</v>
+        <v>0.2956879878248668</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01362337071125067</v>
+        <v>0.02244760330548667</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1427414652241318</v>
+        <v>0.297311002833045</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01980491969936921</v>
+        <v>0.053661052861109</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1410029903767414</v>
+        <v>0.2977004432881614</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03056417204965189</v>
+        <v>0.08462062176956275</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1411584657722974</v>
+        <v>0.2970387726119926</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.007925051649802256</v>
+        <v>0.01435317264671741</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06082099490440948</v>
+        <v>0.2973126470986298</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01334724423771431</v>
+        <v>0.02241878378716647</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1435257589890995</v>
+        <v>0.2989445797716881</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01950587968228532</v>
+        <v>0.05297889144161602</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1417777320821081</v>
+        <v>0.299336160009525</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02947243205042921</v>
+        <v>0.08358807625296116</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1419340617380792</v>
+        <v>0.2986708537801904</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.007680620877030545</v>
+        <v>0.01611323407968215</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06075139781574737</v>
+        <v>0.2989373063723927</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01317438546096787</v>
+        <v>0.02188858548408959</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1443100527540673</v>
+        <v>0.3005781567103312</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01911053128927651</v>
+        <v>0.05239344667919557</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1425524737874748</v>
+        <v>0.3009718767308885</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02978567548479477</v>
+        <v>0.08215036651119495</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1427096577038611</v>
+        <v>0.3003029349483882</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007442637701885343</v>
+        <v>0.01487228445510223</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06068180072708525</v>
+        <v>0.3005619656461558</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01330496811876752</v>
+        <v>0.02155698922026561</v>
       </c>
       <c r="K250" t="n">
-        <v>0.145094346519035</v>
+        <v>0.3022117336489743</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01911893237797202</v>
+        <v>0.05170467283632019</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1433272154928415</v>
+        <v>0.302607593452252</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02970397677265746</v>
+        <v>0.08140742080115737</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1434852536696429</v>
+        <v>0.3019350161165859</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007211480926151315</v>
+        <v>0.01563030999536831</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06061220363842314</v>
+        <v>0.3021866249199188</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01313916594886951</v>
+        <v>0.02132397581970417</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1458786402840028</v>
+        <v>0.3038453105876174</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01823114080600119</v>
+        <v>0.05071252417546274</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1441019571982082</v>
+        <v>0.3042433101736156</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02982741033392611</v>
+        <v>0.07995916737974157</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1442608496354248</v>
+        <v>0.3035670972847837</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.006987529351612926</v>
+        <v>0.01338729692287112</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06054260654976103</v>
+        <v>0.3038112841936818</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01307715268903004</v>
+        <v>0.02098952610641487</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1466629340489705</v>
+        <v>0.3054788875262605</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0184472144309932</v>
+        <v>0.04951695495909586</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1448766989035749</v>
+        <v>0.3058790268949791</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02935605058850965</v>
+        <v>0.07810553450384106</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1450364456012067</v>
+        <v>0.3051991784529814</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006771161780054845</v>
+        <v>0.01314323146000133</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06047300946109892</v>
+        <v>0.3054359434674448</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01321910207700533</v>
+        <v>0.02045362090440733</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1474472278139383</v>
+        <v>0.3071124644649036</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01826721111057739</v>
+        <v>0.04861791944969224</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1456514406089416</v>
+        <v>0.3075147436163426</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02998997195631697</v>
+        <v>0.07694645043034898</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1458120415669885</v>
+        <v>0.3068312596211792</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006562757013261561</v>
+        <v>0.01389809982914965</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0604034123724368</v>
+        <v>0.3070606027412078</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01306518785055161</v>
+        <v>0.02031624103769113</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1482315215789061</v>
+        <v>0.3087460414035467</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01799118870238298</v>
+        <v>0.04851537190972458</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1464261823143084</v>
+        <v>0.3091504603377061</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02912924885725682</v>
+        <v>0.07578184341615857</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1465876375327704</v>
+        <v>0.308463340789377</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006362693853017708</v>
+        <v>0.01365188825270676</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0603338152837747</v>
+        <v>0.3086852620149708</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01291558374742506</v>
+        <v>0.0198773673302759</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1490158153438738</v>
+        <v>0.3103796183421898</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01731920506403928</v>
+        <v>0.04720926660166558</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1472009240196751</v>
+        <v>0.3107861770590696</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02937395571123819</v>
+        <v>0.0751116417181632</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1473632334985522</v>
+        <v>0.3100954219575747</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006171351101107794</v>
+        <v>0.01440458295306337</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06026421819511257</v>
+        <v>0.3103099212887338</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01307046350538195</v>
+        <v>0.01943698060617126</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1498001091088416</v>
+        <v>0.3120131952808329</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01675131805317548</v>
+        <v>0.04669955778798796</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1479756657250418</v>
+        <v>0.3124218937804332</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02942416693816979</v>
+        <v>0.07393577359325609</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1481388294643341</v>
+        <v>0.3117275031257725</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.005989107559316448</v>
+        <v>0.01315617015261016</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06019462110645047</v>
+        <v>0.3119345805624968</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01273000086217846</v>
+        <v>0.01919506168938677</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1505844028738093</v>
+        <v>0.3136467722194761</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01658758552742096</v>
+        <v>0.04558619973116435</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1487504074304085</v>
+        <v>0.3140576105017967</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02947995695796057</v>
+        <v>0.07205416729833064</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1489144254301159</v>
+        <v>0.3133595842939703</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005816342029428191</v>
+        <v>0.01390663607373785</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06012502401778835</v>
+        <v>0.3135592398362598</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0128943695555708</v>
+        <v>0.01905159140393212</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1513686966387771</v>
+        <v>0.3152803491581191</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01672806534440485</v>
+        <v>0.04476914669366755</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1495251491357752</v>
+        <v>0.3156933272231602</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0299414001905195</v>
+        <v>0.07096675109027989</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1496900213958978</v>
+        <v>0.314991665462168</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005653433313227652</v>
+        <v>0.0116559669388371</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06005542692912624</v>
+        <v>0.3151838991100228</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01286374332331523</v>
+        <v>0.01860655057381687</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1521529904037449</v>
+        <v>0.3169139260967622</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01667281536175652</v>
+        <v>0.04404835293797016</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1502998908411419</v>
+        <v>0.3173290439445237</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02920857105575525</v>
+        <v>0.06947345322599735</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1504656173616796</v>
+        <v>0.3166237466303658</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005500760212499324</v>
+        <v>0.01140414897029862</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05998582984046413</v>
+        <v>0.3168085583837859</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01283829590316794</v>
+        <v>0.01835992002305065</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1529372841687126</v>
+        <v>0.3185475030354054</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01592189343710518</v>
+        <v>0.043323772726545</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1510746325465086</v>
+        <v>0.3189647606658872</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02928154397357668</v>
+        <v>0.06777420196237621</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1512412133274615</v>
+        <v>0.3182558277985635</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.00535870152902785</v>
+        <v>0.01315116839051313</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05991623275180202</v>
+        <v>0.3184332176575488</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01281820103288514</v>
+        <v>0.01801168057564305</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1537215779336804</v>
+        <v>0.3201810799740484</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01567535742808016</v>
+        <v>0.04259536032186462</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1518493742518753</v>
+        <v>0.3206004773872508</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02896039336389283</v>
+        <v>0.06706892555630972</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1520168092932433</v>
+        <v>0.3198879089667613</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005227636064597738</v>
+        <v>0.01189701142187128</v>
       </c>
       <c r="G262" t="n">
-        <v>0.0598466356631399</v>
+        <v>0.3200578769313118</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01260363245022308</v>
+        <v>0.01736181305560369</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1545058716986481</v>
+        <v>0.3218146569126916</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01553326519231066</v>
+        <v>0.04146306998640184</v>
       </c>
       <c r="M262" t="n">
-        <v>0.152624115957242</v>
+        <v>0.3222361941086143</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02894519364661235</v>
+        <v>0.06625755226469127</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1527924052590252</v>
+        <v>0.3215199901349591</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005107942620993615</v>
+        <v>0.01064166428676379</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05977703857447779</v>
+        <v>0.3216825362050749</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01269476389293793</v>
+        <v>0.01711029828694219</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1552901654636159</v>
+        <v>0.3234482338513346</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01569567458742599</v>
+        <v>0.04112685598262933</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1533988576626087</v>
+        <v>0.3238719108299778</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02953601924164428</v>
+        <v>0.06494001034441399</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1535680012248071</v>
+        <v>0.3231520713031568</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01038511320758135</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05970744148581567</v>
+        <v>0.3233071954788378</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01289176909878596</v>
+        <v>0.01665711709366816</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1560744592285837</v>
+        <v>0.3250818107899778</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01486264347105537</v>
+        <v>0.0398866725730197</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1541735993679755</v>
+        <v>0.3255076275513414</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02883294456889735</v>
+        <v>0.06321622805237126</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1543435971905889</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05969428359107883</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005579915647700315</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05969455211954284</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006156283067867585</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05969482064800685</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006729055829085187</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05969508917647088</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007298187499861809</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05969535770493489</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.007863631648780976</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05969562623339891</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008425341844401218</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05969589476186293</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.008983271655305283</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05969616329032695</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009537374650003129</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05969643181879097</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01008760439707765</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05969670034725498</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01063391446508739</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05969696887571899</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01117625842261439</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05969723740418302</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01171458983816998</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05969750593264703</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01224886228033639</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05969777446111105</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01277902931767212</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05969804298957506</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01330504451875855</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05969831151803909</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.0138268614521084</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0596985800465031</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01434443368630319</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05969884857496712</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01485771478990146</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05969911710343113</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01536665833148379</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05969938563189516</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01587121787956441</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05969965416035918</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01637134700272411</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05969992268882319</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01686699926952141</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0597001912172872</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01735812824853612</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05970045974575123</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01784468750828404</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05970072827421524</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01832682021239783</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05970099680267926</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01880561749975198</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05970126533114327</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.01928122253397829</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0597015338596073</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.01975358888359389</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05970180238807131</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.0202226701171781</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05970207091653532</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02068841980328942</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05970233944499934</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02115079151050647</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05970260797346336</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.0216097388073475</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05970287650192738</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02206521526239128</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0597031450303914</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02251717444419633</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05970341355885541</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02296556992134057</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05970368208731944</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02341035526234359</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05970395061578345</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02385148403578344</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05970421914424746</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.0242889098102187</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05970448767271148</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02472258615422666</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.0597047562011755</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02515246663632813</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05970502472963952</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02557850482510059</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05970529325810353</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02600065428910258</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05970556178656755</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02641886859691073</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05970583031503157</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02683310131704721</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05970609884349559</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.0272433060180888</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05970636737195961</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02764943626859403</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05970663590042362</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02805144563713887</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05970690442888765</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02844928769224685</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05970717295735166</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.02884291600249408</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05970744148581567</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.02884291600249408</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05969428359107883</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.02924925297325493</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05976441773666898</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.02965145729690023</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05983455188225912</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03004938887897157</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05990468602784927</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03044290762501056</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05997482017343941</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03083187344055877</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06004495431902956</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03121614623115784</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06011508846461971</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03159558590234932</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06018522261020986</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03197005235967484</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06025535675580001</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03233940550867598</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06032549090139015</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03270350525489434</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.0603956250469803</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03306221150387153</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06046575919257045</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03341538416114912</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.0605358933381606</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03376288313226872</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06060602748375075</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03410456832277194</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06067616162934089</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03444029963820035</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06074629577493104</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03476993698409559</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06081642992052119</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.0350933402659992</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06088656406611134</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03541036938945281</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06095669821170149</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03572088425999802</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06102683235729163</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03602474478317642</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06109696650288178</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.0363218108645296</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06116710064847192</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03661194240959916</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06123723479406207</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.0368949993239267</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06130736893965222</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03717084151305385</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06137750308524238</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.0374399009348939</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06144763723083252</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.03770546980921952</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06151777137642268</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.03796798009394397</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06158790552201282</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.03822729169460886</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06165803966760297</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.03848326451675583</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06172817381319312</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.03873575846592648</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06179830795878326</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.03898463344766238</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06186844210437342</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.03922974936750512</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06193857624996356</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.03947096613099633</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06200871039555371</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.03970814364367758</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06207884454114385</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.03994114181109047</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.062148978686734</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04016982053877664</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06221911283232415</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04039403973227761</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0622892469779143</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04061365929713504</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06235938112350445</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04082853913889049</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06242951526909459</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04103853916308556</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06249964941468474</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04124351927526187</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06256978356027489</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04144333938096103</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06263991770586504</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04163785938572457</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06271005185145519</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04182693919509414</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06278018599704534</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04201043871461133</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06285032014263547</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04218821784981771</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06292045428822562</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04236013650625491</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06299058843381578</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04252605458946453</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06306072257940593</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04268583200498813</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06313085672499608</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.0347905546699921</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06313085672499608</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04290535950802251</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06486610286068897</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04310820480943308</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06660134899638187</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04329502713895565</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06833659513207477</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04346648572632609</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07007184126776766</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04362323980128021</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07180708740346058</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04376594859355391</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07354233353915347</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04389527133288294</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07527757967484637</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04401186724900318</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07701282581053927</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04411639557165049</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07874807194623216</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04420951553056066</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08048331808192506</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04429188635546957</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08221856421761797</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04436416727611302</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08395381035331087</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04442701752222689</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08568905648900377</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04448109632354699</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08742430262469666</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04452706290980914</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08915954876038956</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04456557651074921</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09089479489608246</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04459729635610304</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09263004103177536</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04462288167560646</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09436528716746825</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04464299169899528</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09610053330316116</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04465828565600536</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09783577943885406</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04466942277637254</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09957102557454696</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04467706228983267</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1013062717102399</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04468186342612155</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1030415178459328</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04468448541497504</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1047767639816257</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.044685587486129</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1065120101173186</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04468582886931922</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1082472562530115</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04466616757897835</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1099825023887044</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0445714379604298</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1117177485243973</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04440336519125571</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1134529946600902</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04416756725487792</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1151882407957831</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04386966213471822</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.116923486931476</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04351526781419845</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1186587330671689</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04311000227674045</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1203939792028618</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04265948350576603</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1221292253385547</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04216932948469703</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1238644714742476</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04164515819695527</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1255997176099405</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04109258762596258</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1273349637456334</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04051723575514076</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1290702098813263</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.03992472056791167</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1308054560170192</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.03932066004769714</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.132540702152712</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.03871067217791895</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.134275948288405</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.03810037494199898</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1360111944240978</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.03749538632335903</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1377464405597908</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.03690132430542092</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1394816866954836</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.03632380687160649</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1412169328311766</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.03576845200533756</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1429521789668694</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.03524087769003597</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1446874251025624</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03474670190912352</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1464226712382553</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03429154264602204</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1481579173739482</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03388101788415338</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03349372658347902</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.151628409645334</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03309874256560915</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1533636557810269</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03269752760031858</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1550989019167198</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03229165038735953</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1568341480524127</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03188267962648413</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1585693941881056</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03147218401744457</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1603046403237985</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03106173225999299</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1620398864594914</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.0306528930538816</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1637751325951843</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03024723509886253</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1655103787308772</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.02984632709468795</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1672456248665701</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.02945173774111006</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1689808710022629</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.02906503573788097</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1707161171379559</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.02868778978475293</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1724513632736487</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.02832156858147803</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1741866094093417</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.02796794082780846</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1759218555450345</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.02762847522349641</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1776571016807275</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.02730474046829402</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1793923478164203</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.02699830526195347</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1811275939521133</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.02671073830422693</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1828628400878061</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.02644360829486655</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.184598086223499</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.02619848393362453</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1863333323591919</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.025976933920253</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1880685784948849</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.02578052695450416</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1898038246305777</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.02561083173613014</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1915390707662707</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.02546941696488313</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1932743169019636</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.02535724167612004</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1950095630376565</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.02525606335717264</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1967448091733494</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02515691745286035</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1984800553090423</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02506003324915008</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2002153014447352</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02496564003200868</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.201950547580428</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02487396708740303</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.203685793716121</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02478524370130007</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2054210398518138</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.0246996991596666</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2071562859875068</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02461756274846954</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2088915321231996</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02453906375367577</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2106267782588926</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02446443146125215</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2123620243945854</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02439389515716558</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2140972705302784</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02432768412738292</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2158325166659712</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02426602765787107</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2175677628016641</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02420915503459691</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.219303008937357</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02415729554352731</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2210382550730499</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02411067847062916</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2227735012087428</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02406953310186933</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2245087473444357</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.0240340887232147</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2262439934801286</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02400457462063214</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2279792396158216</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02398122008008855</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2297144857515144</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02396425438755079</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2314497318872074</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.02395390682898576</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2331849780229003</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02395040669036034</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2349202241585931</v>
-      </c>
-    </row>
+        <v>0.3247841524713546</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1244.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004054027458287049</v>
+        <v>0.001285536189864864</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001624659273763004</v>
+        <v>0.0004890402723392663</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003915428667633884</v>
+        <v>0.002062205119067059</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001633576938643104</v>
+        <v>0.0008452994288911656</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01086978691769802</v>
+        <v>0.006732439386315903</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001635716721363524</v>
+        <v>0.0008298016818865784</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0263587325743927</v>
+        <v>0.009560770062880308</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002324709931594166</v>
+        <v>0.0008321405501060452</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.002532077446010222</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002814995653862453</v>
+        <v>0.0009780805446785326</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004215910533850099</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003406534090909087</v>
+        <v>0.001690598857782331</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01669237018878494</v>
+        <v>0.01294046501659074</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002632552227137524</v>
+        <v>0.001659603363773157</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03207893252742544</v>
+        <v>0.01928340524155292</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003264162336395524</v>
+        <v>0.00166428110021209</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00850630809564247</v>
+        <v>0.003700628834716599</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004873977821289013</v>
+        <v>0.001467120817017799</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009470397855666918</v>
+        <v>0.005927693825341557</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004900730815929314</v>
+        <v>0.002535898286673497</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0241407220396799</v>
+        <v>0.01923251347838267</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004907150164090573</v>
+        <v>0.002696140445184327</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04025566064181646</v>
+        <v>0.03094285997863494</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004896243504593285</v>
+        <v>0.00289781188694011</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009863462572118696</v>
+        <v>0.004752195422264474</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006498637095052016</v>
+        <v>0.001956161089357065</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01141081581342331</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006534307754572417</v>
+        <v>0.003406534090909087</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0277685739348946</v>
+        <v>0.02172660743162372</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006542866885454098</v>
+        <v>0.003319206727546313</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0465175405745471</v>
+        <v>0.03364515462059825</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006528324672791047</v>
+        <v>0.003328562200424181</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.005647782274934371</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008444986961587358</v>
+        <v>0.002445201361696332</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01344876452738433</v>
+        <v>0.00859067357788066</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008167884693215522</v>
+        <v>0.004226497144455828</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0310128422045613</v>
+        <v>0.02477509437675673</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008178583606817622</v>
+        <v>0.004149008409432892</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05107049530884894</v>
+        <v>0.03802933894623556</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008160405840988809</v>
+        <v>0.004160702750530226</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01093596454392445</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009747955642578026</v>
+        <v>0.002814995653862453</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01527393000690699</v>
+        <v>0.009395856506651437</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01021960227272726</v>
+        <v>0.005071796573346994</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03437802614403526</v>
+        <v>0.02733331467374048</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009814300328181147</v>
+        <v>0.00497881009131947</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05730159255302764</v>
+        <v>0.04180965172839168</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00992194395410414</v>
+        <v>0.004992843300636271</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01087656344323699</v>
+        <v>0.006980779498619333</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01137261491634103</v>
+        <v>0.003423281906374864</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0161439837521342</v>
+        <v>0.01019843290594107</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01143503857050173</v>
+        <v>0.005917096002238159</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0362877612799673</v>
+        <v>0.02988184871938257</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0106454190340909</v>
+        <v>0.005808611773206049</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0613916242243519</v>
+        <v>0.04510855519993046</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01142456817738433</v>
+        <v>0.005824983850742317</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01177808669667545</v>
+        <v>0.007578104110279461</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01299727419010403</v>
+        <v>0.00391232217871413</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01741485014978157</v>
+        <v>0.01121698720615961</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01306861550914483</v>
+        <v>0.006762395431129325</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04038695693206484</v>
+        <v>0.03130127691049045</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0130857337709082</v>
+        <v>0.006638413455092627</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06615427105493538</v>
+        <v>0.04874851159371607</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01305664934558209</v>
+        <v>0.006657124400848362</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01263701291246273</v>
+        <v>0.008143158167548056</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01462193346386704</v>
+        <v>0.004401362451053398</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01864212121777958</v>
+        <v>0.01207010383771719</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01470219244778794</v>
+        <v>0.007607694860020491</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04306433432730822</v>
+        <v>0.03377217964387169</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01472145049227172</v>
+        <v>0.007468215136979204</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07037928660019038</v>
+        <v>0.0514519831426124</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01468873051377986</v>
+        <v>0.007489264950954407</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0144498206988217</v>
+        <v>0.008672716501688799</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01624659273763004</v>
+        <v>0.004890402723392664</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01971939581870176</v>
+        <v>0.01247636723102382</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01633576938643104</v>
+        <v>0.008452994288911657</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04636020153710285</v>
+        <v>0.0362877612799673</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01635716721363524</v>
+        <v>0.008478429072906685</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07453825260537705</v>
+        <v>0.05514143207948369</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01632081168197762</v>
+        <v>0.008321405501060452</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01521298866397528</v>
+        <v>0.009163553943965334</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01787125201139305</v>
+        <v>0.00537944299573193</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02084027281512152</v>
+        <v>0.01325436181648963</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01796934632507415</v>
+        <v>0.009298293717802822</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04845373355536234</v>
+        <v>0.03738622316569398</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01799288393499877</v>
+        <v>0.009127818500752361</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07840275081575504</v>
+        <v>0.05730159255302764</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01795289285017538</v>
+        <v>0.008943863848580577</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01592299541614633</v>
+        <v>0.009612445325641331</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01949591128515605</v>
+        <v>0.005868483268071195</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02199835106961237</v>
+        <v>0.01392267202452471</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01960292326371725</v>
+        <v>0.01014359314669399</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0514241053760002</v>
+        <v>0.03912872764606853</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01962860065636229</v>
+        <v>0.009957620182638939</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08304436297658435</v>
+        <v>0.06040483027955923</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01958497401837314</v>
+        <v>0.009985686601272543</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01757631956355776</v>
+        <v>0.01001616547798047</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02112057055891906</v>
+        <v>0.006357523540410462</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02278722944474777</v>
+        <v>0.0146998822855391</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02123650020236036</v>
+        <v>0.01098889257558515</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05385049199293004</v>
+        <v>0.04119403791104598</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02126431737772582</v>
+        <v>0.01078742186452552</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08673467083312497</v>
+        <v>0.06332918125198694</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0212170551865709</v>
+        <v>0.01081782715137859</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01716943971443245</v>
+        <v>0.01037148923224641</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02274522983268206</v>
+        <v>0.006846563812749729</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02370050680310115</v>
+        <v>0.01527393000690699</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02287007714100346</v>
+        <v>0.01156248072681956</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05591206840006535</v>
+        <v>0.04307318348211378</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02290003409908934</v>
+        <v>0.0116172235464121</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09044525613063659</v>
+        <v>0.0662960837601303</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02284913635476866</v>
+        <v>0.01164996770148463</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01669883447699329</v>
+        <v>0.01067519141970281</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02436988910644506</v>
+        <v>0.007335604085088996</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02463178200724599</v>
+        <v>0.01624066281481153</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02450365407964656</v>
+        <v>0.01267949143336748</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05768800959131981</v>
+        <v>0.04525719388075922</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02453575082045287</v>
+        <v>0.01244702522829868</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09264770061437916</v>
+        <v>0.07009035475709174</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02448121752296643</v>
+        <v>0.01248210825159068</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01916098245946318</v>
+        <v>0.01092404687161334</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02599454838020807</v>
+        <v>0.007824644357428261</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0254746539197558</v>
+        <v>0.01670427689982198</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02613723101828967</v>
+        <v>0.01352479086225865</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05975749056060684</v>
+        <v>0.04723709862846981</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02617146754181639</v>
+        <v>0.01327682691018525</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09571358602961266</v>
+        <v>0.07309681119597344</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02611329869116419</v>
+        <v>0.01331424880169672</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01755236227006499</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02761920765397107</v>
+        <v>0.008444986961587358</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02602272140320401</v>
+        <v>0.01768995774259248</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02777080795693277</v>
+        <v>0.01437009029114982</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06129968630184007</v>
+        <v>0.04900392724673289</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02780718426317992</v>
+        <v>0.01410662859207183</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09841449412159681</v>
+        <v>0.07590027002987759</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02774537985936195</v>
+        <v>0.01414638935180277</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01786945251702163</v>
+        <v>0.0112606132670052</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02924386692773407</v>
+        <v>0.008802724902106795</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02646958332016408</v>
+        <v>0.01839270616988248</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02940438489557588</v>
+        <v>0.01521538972004098</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06329377180893297</v>
+        <v>0.05154870925703578</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02944290098454344</v>
+        <v>0.01493643027395841</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1000220066355917</v>
+        <v>0.07888554821190658</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02937746102755971</v>
+        <v>0.01497852990190881</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02013554097998021</v>
+        <v>0.01140220232622028</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03086852620149708</v>
+        <v>0.00929176517444606</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02710883853320949</v>
+        <v>0.01910752300845137</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03103796183421898</v>
+        <v>0.01606068914893215</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06411892207579922</v>
+        <v>0.05316247418086598</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03107861770590696</v>
+        <v>0.01576623195584499</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1015079539718802</v>
+        <v>0.08143746269516255</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03100954219575747</v>
+        <v>0.01581067045201486</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01839361714355776</v>
+        <v>0.01154176095828065</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03249318547526009</v>
+        <v>0.009780805446785328</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02747490827668202</v>
+        <v>0.02012940908505849</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03267153877286209</v>
+        <v>0.01690598857782331</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06511092498418586</v>
+        <v>0.05483625153971075</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03271433442727049</v>
+        <v>0.01659603363773157</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1036710297924802</v>
+        <v>0.08534083043274782</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03264162336395524</v>
+        <v>0.0166428110021209</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01864271658699797</v>
+        <v>0.01167929599489424</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03411784474902309</v>
+        <v>0.01026984571912459</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02762996584350476</v>
+        <v>0.02075336522646327</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03430511571150519</v>
+        <v>0.01775128800671448</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06606170095002048</v>
+        <v>0.05716107085505759</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03435005114863401</v>
+        <v>0.01742583531961815</v>
       </c>
       <c r="N86" t="n">
-        <v>0.103894805945116</v>
+        <v>0.08798046837776458</v>
       </c>
       <c r="O86" t="n">
-        <v>0.034273704532153</v>
+        <v>0.01747495155222695</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02088113322870846</v>
+        <v>0.01181481426776895</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03574250402278609</v>
+        <v>0.01075888599146386</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02827254337045763</v>
+        <v>0.02157439225942509</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03593869265014829</v>
+        <v>0.01859658743560564</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06638406794835658</v>
+        <v>0.0585279616483938</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03598576786999754</v>
+        <v>0.01825563700150472</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1061703984796738</v>
+        <v>0.09024119348331516</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03590578570035076</v>
+        <v>0.01830709210233299</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02010716098709685</v>
+        <v>0.01194832260861273</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03736716329654909</v>
+        <v>0.01124792626380313</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02860026629432769</v>
+        <v>0.02238749101070334</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0375722695887914</v>
+        <v>0.01944188686449681</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06707236230041794</v>
+        <v>0.06012795344120683</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03762148459136106</v>
+        <v>0.0190854386833913</v>
       </c>
       <c r="N88" t="n">
-        <v>0.10688892344604</v>
+        <v>0.09410782270250179</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03753786686854852</v>
+        <v>0.01913923265243904</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02031909378057074</v>
+        <v>0.01207982784913349</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03899182257031211</v>
+        <v>0.01173696653614239</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02871076005190194</v>
+        <v>0.02318766230705742</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03920584652743451</v>
+        <v>0.02028718629338798</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06822092032742846</v>
+        <v>0.061852075754984</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03925720131272459</v>
+        <v>0.01991524036527788</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1082414968941006</v>
+        <v>0.09626517298842674</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03916994803674628</v>
+        <v>0.01997137320254509</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02151522552753776</v>
+        <v>0.01220933682103915</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0406164818440751</v>
+        <v>0.01222600680848166</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02890165007996748</v>
+        <v>0.0242699069752467</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04083942346607761</v>
+        <v>0.02113248572227914</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06902407835061181</v>
+        <v>0.06319135811121279</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04089291803408811</v>
+        <v>0.02074504204716446</v>
       </c>
       <c r="N90" t="n">
-        <v>0.109519234873742</v>
+        <v>0.09889806129419221</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04080202920494404</v>
+        <v>0.02080351375265113</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01969385014640556</v>
+        <v>0.01233685635603764</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04224114111783811</v>
+        <v>0.01271504708082092</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02927056181531129</v>
+        <v>0.02472922584203059</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04247300040472071</v>
+        <v>0.02197778515117031</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06917617269119186</v>
+        <v>0.06473683003138048</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04252863475545163</v>
+        <v>0.02157484372905104</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1098132534348507</v>
+        <v>0.1007913045729005</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04243411037314181</v>
+        <v>0.02163565430275717</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02085326155558171</v>
+        <v>0.0124623932858369</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04386580039160112</v>
+        <v>0.01320408735316019</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02971512069472042</v>
+        <v>0.02546061973416848</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04410657734336382</v>
+        <v>0.02282308458006147</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07007153967039245</v>
+        <v>0.06587952103697453</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04416435147681516</v>
+        <v>0.02240464541093761</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1113146686273126</v>
+        <v>0.1035297197776539</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04406619154133957</v>
+        <v>0.02246779485286322</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02199175367347384</v>
+        <v>0.01258595444214483</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04549045966536411</v>
+        <v>0.01369312762549946</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02983295215498188</v>
+        <v>0.02625908947841973</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04574015428200692</v>
+        <v>0.02366838400895264</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07050451560943732</v>
+        <v>0.06781046064948229</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04580006819817868</v>
+        <v>0.02323444709282419</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1117145965010143</v>
+        <v>0.1050981238615546</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04569827270953733</v>
+        <v>0.02329993540296927</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02110762041848962</v>
+        <v>0.01270754665666936</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04711511893912712</v>
+        <v>0.01418216789783872</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03002168163288275</v>
+        <v>0.02711963590154379</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04737373122065002</v>
+        <v>0.0245136834378438</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07136943682955033</v>
+        <v>0.06882067839039119</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04743578491954221</v>
+        <v>0.02406424877471077</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1122041531058418</v>
+        <v>0.1068813337777048</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04733035387773509</v>
+        <v>0.02413207595307531</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0201991557090366</v>
+        <v>0.01282717676111842</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04873977821289013</v>
+        <v>0.01467120817017799</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03017893456521004</v>
+        <v>0.0275372598303</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04900730815929313</v>
+        <v>0.02535898286673497</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07126063965195523</v>
+        <v>0.06960120378118853</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04907150164090573</v>
+        <v>0.02489405045659735</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1136744544916815</v>
+        <v>0.108964166479207</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04896243504593285</v>
+        <v>0.02496421650318136</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02126465346352244</v>
+        <v>0.01294485158719993</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05036443748665313</v>
+        <v>0.01516024844251725</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03020233638875076</v>
+        <v>0.02800696209144779</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05064088509793623</v>
+        <v>0.02620428229562613</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07207246039787576</v>
+        <v>0.07004306634336174</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05070721836226926</v>
+        <v>0.02572385213848393</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1137166167084196</v>
+        <v>0.1105314389191631</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05059451621413062</v>
+        <v>0.0257963570532874</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02231149920299288</v>
+        <v>0.01306057796662182</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05198909676041613</v>
+        <v>0.01564928871485652</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03048951254029196</v>
+        <v>0.02872374351174652</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05227446203657934</v>
+        <v>0.0270495817245173</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07169923538853584</v>
+        <v>0.07083729559839827</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05234293508363278</v>
+        <v>0.02655365382037051</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1140217558059424</v>
+        <v>0.1119679680506756</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05222659738232838</v>
+        <v>0.02662849760339345</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02031111671429871</v>
+        <v>0.01317436273109201</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05361375603417914</v>
+        <v>0.01613832898719579</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03054786001381399</v>
+        <v>0.02928260491795558</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05390803897522244</v>
+        <v>0.02789488115340846</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07257552255993463</v>
+        <v>0.07177492106778538</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0539786518049963</v>
+        <v>0.02738345550225709</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1146031851060553</v>
+        <v>0.1123585708268468</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05385867855052614</v>
+        <v>0.02746063815349949</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02230044582360603</v>
+        <v>0.01328621271231843</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05523841530794214</v>
+        <v>0.01662736925953505</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03024680919310228</v>
+        <v>0.02947854713683437</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05554161591386555</v>
+        <v>0.02874018058229963</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07247526421616476</v>
+        <v>0.07194697227301056</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05561436852635984</v>
+        <v>0.02821325718414366</v>
       </c>
       <c r="N99" t="n">
-        <v>0.113994638363658</v>
+        <v>0.1135880642007788</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0554907597187239</v>
+        <v>0.02829277870360554</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02227579534283865</v>
+        <v>0.01339613474200899</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05686307458170514</v>
+        <v>0.01711640953187432</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03053019712669901</v>
+        <v>0.02980657099514229</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05717519285250865</v>
+        <v>0.0295854800111908</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07244599128291559</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05725008524772336</v>
+        <v>0.02904305886603024</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1136212186931451</v>
+        <v>0.1142412651255739</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05712284088692166</v>
+        <v>0.02912491925371158</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02123806442619646</v>
+        <v>0.01350413565187162</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05848773385546815</v>
+        <v>0.01760544980421359</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03039435839497011</v>
+        <v>0.02996167731963875</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05880876979115175</v>
+        <v>0.03043077944008197</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07177027956450521</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05888580196908687</v>
+        <v>0.02987286054791682</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1137765041333126</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05875492205511942</v>
+        <v>0.02995705980381763</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02018815222787929</v>
+        <v>0.01361022227361425</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06011239312923116</v>
+        <v>0.01809449007655286</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03024054446120746</v>
+        <v>0.03023886693708309</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06044234672979485</v>
+        <v>0.03127607886897313</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07165111398298021</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0605215186904504</v>
+        <v>0.0307026622298034</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1139651767820692</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06038700322331719</v>
+        <v>0.03078920035392367</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02012695790208701</v>
+        <v>0.01371440143894481</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06173705240299415</v>
+        <v>0.01858353034889212</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03017000678870287</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06207592366843797</v>
+        <v>0.03212137829786429</v>
       </c>
       <c r="L103" t="n">
-        <v>0.071791479460387</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06215723541181393</v>
+        <v>0.03153246391168998</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1132919187373237</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06201908439151495</v>
+        <v>0.03162134090402972</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02205538060301943</v>
+        <v>0.01381667997957119</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06336171167675717</v>
+        <v>0.01907257062123139</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02998399684074819</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06370950060708107</v>
+        <v>0.03296667772675546</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07189436091877216</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06379295213317744</v>
+        <v>0.03236226559357656</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1125614120969852</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0636511655597127</v>
+        <v>0.03245348145413576</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01997431948487643</v>
+        <v>0.01391706472720137</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06498637095052018</v>
+        <v>0.01956161089357066</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03018376608063525</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06534307754572417</v>
+        <v>0.03381197715564663</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07136274328018205</v>
+        <v>0.07247552255993464</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06542866885454098</v>
+        <v>0.03319206727546314</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1127783389589624</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06528324672791047</v>
+        <v>0.03328562200424181</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02088467370185786</v>
+        <v>0.01401556251354322</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06661103022428316</v>
+        <v>0.02005065116590992</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02977056597165592</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06697665448436728</v>
+        <v>0.03465727658453779</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07149961146666331</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06706438557590451</v>
+        <v>0.03402186895734971</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1120473814211643</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06691532789610823</v>
+        <v>0.03411776255434786</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02178734240816355</v>
+        <v>0.0141121801703047</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06823568949804618</v>
+        <v>0.02053969143824919</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02994564797710199</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06861023142301038</v>
+        <v>0.03550257601342896</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07110795040026241</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06870010229726803</v>
+        <v>0.03485167063923629</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1122732215814994</v>
+        <v>0.1141031851060553</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06854740906430599</v>
+        <v>0.0349499031044539</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01968322475799338</v>
+        <v>0.01420692452919373</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06986034877180919</v>
+        <v>0.02102873171058845</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02981026356026532</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07024380836165349</v>
+        <v>0.03634787544232012</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07059074500302576</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07033581901863155</v>
+        <v>0.03568147232112287</v>
       </c>
       <c r="N108" t="n">
-        <v>0.111460541537877</v>
+        <v>0.1141031851060553</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07017949023250375</v>
+        <v>0.03578204365455994</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01957321990554716</v>
+        <v>0.01429980242191821</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07148500804557219</v>
+        <v>0.02151777198292772</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02936566418443778</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07187738530029658</v>
+        <v>0.03719317487121129</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07015098019699992</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07197153573999508</v>
+        <v>0.03651127400300944</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1108140233882057</v>
+        <v>0.1135031851060553</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07181157140070152</v>
+        <v>0.03661418420466599</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02145822700502476</v>
+        <v>0.01439082068018608</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07310966731933519</v>
+        <v>0.02200681225526699</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02951310131291118</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0735109622389397</v>
+        <v>0.03803847430010245</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06949164090423141</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0736072524613586</v>
+        <v>0.03734107568489603</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1098383492303943</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07344365256889927</v>
+        <v>0.03744632475477203</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02133914521062604</v>
+        <v>0.01447998613570528</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07473432659309819</v>
+        <v>0.02249585252760625</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02935382640897737</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07514453917758279</v>
+        <v>0.03888377372899362</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0691157120467667</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07524296918272212</v>
+        <v>0.0381708773667826</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1089382011623519</v>
+        <v>0.1137031851060553</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07507573373709704</v>
+        <v>0.03827846530487808</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02021687367655083</v>
+        <v>0.01456730562018371</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0763589858668612</v>
+        <v>0.02298489279994552</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02898909093592818</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0767781161162259</v>
+        <v>0.03972907315788479</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0693261785466523</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07687868590408564</v>
+        <v>0.03900067904866918</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1088182612819872</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0767078149052948</v>
+        <v>0.03911060585498412</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.021092311556999</v>
+        <v>0.0146527859653293</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07798364514062421</v>
+        <v>0.02347393307228478</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02882014635705545</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07841169305486902</v>
+        <v>0.04057437258677595</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06892602532593464</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07851440262544918</v>
+        <v>0.03983048073055576</v>
       </c>
       <c r="N113" t="n">
-        <v>0.108283211687209</v>
+        <v>0.1139031851060553</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07833989607349257</v>
+        <v>0.03994274640509017</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01996635800617039</v>
+        <v>0.01473643400284998</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0796083044143872</v>
+        <v>0.02396297334462405</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02874824413565104</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08004526999351211</v>
+        <v>0.04141967201566712</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0684182373066603</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0801501193468127</v>
+        <v>0.04066028241244234</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1070377344759262</v>
+        <v>0.1137031851060553</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07997197724169033</v>
+        <v>0.04077488695519621</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02083991217826484</v>
+        <v>0.01481825656445367</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08123296368815021</v>
+        <v>0.02445201361696332</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02867463573500677</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08167884693215521</v>
+        <v>0.04226497144455828</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06780579941087572</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08178583606817622</v>
+        <v>0.04149008409432892</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1064865117460477</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08160405840988809</v>
+        <v>0.04160702750530226</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02071387322748221</v>
+        <v>0.01489826048184831</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08285762296191322</v>
+        <v>0.02494105388930258</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02830057261841448</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08331242387079832</v>
+        <v>0.04311027087344945</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06709169656062747</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08342155278953975</v>
+        <v>0.0423198857762155</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1064342255954824</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08323613957808586</v>
+        <v>0.0424391680554083</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01858914030802234</v>
+        <v>0.01497645258674179</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08448228223567622</v>
+        <v>0.02543009416164185</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02812730624916601</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08494600080944142</v>
+        <v>0.04395557030234062</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06707891367796198</v>
+        <v>0.07187552255993462</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08505726951090327</v>
+        <v>0.04314968745810208</v>
       </c>
       <c r="N117" t="n">
-        <v>0.105385558122139</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08486822074628361</v>
+        <v>0.04327130860551435</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02045831501992385</v>
+        <v>0.01505283971084206</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08610694150943922</v>
+        <v>0.02591913443398111</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02795604252779205</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08657957774808453</v>
+        <v>0.04480086973123178</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0662704356849258</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08669298623226679</v>
+        <v>0.04397948913998865</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1044430910336061</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08650030191448138</v>
+        <v>0.04410344915562039</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01830929046213237</v>
+        <v>0.01512742868585703</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08773160078320223</v>
+        <v>0.02640817470632038</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02777084283070541</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08821315468672764</v>
+        <v>0.04564616916012294</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0660414325048303</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08832870295363032</v>
+        <v>0.04480929082187523</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1042357129922646</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08813238308267914</v>
+        <v>0.04493558970572644</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02014474999208115</v>
+        <v>0.01520022634349465</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08935626005696523</v>
+        <v>0.02689721497865965</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02756093813409591</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08984673162537073</v>
+        <v>0.04649146858901412</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06595246910319905</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08996441967499384</v>
+        <v>0.04563909250376181</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1039378486705161</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0897644642508769</v>
+        <v>0.04576773025583249</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0199676231616339</v>
+        <v>0.01527123951546281</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09098091933072823</v>
+        <v>0.02738625525099891</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02723040585496232</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09148030856401385</v>
+        <v>0.04733676801790528</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06511253828295888</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09160013639635736</v>
+        <v>0.04646889418564839</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1031647529030232</v>
+        <v>0.1136031851060553</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09139654541907466</v>
+        <v>0.04659987080593853</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01778083952265432</v>
+        <v>0.01534047503346946</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09260557860449124</v>
+        <v>0.02787529552333818</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02698332341030339</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09311388550265694</v>
+        <v>0.04818206744679644</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06433136527694056</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0932358531177209</v>
+        <v>0.04729869586753497</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1011316805244485</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09302862658727243</v>
+        <v>0.04743201135604457</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01958732862700613</v>
+        <v>0.01540793972922251</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09423023787825424</v>
+        <v>0.02836433579567745</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0267237682171179</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09474746244130004</v>
+        <v>0.04902736687568761</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06421867531797484</v>
+        <v>0.07187552255993462</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09487156983908442</v>
+        <v>0.04812849754942154</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1006538863694549</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09466070775547018</v>
+        <v>0.04826415190615062</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01839002002655303</v>
+        <v>0.0154736404344299</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09585489715201725</v>
+        <v>0.02885337606801672</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02645581769240457</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09638103937994316</v>
+        <v>0.04987266630457877</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06358419363889262</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09650728656044794</v>
+        <v>0.04895829923130812</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09984662527270466</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09629278892366795</v>
+        <v>0.04909629245625666</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01719184327315872</v>
+        <v>0.01553758398079953</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09747955642578025</v>
+        <v>0.02934241634035598</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02638354925316219</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09801461631858625</v>
+        <v>0.05071796573346993</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06293764547252467</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09814300328181147</v>
+        <v>0.0497881009131947</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0981251520688608</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09792487009186571</v>
+        <v>0.04992843300636271</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01799572791868694</v>
+        <v>0.01559977720003934</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09910421569954325</v>
+        <v>0.02983145661269524</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02611104031638953</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09964819325722936</v>
+        <v>0.05156326516236111</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06228875605170175</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09977872000317499</v>
+        <v>0.05061790259508128</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09720472159258586</v>
+        <v>0.1136031851060553</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09955695126006348</v>
+        <v>0.05076057355646876</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01880460351500136</v>
+        <v>0.01566022692385725</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1007288749733063</v>
+        <v>0.03032049688503451</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02584236829908532</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1012817701958725</v>
+        <v>0.05240856459125227</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06134725060925481</v>
+        <v>0.07227552255993464</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1014144367245385</v>
+        <v>0.05144770427696786</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09690058867854245</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1011890324282612</v>
+        <v>0.0515927141065748</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01762139961396572</v>
+        <v>0.01571893998396121</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1023535342470693</v>
+        <v>0.03080953715737378</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02548161061824834</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1029153471345156</v>
+        <v>0.05325386402014344</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06062285437801457</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M128" t="n">
-        <v>0.103050153445902</v>
+        <v>0.05227750595885444</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09572800816139349</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O128" t="n">
-        <v>0.102821113596459</v>
+        <v>0.05242485465668084</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01744095004449461</v>
+        <v>0.01577592321205908</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1039781935208323</v>
+        <v>0.03129857742971304</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02523284469087735</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1045489240731587</v>
+        <v>0.0540991634490346</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06052529259081182</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1046858701672656</v>
+        <v>0.05310730764074102</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09510153498791674</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1044531947646568</v>
+        <v>0.05325699520678689</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01724398871077348</v>
+        <v>0.01583118343985886</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1056028527945953</v>
+        <v>0.03178761770205232</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02497931143739197</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1061825010118018</v>
+        <v>0.05494446287792577</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05993104440885338</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1063215868886291</v>
+        <v>0.05393710932262759</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09393942786235288</v>
+        <v>0.1137031851060553</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1060852759328545</v>
+        <v>0.05408913575689294</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01803331734335158</v>
+        <v>0.01588472749906841</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1072275120683583</v>
+        <v>0.03227665797439158</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02460255472779453</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1078160779504449</v>
+        <v>0.05578976230681693</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05858133591097023</v>
+        <v>0.07247552255993464</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1079573036099926</v>
+        <v>0.05476691100451418</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0924929472672199</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1077173571010523</v>
+        <v>0.05492127630699899</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01681312959658007</v>
+        <v>0.0159365622213957</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1088521713421213</v>
+        <v>0.03276569824673085</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02460838741626459</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K132" t="n">
-        <v>0.109449654889088</v>
+        <v>0.05663506173570811</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0581877327476556</v>
+        <v>0.07247552255993464</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1095930203313562</v>
+        <v>0.05559671268640075</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09208393050280633</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O132" t="n">
-        <v>0.10934943826925</v>
+        <v>0.05575341685710502</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01758761912481002</v>
+        <v>0.01598669443854864</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1104768306158843</v>
+        <v>0.03325473851907011</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02400264632643036</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1110832318277311</v>
+        <v>0.05748036116459927</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05786415659255587</v>
+        <v>0.07217552255993462</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1112287370527197</v>
+        <v>0.05642651436828733</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09073421486940048</v>
+        <v>0.1138031851060552</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1109815194374478</v>
+        <v>0.05658555740721107</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01636097958239258</v>
+        <v>0.01603513098223514</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1121014898896473</v>
+        <v>0.03374377879140938</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02369116828192003</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1127168087663742</v>
+        <v>0.05832566059349043</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05672452911931733</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1128644537740832</v>
+        <v>0.0572563160501739</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08876563766729118</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1126136006056456</v>
+        <v>0.05741769795731712</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01513740462367883</v>
+        <v>0.01608187868416313</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1137261491634103</v>
+        <v>0.03423281906374864</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02357979010636184</v>
+        <v>0.03044786001381398</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1143503857050173</v>
+        <v>0.05917096002238159</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05598277200158633</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1145001704954467</v>
+        <v>0.05808611773206049</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08810003619676682</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1142456817738433</v>
+        <v>0.05824983850742316</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01492108790301992</v>
+        <v>0.01612694437604054</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1153508084371733</v>
+        <v>0.03472185933608791</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02307434862338398</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1159839626436604</v>
+        <v>0.06001625945127276</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05545280691300919</v>
+        <v>0.07257552255993463</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1161358872168102</v>
+        <v>0.05891591941394706</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08695924775811592</v>
+        <v>0.1142031851060553</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1158777629420411</v>
+        <v>0.05908197905752921</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01671622307476693</v>
+        <v>0.0161703348895753</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1169754677109363</v>
+        <v>0.03521089960842718</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02308068065661467</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1176175395823035</v>
+        <v>0.06086155888016393</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05444855552723224</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1177716039381737</v>
+        <v>0.05974572109583363</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08546510965162707</v>
+        <v>0.1137031851060553</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1175098441102388</v>
+        <v>0.05991411960763526</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.016527003793271</v>
+        <v>0.01621205705647533</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1186001269846993</v>
+        <v>0.03569993988076645</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02270462302968208</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1192511165209466</v>
+        <v>0.0617068583090551</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05428393951790181</v>
+        <v>0.07187552255993462</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1194073206595373</v>
+        <v>0.06057552277772022</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08543945917758872</v>
+        <v>0.1143031851060552</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1191419252784366</v>
+        <v>0.0607462601577413</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01435762371288324</v>
+        <v>0.01625211770844855</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1202247862584623</v>
+        <v>0.03618898015310571</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02255201256621449</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1208846934595897</v>
+        <v>0.06255215773794626</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0536728805586642</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1210430373809008</v>
+        <v>0.0614053244596068</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08370413363628953</v>
+        <v>0.1144031851060553</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1207740064466344</v>
+        <v>0.06157840070784734</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01621227648795476</v>
+        <v>0.01629052367720289</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1218494455322253</v>
+        <v>0.03667802042544497</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02232868608984007</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1225182703982328</v>
+        <v>0.06339745716683742</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05272930032316578</v>
+        <v>0.07197552255993464</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1226787541022643</v>
+        <v>0.06223512614149337</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0834809703280181</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1224060876148321</v>
+        <v>0.06241054125795339</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01609515577283668</v>
+        <v>0.01632728179444626</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1234741048059883</v>
+        <v>0.03716706069778424</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02184048042418701</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1241518473368759</v>
+        <v>0.06424275659572859</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05226712048505286</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1243144708236279</v>
+        <v>0.06306492782337995</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08219180655306274</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1240381687830299</v>
+        <v>0.06324268180805943</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01501045522188011</v>
+        <v>0.01636239889188661</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1250987640797513</v>
+        <v>0.03765610097012351</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02179323239288354</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K142" t="n">
-        <v>0.125785424275519</v>
+        <v>0.06508805602461976</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05200026271797181</v>
+        <v>0.07247552255993464</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1259501875449914</v>
+        <v>0.06389472950526653</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08225847961171223</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1256702499512277</v>
+        <v>0.06407482235816549</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01596236848943617</v>
+        <v>0.01639588180123183</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1267234233535143</v>
+        <v>0.03814514124246277</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02179277881955789</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1274190012141621</v>
+        <v>0.06593335545351092</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05204264869556888</v>
+        <v>0.07207552255993463</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1275859042663549</v>
+        <v>0.06472453118715311</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08190282680425498</v>
+        <v>0.1145031851060553</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1273023311194254</v>
+        <v>0.06490696290827153</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01595306173370842</v>
+        <v>0.01642773735418988</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1283480826272773</v>
+        <v>0.03863418151480204</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02154495652783824</v>
+        <v>0.03054786001381399</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1290525781528052</v>
+        <v>0.06677865488240209</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05130820009149045</v>
+        <v>0.07187552255993462</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1292216209877184</v>
+        <v>0.06555433286903968</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08154668543097948</v>
+        <v>0.1146031851060553</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1289344122876232</v>
+        <v>0.06573910345837757</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01495820895850507</v>
+        <v>0.01645797238246866</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1299727419010404</v>
+        <v>0.03912322178714131</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02184367983064781</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1306861550914483</v>
+        <v>0.06762395431129326</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05139424955148492</v>
+        <v>0.07237552255993462</v>
       </c>
       <c r="M145" t="n">
-        <v>0.130857337709082</v>
+        <v>0.06638413455092627</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08135119492540355</v>
+        <v>0.1140031851060553</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1305664934558209</v>
+        <v>0.06657124400848362</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01496930868544408</v>
+        <v>0.0164865937177761</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1315974011748033</v>
+        <v>0.03961226205948058</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02175367839680113</v>
+        <v>0.03024786001381399</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1323197320300914</v>
+        <v>0.06846925374018442</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05191495662233087</v>
+        <v>0.07257519907074719</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1324930544304455</v>
+        <v>0.06721393623281284</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08119203885240023</v>
+        <v>0.1146031781187916</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1321985746240187</v>
+        <v>0.06740338455858966</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01498605276633136</v>
+        <v>0.01651360819182012</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1332220604485663</v>
+        <v>0.04010130233181983</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02167176629005453</v>
+        <v>0.03034786001381398</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1339533089687346</v>
+        <v>0.06931455316907557</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05135509058262164</v>
+        <v>0.07257125259120562</v>
       </c>
       <c r="M147" t="n">
-        <v>0.134128771151809</v>
+        <v>0.06804373791469942</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08096300157612746</v>
+        <v>0.1135992700626717</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1338306557922165</v>
+        <v>0.06823552510869571</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01600813305297279</v>
+        <v>0.01653902263630866</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1348467197223294</v>
+        <v>0.04059034260415911</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02169751462273399</v>
+        <v>0.03054781754609083</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1355868859073777</v>
+        <v>0.07015985259796675</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0518136284728489</v>
+        <v>0.0721629541092553</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1357644878731725</v>
+        <v>0.068873539596586</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08166247849971442</v>
+        <v>0.114288362634434</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1354627369604142</v>
+        <v>0.06906766565880175</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01503524139717428</v>
+        <v>0.01656284388294963</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1364713789960924</v>
+        <v>0.04107938287649837</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02183049450716543</v>
+        <v>0.0304464253032579</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1372204628460208</v>
+        <v>0.07100515202685792</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05188954733350437</v>
+        <v>0.07215047239121283</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1374002045945361</v>
+        <v>0.06970334127847258</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08148886502629071</v>
+        <v>0.1139707245908485</v>
       </c>
       <c r="O149" t="n">
-        <v>0.137094818128612</v>
+        <v>0.0698998062089078</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0140670696507417</v>
+        <v>0.01658507876345096</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1380960382698554</v>
+        <v>0.04156842314883764</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02187027705567485</v>
+        <v>0.03054312129676852</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1388540397846639</v>
+        <v>0.07185045145574909</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05198182420507974</v>
+        <v>0.07233397620339474</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1390359213158996</v>
+        <v>0.07053314296035916</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08164055655898567</v>
+        <v>0.1142466246886849</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1387268992968098</v>
+        <v>0.07073194675901384</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01410330966548097</v>
+        <v>0.01660573410952056</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1397206975436184</v>
+        <v>0.04205746342117691</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02171643338058822</v>
+        <v>0.03043798061715557</v>
       </c>
       <c r="K151" t="n">
-        <v>0.140487616723307</v>
+        <v>0.07269575088464024</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0521894361280667</v>
+        <v>0.07191363431211761</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1406716380372631</v>
+        <v>0.07136294464224574</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08161594850092874</v>
+        <v>0.1139163316847131</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1403589804650075</v>
+        <v>0.07156408730911988</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01514365329319798</v>
+        <v>0.01662481675286637</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1413453568173814</v>
+        <v>0.04254650369351617</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02186853459423148</v>
+        <v>0.03033107835495194</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1421211936619501</v>
+        <v>0.07354105031353141</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05221136014295688</v>
+        <v>0.071789615483698</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1423073547586266</v>
+        <v>0.07219274632413232</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08181343625524939</v>
+        <v>0.1137801143357031</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1419910616332053</v>
+        <v>0.07239622785922593</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01518779238569861</v>
+        <v>0.01664233352519633</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1429700160911444</v>
+        <v>0.04303554396585544</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02202615180893062</v>
+        <v>0.03032248960069053</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1437547706005932</v>
+        <v>0.07438634974242257</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05184657329024206</v>
+        <v>0.07236208848445247</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1439430714799902</v>
+        <v>0.07302254800601889</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08243141522507708</v>
+        <v>0.1134382413984247</v>
       </c>
       <c r="O153" t="n">
-        <v>0.143623142801403</v>
+        <v>0.07322836840933197</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01523541879478877</v>
+        <v>0.01665829125821832</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1445946753649074</v>
+        <v>0.0435245842381947</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02188885613701162</v>
+        <v>0.03041228944490425</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1453883475392363</v>
+        <v>0.07523164917131375</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05199405261041384</v>
+        <v>0.07243122208069755</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1455787882013537</v>
+        <v>0.07385234968790547</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08266828081354111</v>
+        <v>0.1143909816296479</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1452552239696008</v>
+        <v>0.07406050895943803</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01428622437227434</v>
+        <v>0.01667269678364031</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1462193346386704</v>
+        <v>0.04401362451053397</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02225621869080041</v>
+        <v>0.03040055297812595</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1470219244778794</v>
+        <v>0.07607694860020491</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05265277514396399</v>
+        <v>0.07209718503874984</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1472145049227172</v>
+        <v>0.07468215136979206</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08252242842377094</v>
+        <v>0.1143386037861425</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1468873051377985</v>
+        <v>0.07489264950954407</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01634129335284851</v>
+        <v>0.01668555693317019</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1478439939124334</v>
+        <v>0.04450266478287324</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02202781058262299</v>
+        <v>0.03048735529088857</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1486555014165225</v>
+        <v>0.07692224802909607</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05252171793138419</v>
+        <v>0.0722601461249259</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1488502216440807</v>
+        <v>0.07551195305167863</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08339225345889612</v>
+        <v>0.1138813766246785</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1485193863059963</v>
+        <v>0.0757247900596501</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01643497420113178</v>
+        <v>0.01669687853851589</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1494686531861964</v>
+        <v>0.0449917050552125</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02241811550459646</v>
+        <v>0.03047277147372497</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1502890783551656</v>
+        <v>0.07776754745798724</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05322154011900504</v>
+        <v>0.07172027410554227</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1504859383654442</v>
+        <v>0.07634175473356521</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08415028642247452</v>
+        <v>0.1142195689020257</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1501514674741941</v>
+        <v>0.07655693060975616</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01657526454964971</v>
+        <v>0.01670666843138535</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1510933124599594</v>
+        <v>0.04548074532755177</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02247528830038378</v>
+        <v>0.03015687661716807</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1519226552938087</v>
+        <v>0.0786128468868784</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05317336440265413</v>
+        <v>0.07177773774691551</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1521216550868078</v>
+        <v>0.07717155641545179</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08416314776454259</v>
+        <v>0.1136534493749539</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1517835486423919</v>
+        <v>0.0773890711598622</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01575286214816443</v>
+        <v>0.01671493344348649</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1527179717337224</v>
+        <v>0.04596978559989104</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02279159457352242</v>
+        <v>0.03023974581175072</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1535562322324518</v>
+        <v>0.07945814631576957</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05367032820345383</v>
+        <v>0.07173270581536217</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1537573718081713</v>
+        <v>0.07800135809733837</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08529274217248167</v>
+        <v>0.1132832868002333</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1534156298105896</v>
+        <v>0.07822121170996825</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0149584647464381</v>
+        <v>0.01672168040652722</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1543426310074854</v>
+        <v>0.0464588258722303</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02275408724029064</v>
+        <v>0.03042145414800586</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1551898091710949</v>
+        <v>0.08030344574466074</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05418155084284901</v>
+        <v>0.07148534707719886</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1553930885295348</v>
+        <v>0.07883115977922495</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08549063073960206</v>
+        <v>0.1137093499346335</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1550477109787874</v>
+        <v>0.0790533522600743</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01618277009423284</v>
+        <v>0.01672691615221548</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1559672902812484</v>
+        <v>0.04694786614456956</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02304981921696671</v>
+        <v>0.03040207671646637</v>
       </c>
       <c r="K161" t="n">
-        <v>0.156823386109738</v>
+        <v>0.0811487451735519</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05517615164228457</v>
+        <v>0.07193583029874209</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1570288052508984</v>
+        <v>0.07966096146111151</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08700837455921362</v>
+        <v>0.1137319075349246</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1566797921469851</v>
+        <v>0.07988549281018034</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01641647594131081</v>
+        <v>0.01673064751225919</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1575919495550114</v>
+        <v>0.04743690641690883</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02366584341982886</v>
+        <v>0.03038168860766516</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1584569630483811</v>
+        <v>0.08199404460244307</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05582324992320542</v>
+        <v>0.07208432424630845</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1586645219722619</v>
+        <v>0.08049076314299811</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08809753472462656</v>
+        <v>0.1135512283578764</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1583118733151829</v>
+        <v>0.08071763336028638</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01665028003743413</v>
+        <v>0.01673288131836627</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1592166088287744</v>
+        <v>0.0479259466892481</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02378921276515542</v>
+        <v>0.03016036491213507</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1600905399870242</v>
+        <v>0.08283934403133424</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05669196500705642</v>
+        <v>0.07153099768621449</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1603002386936254</v>
+        <v>0.08132056482488467</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08960967232915112</v>
+        <v>0.1136675811602588</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1599439544833807</v>
+        <v>0.08154977391039242</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01587488013236495</v>
+        <v>0.01673362440224465</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1608412681025374</v>
+        <v>0.04841498696158737</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02420698016922468</v>
+        <v>0.03013818072040904</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1617241169256673</v>
+        <v>0.0836846434602254</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0571514162152825</v>
+        <v>0.07137601938477678</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1619359554149889</v>
+        <v>0.08215036650677125</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09069634846609709</v>
+        <v>0.1127812346988417</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1615760356515784</v>
+        <v>0.08238191446049847</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01708097397586539</v>
+        <v>0.01673362440224465</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1624659273763004</v>
+        <v>0.04841498696158737</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02440619854831487</v>
+        <v>0.03021521112301997</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1633576938643104</v>
+        <v>0.08452994288911657</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05787072286932851</v>
+        <v>0.07141955810831185</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1635716721363524</v>
+        <v>0.08298016818865783</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09180912422877485</v>
+        <v>0.112692457730395</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1632081168197762</v>
+        <v>0.08321405501060453</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01825960249441452</v>
+        <v>0.01631759337004474</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1640905866500634</v>
+        <v>0.04841471843312335</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02467392081870429</v>
+        <v>0.02999153121050072</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1649912708029535</v>
+        <v>0.08537524231800774</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05861900429063938</v>
+        <v>0.07126178262313629</v>
       </c>
       <c r="M166" t="n">
-        <v>0.165207388857716</v>
+        <v>0.08380996987054441</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09279956071049433</v>
+        <v>0.1130015190116886</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1648401979879739</v>
+        <v>0.08404619556071057</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01642348052865079</v>
+        <v>0.01590623097034386</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1657152459238264</v>
+        <v>0.04841444990465933</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02480581600550209</v>
+        <v>0.02996721607338421</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1666248477415966</v>
+        <v>0.0862205417468989</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05887806437679452</v>
+        <v>0.07170286169556667</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1668431055790795</v>
+        <v>0.08463977155243099</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09336198667716156</v>
+        <v>0.1125086872994924</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1664722791561717</v>
+        <v>0.0848783361108166</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01758333091037269</v>
+        <v>0.01550012054946614</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1673399051975894</v>
+        <v>0.04841418137619532</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02522876351266254</v>
+        <v>0.02994234080220333</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1682584246802397</v>
+        <v>0.08706584117579005</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05991012429018655</v>
+        <v>0.07104296409191951</v>
       </c>
       <c r="M168" t="n">
-        <v>0.168478822300443</v>
+        <v>0.08546957323431757</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09509578494078319</v>
+        <v>0.1132142313505763</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1681043603243695</v>
+        <v>0.08571047666092264</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01773944873495554</v>
+        <v>0.01509984545370011</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1689645644713524</v>
+        <v>0.0484139128477313</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02534632907847068</v>
+        <v>0.02991698048749095</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1698920016188828</v>
+        <v>0.08791114060468123</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0603292412576634</v>
+        <v>0.0714822585785114</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1701145390218065</v>
+        <v>0.08629937491620415</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09530956449659245</v>
+        <v>0.1127184199217102</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1697364414925672</v>
+        <v>0.0865426172110287</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01689212909777463</v>
+        <v>0.01470598902936942</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1705892237451155</v>
+        <v>0.04841364431926728</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02565892342339006</v>
+        <v>0.03009121021977997</v>
       </c>
       <c r="K170" t="n">
-        <v>0.171525578557526</v>
+        <v>0.0887564400335724</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06063639490729292</v>
+        <v>0.07092091392165889</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1717502557431701</v>
+        <v>0.08712917659809072</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09650486197250013</v>
+        <v>0.113021521769664</v>
       </c>
       <c r="O170" t="n">
-        <v>0.171368522660765</v>
+        <v>0.08737475776113475</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01904166709420528</v>
+        <v>0.01431913462276317</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1722138830188784</v>
+        <v>0.04841337579080326</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02596695726788428</v>
+        <v>0.0299651050896033</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1731591554961691</v>
+        <v>0.08960173946246357</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06123256486714307</v>
+        <v>0.07105909888767856</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1733859724645336</v>
+        <v>0.0879589782799773</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09728321399641715</v>
+        <v>0.1120238056512075</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1730006038289628</v>
+        <v>0.08820689831124079</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01818835781962277</v>
+        <v>0.01393986558020439</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1738385422926415</v>
+        <v>0.04841310726233925</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02617084133241691</v>
+        <v>0.02993874018749383</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1747927324348122</v>
+        <v>0.09044703889135472</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06201873076528189</v>
+        <v>0.07089698224288693</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1750216891858971</v>
+        <v>0.08878877996186389</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09774615719625424</v>
+        <v>0.1127255403231107</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1746326849971605</v>
+        <v>0.08903903886134684</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01733249636940244</v>
+        <v>0.01356876524798281</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1754632015664045</v>
+        <v>0.04841283873387523</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02617098633745152</v>
+        <v>0.03001219060398445</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1764263093734553</v>
+        <v>0.09129233832024589</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06199587222977715</v>
+        <v>0.07072894796528267</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1766574059072606</v>
+        <v>0.08961858164375046</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09809522819992228</v>
+        <v>0.1123225606546055</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1762647661653583</v>
+        <v>0.08987117941145288</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01947437783891957</v>
+        <v>0.01320641697242081</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1770878608401674</v>
+        <v>0.04841257020541121</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02626780300345169</v>
+        <v>0.03008544414820369</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1780598863120983</v>
+        <v>0.09213763774913705</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06236496888869689</v>
+        <v>0.07134557645822753</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1782931226286242</v>
+        <v>0.09044838332563704</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09933196363533209</v>
+        <v>0.1122965607340628</v>
       </c>
       <c r="O174" t="n">
-        <v>0.177896847333556</v>
+        <v>0.09070331996155892</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01961429732354947</v>
+        <v>0.01285340409980883</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1787125201139305</v>
+        <v>0.04841230167694719</v>
       </c>
       <c r="J175" t="n">
-        <v>0.026461702050881</v>
+        <v>0.03005409553294919</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1796934632507415</v>
+        <v>0.09298293717802823</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06352700037010897</v>
+        <v>0.07104839939864127</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1799288393499877</v>
+        <v>0.09127818500752362</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1002579001303945</v>
+        <v>0.1125479303952268</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1795289285017538</v>
+        <v>0.09153546051166497</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01875254991866745</v>
+        <v>0.01251030997646846</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1803371793876935</v>
+        <v>0.04841203314848318</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02685309420020299</v>
+        <v>0.0300162091744309</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1813270401893846</v>
+        <v>0.09382823660691939</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06378294630208134</v>
+        <v>0.07083917225792949</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1815645560713512</v>
+        <v>0.0921079866894102</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1005745743130205</v>
+        <v>0.1114794651889763</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1811610096699516</v>
+        <v>0.09236760106177101</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01888943071964882</v>
+        <v>0.012177717948691</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1819618386614565</v>
+        <v>0.04841176462001916</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02694239017188127</v>
+        <v>0.02977256614843463</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1829606171280277</v>
+        <v>0.09467353603581055</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06413378631268193</v>
+        <v>0.07081965050749778</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1832002727927147</v>
+        <v>0.09293778837129678</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1017835228111206</v>
+        <v>0.1110939606661905</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1827930908381493</v>
+        <v>0.09319974161187707</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02002897434689532</v>
+        <v>0.01185621136279714</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1835864979352195</v>
+        <v>0.04841149609155514</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02733090261507862</v>
+        <v>0.02972394753074617</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1845941940666708</v>
+        <v>0.09551883546470172</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0646814148732342</v>
+        <v>0.07079158961875176</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1848359895140783</v>
+        <v>0.09376759005318336</v>
       </c>
       <c r="N178" t="n">
-        <v>0.102591475896479</v>
+        <v>0.1110942123777484</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1844251720063471</v>
+        <v>0.0940318821619831</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02017646843485515</v>
+        <v>0.01154637356507911</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1852111572089825</v>
+        <v>0.04841122756309112</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02752949530673572</v>
+        <v>0.02987113439715136</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1862277710053139</v>
+        <v>0.09636413489359288</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06475076036363717</v>
+        <v>0.07045674506309699</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1864717062354418</v>
+        <v>0.09459739173506994</v>
       </c>
       <c r="N179" t="n">
-        <v>0.102839037598883</v>
+        <v>0.111183015874529</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1860572531745449</v>
+        <v>0.09486402271208914</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01832713318344075</v>
+        <v>0.01124878790185661</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1868358164827455</v>
+        <v>0.04841095903462711</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02773575073007774</v>
+        <v>0.02951490782343598</v>
       </c>
       <c r="K180" t="n">
-        <v>0.187861347943957</v>
+        <v>0.09720943432248405</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06564022987554916</v>
+        <v>0.07031687231193909</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1881074229568053</v>
+        <v>0.0954271934169565</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1032132378291925</v>
+        <v>0.1110631667074113</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1876893343427426</v>
+        <v>0.0956961632621952</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0184758993745724</v>
+        <v>0.01096403771942293</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1884604757565085</v>
+        <v>0.04841069050616309</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02774261343193975</v>
+        <v>0.02975604888538586</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1894949248826001</v>
+        <v>0.09805473375137522</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06573299512656086</v>
+        <v>0.07007372683668359</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1897431396781688</v>
+        <v>0.09625699509884308</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1042876800300933</v>
+        <v>0.1106374604272745</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1893214155109404</v>
+        <v>0.09652830381230124</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02061769779017043</v>
+        <v>0.01069270636409666</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1900851350302715</v>
+        <v>0.04841042197769908</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02794302795915686</v>
+        <v>0.02959533865878679</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1911285018212432</v>
+        <v>0.09890003318026638</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06631222783426302</v>
+        <v>0.06982906410873621</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1913788563995324</v>
+        <v>0.09708679678072966</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1054359676442715</v>
+        <v>0.1104086925849975</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1909534966791381</v>
+        <v>0.09736044436240729</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01974745921215515</v>
+        <v>0.01043537718217769</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1917097943040345</v>
+        <v>0.04841015344923506</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02832993885856418</v>
+        <v>0.02933355821942457</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1927620787598863</v>
+        <v>0.09974533260915755</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06686109971624632</v>
+        <v>0.06998463959950241</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1930145731208959</v>
+        <v>0.09791659846261624</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1059317041144132</v>
+        <v>0.1103796587314592</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1925855778473359</v>
+        <v>0.09819258491251333</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01886011442244687</v>
+        <v>0.01019263351996708</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1933344535777975</v>
+        <v>0.04840988492077104</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02849629067699681</v>
+        <v>0.02937148864308504</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1943956556985294</v>
+        <v>0.1005906320380487</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06726278249010154</v>
+        <v>0.0699422087803879</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1946502898422594</v>
+        <v>0.09874640014450282</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1060484928832043</v>
+        <v>0.1097531544175389</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1942176590155336</v>
+        <v>0.09902472546261938</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0199505942029659</v>
+        <v>0.00996505872378161</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1949591128515605</v>
+        <v>0.04840961639230703</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02833502796128987</v>
+        <v>0.029509911005554</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1960292326371725</v>
+        <v>0.1014359314669399</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06780044787341938</v>
+        <v>0.06950352712279817</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1962860065636229</v>
+        <v>0.0995762018263894</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1073599373933309</v>
+        <v>0.1103319751941155</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1958497401837314</v>
+        <v>0.09985686601272542</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02001465141095565</v>
+        <v>0.009753236139917631</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1965837721253235</v>
+        <v>0.04840934786384301</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02843909525827842</v>
+        <v>0.02914960638261727</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1976628095758156</v>
+        <v>0.102281230895831</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06795726758379048</v>
+        <v>0.06967035009813891</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1979217232849865</v>
+        <v>0.100406003508276</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1068396410874789</v>
+        <v>0.1091189166120682</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1974818213519292</v>
+        <v>0.1006890065628315</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02106910126298437</v>
+        <v>0.009557749114690553</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1982084313990865</v>
+        <v>0.04840907933537899</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02851551435397509</v>
+        <v>0.02919135585006061</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1992963865144587</v>
+        <v>0.1031265303247222</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06834186845475362</v>
+        <v>0.06944443317781565</v>
       </c>
       <c r="M187" t="n">
-        <v>0.19955744000635</v>
+        <v>0.1012358051901626</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1072239056919275</v>
+        <v>0.1095167742222757</v>
       </c>
       <c r="O187" t="n">
-        <v>0.199113902520127</v>
+        <v>0.1015211471129375</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01912236913588516</v>
+        <v>0.009379180994398106</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1998330906728495</v>
+        <v>0.04840881080691497</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0285895329319598</v>
+        <v>0.02933594048366989</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2009299634531018</v>
+        <v>0.1039718297536134</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06811834213159296</v>
+        <v>0.06952753183323399</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2011931567277135</v>
+        <v>0.1020656068720491</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1080009087914485</v>
+        <v>0.1093283435756174</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2007459836883247</v>
+        <v>0.1023532876630436</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0191744363742495</v>
+        <v>0.009218115125354275</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2014577499466125</v>
+        <v>0.04840854227845096</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02876190033423016</v>
+        <v>0.02898414135923089</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2025635403917449</v>
+        <v>0.1048171291825045</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06809088882316131</v>
+        <v>0.06922140153579953</v>
       </c>
       <c r="M189" t="n">
-        <v>0.202828873449077</v>
+        <v>0.1028954085539357</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1086717219216758</v>
+        <v>0.109356420222972</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2023780648565225</v>
+        <v>0.1031854282131496</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02122528432266895</v>
+        <v>0.009072907230829312</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2030824092203755</v>
+        <v>0.04840827374998694</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02873259059576386</v>
+        <v>0.02893673955252941</v>
       </c>
       <c r="K190" t="n">
-        <v>0.204197117330388</v>
+        <v>0.1056624286113957</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06855944659910229</v>
+        <v>0.06932779775691789</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2044645901704406</v>
+        <v>0.1037252102358223</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1089362479397066</v>
+        <v>0.1088037997152189</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2040101460247202</v>
+        <v>0.1040175687632557</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02127489432573499</v>
+        <v>0.008930717028566335</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2047070684941385</v>
+        <v>0.04840800522152292</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02910157775153846</v>
+        <v>0.02899451613935126</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2058306942690311</v>
+        <v>0.1065077280402869</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06872395352905947</v>
+        <v>0.0690484759679946</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2061003068918041</v>
+        <v>0.1045550119177089</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1087943897026382</v>
+        <v>0.1085732776032368</v>
       </c>
       <c r="O191" t="n">
-        <v>0.205642227192918</v>
+        <v>0.1048497093133617</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02032324772803915</v>
+        <v>0.008789752299714328</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2063317277679015</v>
+        <v>0.0484077366930589</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02906883583653162</v>
+        <v>0.0288582521954823</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2074642712076742</v>
+        <v>0.107353027469178</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06918434768267642</v>
+        <v>0.06898461171214379</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2077360236131676</v>
+        <v>0.1053848135995955</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1089460500675676</v>
+        <v>0.1081675899338275</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2072743083611157</v>
+        <v>0.1056818498634677</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01937032587417296</v>
+        <v>0.008650442016197593</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2079563870416645</v>
+        <v>0.04840746816459489</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02923433888572097</v>
+        <v>0.02882872879670827</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2090978481463173</v>
+        <v>0.1081983268980692</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06874056712959667</v>
+        <v>0.06862658217123038</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2093717403345311</v>
+        <v>0.106214615281482</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1090911318915921</v>
+        <v>0.1086751079757353</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2089063895293135</v>
+        <v>0.1065139904135738</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0204161101087279</v>
+        <v>0.00851321514992822</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2095810463154275</v>
+        <v>0.04840719963613087</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02929806093408413</v>
+        <v>0.02880358666154402</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2107314250849605</v>
+        <v>0.1090436263269604</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06939254993946389</v>
+        <v>0.06857036720718707</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2110074570558947</v>
+        <v>0.1070444169633686</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1099295380318089</v>
+        <v>0.1079855254472099</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2105384706975113</v>
+        <v>0.1073461309636798</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0194605817762955</v>
+        <v>0.008378500672830351</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2112057055891906</v>
+        <v>0.04840693110766685</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02905997601659877</v>
+        <v>0.02887925385176073</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2123650020236036</v>
+        <v>0.1098889257558515</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06974023418192163</v>
+        <v>0.06841591056787691</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2126431737772582</v>
+        <v>0.1078742186452552</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1094611713453151</v>
+        <v>0.1079987527679194</v>
       </c>
       <c r="O195" t="n">
-        <v>0.212170551865709</v>
+        <v>0.1081782715137859</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0195037222214673</v>
+        <v>0.00824672755681629</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2128303648629535</v>
+        <v>0.04840666257920283</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02932005816824244</v>
+        <v>0.0290556961364641</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2139985789622466</v>
+        <v>0.1107342251847427</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06958355792661344</v>
+        <v>0.06876315600116276</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2142788904986217</v>
+        <v>0.1087040203271418</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1103859346892078</v>
+        <v>0.108514700357532</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2138026330339068</v>
+        <v>0.1090104120638919</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02154551278883476</v>
+        <v>0.008118324773809922</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2144550241367165</v>
+        <v>0.04840639405073882</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02927828142399284</v>
+        <v>0.02893288848694561</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2156321559008897</v>
+        <v>0.1115795246136339</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06992245924318291</v>
+        <v>0.06861204725490774</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2159146072199852</v>
+        <v>0.1095338220090284</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1102037309205844</v>
+        <v>0.1083332786357158</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2154347142021046</v>
+        <v>0.109842552613998</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01958593482298945</v>
+        <v>0.007993721295726508</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2160796834104796</v>
+        <v>0.0484061255222748</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02953461981882761</v>
+        <v>0.02881080587449673</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2172657328395328</v>
+        <v>0.112424824042525</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06975687620127366</v>
+        <v>0.06856252807697474</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2175503239413487</v>
+        <v>0.1103636236909149</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1103144628965419</v>
+        <v>0.1083543980221391</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2170667953703023</v>
+        <v>0.110674693164104</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02062496966852286</v>
+        <v>0.00787334609448162</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2177043426842425</v>
+        <v>0.04840585699381078</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02928904738772432</v>
+        <v>0.02898942327040895</v>
       </c>
       <c r="K199" t="n">
-        <v>0.218899309778176</v>
+        <v>0.1132701234714162</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06958674687052926</v>
+        <v>0.06851454221522679</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2191860406627123</v>
+        <v>0.1111934253728015</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1102180334741776</v>
+        <v>0.1079779689364698</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2186988765385001</v>
+        <v>0.11150683371421</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02166259867002653</v>
+        <v>0.007757628141998651</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2193290019580056</v>
+        <v>0.04840558846534677</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02934153816566064</v>
+        <v>0.02866871564597376</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2205328867168191</v>
+        <v>0.1141154229003074</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06971200932059329</v>
+        <v>0.06866803341752692</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2208217573840758</v>
+        <v>0.1120232270546881</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1112143455105886</v>
+        <v>0.1075039017983762</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2203309577066978</v>
+        <v>0.1123389742643161</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01969880317209193</v>
+        <v>0.007646996410190732</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2209536612317686</v>
+        <v>0.04840531993688275</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02969206618761418</v>
+        <v>0.02864865797248264</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2221664636554622</v>
+        <v>0.1149607223291985</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07043260162110926</v>
+        <v>0.06832294543173797</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2224574741054393</v>
+        <v>0.1128530287365747</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1106033018628721</v>
+        <v>0.1081321070275263</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2219630388748956</v>
+        <v>0.1131711148144221</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02073356451931063</v>
+        <v>0.007541879870980837</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2225783205055316</v>
+        <v>0.04840505140841873</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02974060548856258</v>
+        <v>0.02872922522122703</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2238000405941053</v>
+        <v>0.1158060217580897</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07054846184172084</v>
+        <v>0.06867922200572307</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2240931908268028</v>
+        <v>0.1136828304184612</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1106848053881253</v>
+        <v>0.1078624950435886</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2235951200430934</v>
+        <v>0.1140032553645282</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01976686405627408</v>
+        <v>0.00744270749628257</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2242029797792946</v>
+        <v>0.04840478287995471</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02958713010348346</v>
+        <v>0.02891039236349849</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2254336175327484</v>
+        <v>0.1166513211869809</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0701595280520716</v>
+        <v>0.06833680688734517</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2257289075481664</v>
+        <v>0.1145126321003478</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1112587589434455</v>
+        <v>0.1080949762662307</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2252272012112911</v>
+        <v>0.1148353959146342</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02079868312757385</v>
+        <v>0.007349908258018401</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2258276390530576</v>
+        <v>0.0484045143514907</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0298316140673545</v>
+        <v>0.02879213437058846</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2270671944713915</v>
+        <v>0.117496620615872</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07086573832180504</v>
+        <v>0.06799564382446724</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2273646242695299</v>
+        <v>0.1153424337822344</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1108250653859297</v>
+        <v>0.1083294611151212</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2268592823794889</v>
+        <v>0.1156675364647403</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01982900307780142</v>
+        <v>0.00726391112810245</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2274522983268206</v>
+        <v>0.04840424582302668</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02977403141515327</v>
+        <v>0.02857442621378842</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2287007714100346</v>
+        <v>0.1183419200447632</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07066703072056482</v>
+        <v>0.06785567656495223</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2290003409908934</v>
+        <v>0.116172235464121</v>
       </c>
       <c r="N205" t="n">
-        <v>0.112083627572675</v>
+        <v>0.1081658600099281</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2284913635476866</v>
+        <v>0.1164996770148463</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02085780525154835</v>
+        <v>0.007185145078456627</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2290769576005836</v>
+        <v>0.04840397729456267</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0298143561818574</v>
+        <v>0.02875724286438984</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2303343483486777</v>
+        <v>0.1191872194736543</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07106334331799452</v>
+        <v>0.0683168488566632</v>
       </c>
       <c r="M206" t="n">
-        <v>0.230636057712257</v>
+        <v>0.1170020371460075</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1118343483607789</v>
+        <v>0.1074040833703194</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2301234447158844</v>
+        <v>0.1173318175649524</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01988507099340611</v>
+        <v>0.007114039080995664</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2307016168743466</v>
+        <v>0.04840370876609865</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02985256240244456</v>
+        <v>0.02874055929368424</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2319679252873208</v>
+        <v>0.1200325189025455</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07085461418373773</v>
+        <v>0.06797910444746311</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2322717744336205</v>
+        <v>0.1178318388278941</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1114771306073383</v>
+        <v>0.1077440416159634</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2317555258840822</v>
+        <v>0.1181639581150584</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02191078164796625</v>
+        <v>0.007051022107640824</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2323262761481096</v>
+        <v>0.04840344023763463</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02978862411189237</v>
+        <v>0.02862435047296306</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2336015022259639</v>
+        <v>0.1208778183314367</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07124078138743797</v>
+        <v>0.06784238708521492</v>
       </c>
       <c r="M208" t="n">
-        <v>0.233907491154984</v>
+        <v>0.1186616405097807</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1114118771694505</v>
+        <v>0.1076856451665283</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2333876070522799</v>
+        <v>0.1189960986651645</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02193491855982024</v>
+        <v>0.006996523130307526</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2339509354218726</v>
+        <v>0.04840317170917061</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02982251534517844</v>
+        <v>0.02880859137351782</v>
       </c>
       <c r="K209" t="n">
-        <v>0.235235079164607</v>
+        <v>0.1217231177603279</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07122178299873883</v>
+        <v>0.06820664051778164</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2355432078763475</v>
+        <v>0.1194914421916673</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1115384909042127</v>
+        <v>0.1070288044416821</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2350196882204777</v>
+        <v>0.1198282392152705</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02195746307355963</v>
+        <v>0.006950971120916305</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2355755946956356</v>
+        <v>0.04840290318070659</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02995421013728043</v>
+        <v>0.02859325696663999</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2368686561032501</v>
+        <v>0.122568417189219</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07089755708728393</v>
+        <v>0.06777180849302628</v>
       </c>
       <c r="M210" t="n">
-        <v>0.237178924597711</v>
+        <v>0.1203212438735539</v>
       </c>
       <c r="N210" t="n">
-        <v>0.112256874668722</v>
+        <v>0.107073429861093</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2366517693886755</v>
+        <v>0.1206603797653766</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02097839653377593</v>
+        <v>0.006914795051383343</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2372002539693986</v>
+        <v>0.04840263465224257</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02998368252317594</v>
+        <v>0.02877832222362106</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2385022330418932</v>
+        <v>0.1234137166181102</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07076804172271683</v>
+        <v>0.06763783475881174</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2388146413190746</v>
+        <v>0.1211510455554404</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1128669313200756</v>
+        <v>0.1070194318444291</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2382838505568732</v>
+        <v>0.1214925203154826</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01999770028506066</v>
+        <v>0.006888423893628363</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2388249132431616</v>
+        <v>0.04840236612377856</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0299109065378426</v>
+        <v>0.02846376211575249</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2401358099805363</v>
+        <v>0.1242590160470014</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07093317497468116</v>
+        <v>0.06830466306300112</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2404503580404381</v>
+        <v>0.121980847237327</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1122685637153708</v>
+        <v>0.1074667208113587</v>
       </c>
       <c r="O212" t="n">
-        <v>0.239915931725071</v>
+        <v>0.1223246608655886</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02201535567200532</v>
+        <v>0.006872286619568409</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2404495725169246</v>
+        <v>0.04840209759531454</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03013585621625807</v>
+        <v>0.02864955161432577</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2417693869191794</v>
+        <v>0.1251043154758925</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0709928949128204</v>
+        <v>0.06797223715345735</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2420860747618016</v>
+        <v>0.1228106489192136</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1125616747117045</v>
+        <v>0.1073152071815498</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2415480128932687</v>
+        <v>0.1231568014156947</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02003134403920142</v>
+        <v>0.00686681220112232</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2420742317906876</v>
+        <v>0.04840182906685053</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02995850559339995</v>
+        <v>0.0285356656906324</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2434029638578225</v>
+        <v>0.1259496149047837</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07164713960677821</v>
+        <v>0.06794050077804337</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2437217914831651</v>
+        <v>0.1236404506011002</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1123461671661742</v>
+        <v>0.1071648013746705</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2431800940614665</v>
+        <v>0.1239889419658007</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02204564673124051</v>
+        <v>0.00686681220112232</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2436988910644506</v>
+        <v>0.04840182906685053</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03007882870424591</v>
+        <v>0.02852207931596384</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2450365407964657</v>
+        <v>0.1267949143336748</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07119584712619814</v>
+        <v>0.06810939768462226</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2453575082045286</v>
+        <v>0.1244702522829867</v>
       </c>
       <c r="N215" t="n">
-        <v>0.112721943935877</v>
+        <v>0.1077154138103891</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2448121752296643</v>
+        <v>0.1248210825159068</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02105824509271408</v>
+        <v>0.006638297164591793</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2453235503382137</v>
+        <v>0.04838654145017997</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02999679958377353</v>
+        <v>0.02870876746161159</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2466701177351088</v>
+        <v>0.127640213762566</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07123895554072376</v>
+        <v>0.06787887162105694</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2469932249258922</v>
+        <v>0.1253000539648733</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1124889078779098</v>
+        <v>0.1073669549083736</v>
       </c>
       <c r="O216" t="n">
-        <v>0.246444256397862</v>
+        <v>0.1256532230660128</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02006912046821364</v>
+        <v>0.006414924779905865</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2469482096119766</v>
+        <v>0.0483712538335094</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02991239226696048</v>
+        <v>0.02849570509886712</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2483036946737519</v>
+        <v>0.1284855131914572</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07167640291999872</v>
+        <v>0.06774886633521041</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2486289416472557</v>
+        <v>0.1261298556467599</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1123469618493703</v>
+        <v>0.1074193350882924</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2480763375660598</v>
+        <v>0.1264853636161189</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02007825420233073</v>
+        <v>0.006197075870470053</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2485728688857397</v>
+        <v>0.04835596621683885</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03022558078878436</v>
+        <v>0.02838286719902193</v>
       </c>
       <c r="K218" t="n">
-        <v>0.249937271612395</v>
+        <v>0.1293308126203483</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07120812733366652</v>
+        <v>0.06741932557494568</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2502646583686192</v>
+        <v>0.1269596573286465</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1122960087073552</v>
+        <v>0.1071724647698132</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2497084187342576</v>
+        <v>0.1273175041662249</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02008562763965683</v>
+        <v>0.005985131259689636</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2501975281595026</v>
+        <v>0.04834067860016829</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0301363391842228</v>
+        <v>0.02857022873336748</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2515708485510381</v>
+        <v>0.1301761120492395</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07153406685137079</v>
+        <v>0.06799019308812571</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2519003750899828</v>
+        <v>0.1277894590105331</v>
       </c>
       <c r="N219" t="n">
-        <v>0.113435951308962</v>
+        <v>0.1068262543726046</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2513404999024553</v>
+        <v>0.128149644716331</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02009122212478349</v>
+        <v>0.005779471770970129</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2518221874332656</v>
+        <v>0.04832539098349773</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03004464148825346</v>
+        <v>0.02865776467319525</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2532044254896812</v>
+        <v>0.1310214114781307</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07125415954275502</v>
+        <v>0.06776141262261351</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2535360918113463</v>
+        <v>0.1286192606924196</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1129666925112876</v>
+        <v>0.1064806143163345</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2529725810706531</v>
+        <v>0.128981785266437</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02209501900230221</v>
+        <v>0.005580478227716998</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2534468467070287</v>
+        <v>0.04831010336682717</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03015046173585396</v>
+        <v>0.02864544998979676</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2548380024283243</v>
+        <v>0.1318667109070218</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07176834347746291</v>
+        <v>0.06803292792627202</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2551718085327098</v>
+        <v>0.1294490623743062</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1128881351714294</v>
+        <v>0.106335455020671</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2546046622388508</v>
+        <v>0.1298139258165431</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02009699961680449</v>
+        <v>0.00538853145333567</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2550715059807917</v>
+        <v>0.04829481575015661</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03005377396200193</v>
+        <v>0.02853325965446346</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2564715793669674</v>
+        <v>0.132712010335913</v>
       </c>
       <c r="L222" t="n">
-        <v>0.071476556725138</v>
+        <v>0.06740468274696432</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2568075252540734</v>
+        <v>0.1302788640561928</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1127001821464846</v>
+        <v>0.1065906869052824</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2562367434070486</v>
+        <v>0.1306460663666491</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02009221441631443</v>
+        <v>0.005204012271231587</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2566961652545546</v>
+        <v>0.04827952813348604</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03005308127860704</v>
+        <v>0.02862116863848685</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2581051563056105</v>
+        <v>0.1335573097648042</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07127690276552862</v>
+        <v>0.06747662083255329</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2584432419754369</v>
+        <v>0.1311086657380794</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1127948923869336</v>
+        <v>0.1064462203898368</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2578688245752463</v>
+        <v>0.1314782069167551</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02204115065166708</v>
+        <v>0.005027301504810198</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2583208245283177</v>
+        <v>0.04826424051681549</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02999922122628587</v>
+        <v>0.0284091519131584</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2597387332442536</v>
+        <v>0.1344026091936953</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07135829758977366</v>
+        <v>0.06724868593090194</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2600789586968004</v>
+        <v>0.131938467419966</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1130825786278736</v>
+        <v>0.1062019658940023</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2595009057434441</v>
+        <v>0.1323103474668612</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02093994120407981</v>
+        <v>0.00485877997747701</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2599454838020807</v>
+        <v>0.04824895290014493</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02987418078191212</v>
+        <v>0.02839718444976957</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2613723101828967</v>
+        <v>0.1352479086225865</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07146912868083463</v>
+        <v>0.06752082178987334</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2617146754181639</v>
+        <v>0.1327682691018525</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1119048238749098</v>
+        <v>0.106357833837447</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2611329869116419</v>
+        <v>0.1331424880169672</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0197944017736957</v>
+        <v>0.004698828512637331</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2615701430758436</v>
+        <v>0.04823366528347437</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02968605436938618</v>
+        <v>0.02848524121961189</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2630058871215398</v>
+        <v>0.1360932080514777</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07042870241750157</v>
+        <v>0.06779297215733038</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2633503921395274</v>
+        <v>0.1335980707837391</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1117919117851536</v>
+        <v>0.1064137346398392</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2627650680798396</v>
+        <v>0.1339746285670733</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01961034806065786</v>
+        <v>0.004547827933696666</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2631948023496067</v>
+        <v>0.04821837766680381</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02954293641260847</v>
+        <v>0.02827329719397685</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2646394640601828</v>
+        <v>0.1369385074803688</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07035632517856447</v>
+        <v>0.06716508078113606</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2649861088608909</v>
+        <v>0.1344278724656257</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1100741260157164</v>
+        <v>0.106569578720847</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2643971492480374</v>
+        <v>0.1348067691171793</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02039359576510936</v>
+        <v>0.004406159064060472</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2648194616233697</v>
+        <v>0.04820309005013325</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02935292133547943</v>
+        <v>0.02846132734415587</v>
       </c>
       <c r="K228" t="n">
-        <v>0.266273040998826</v>
+        <v>0.13778380690926</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06957130334281328</v>
+        <v>0.06743709140915344</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2666218255822545</v>
+        <v>0.1352576741475123</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1093817502237094</v>
+        <v>0.1066252765001384</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2660292304162352</v>
+        <v>0.1356389096672854</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02014996058719331</v>
+        <v>0.004274202727134184</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2664441208971327</v>
+        <v>0.04818780243346268</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02892410356189944</v>
+        <v>0.02844930664144045</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2679066179374691</v>
+        <v>0.1386291063381511</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06879294328903812</v>
+        <v>0.06710894778924542</v>
       </c>
       <c r="M229" t="n">
-        <v>0.268257542303618</v>
+        <v>0.1360874758293988</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1084450680662442</v>
+        <v>0.1069807383973818</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2676613115844329</v>
+        <v>0.1364710502173914</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02088525822705279</v>
+        <v>0.004152339746323244</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2680687801708957</v>
+        <v>0.04817251481679213</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02846457751576896</v>
+        <v>0.02823721005712213</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2695401948761122</v>
+        <v>0.1394744057670423</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06784055139602896</v>
+        <v>0.06758059366927502</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2698932590249815</v>
+        <v>0.1369172775112854</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1068943632004321</v>
+        <v>0.1070358748322451</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2692933927526307</v>
+        <v>0.1373031907674974</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02060530438483089</v>
+        <v>0.004040950945033137</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2696934394446587</v>
+        <v>0.04815722720012157</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02818243762098842</v>
+        <v>0.02842501256249232</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2711737718147553</v>
+        <v>0.1403197051959335</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06653343404257581</v>
+        <v>0.06755197279710523</v>
       </c>
       <c r="M231" t="n">
-        <v>0.271528975746345</v>
+        <v>0.137747079193172</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1052599192833843</v>
+        <v>0.1064905962243964</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2709254739208284</v>
+        <v>0.1381353313176035</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02031591476067073</v>
+        <v>0.003940417146669213</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2713180987184217</v>
+        <v>0.04814193958345101</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02788577830145822</v>
+        <v>0.02841268912884252</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2728073487533984</v>
+        <v>0.1411650046248247</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06559089760746875</v>
+        <v>0.06742307824713148</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2731646924677086</v>
+        <v>0.1385768808750586</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1043720199722125</v>
+        <v>0.1058448597774778</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2725575550890262</v>
+        <v>0.1389674718677096</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02002290505471536</v>
+        <v>0.003851119174636972</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2729427579921847</v>
+        <v>0.04812665196678045</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02718269398107878</v>
+        <v>0.02830030276322743</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2744409256920415</v>
+        <v>0.1420103040537158</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06463224846949767</v>
+        <v>0.067694323724873</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2748004091890721</v>
+        <v>0.1394066825569452</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1027609489240278</v>
+        <v>0.1058992911475988</v>
       </c>
       <c r="O233" t="n">
-        <v>0.274189636257224</v>
+        <v>0.1397996124178156</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01873209096710789</v>
+        <v>0.003773437852341854</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2745674172659477</v>
+        <v>0.04811136435010989</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02688127908375054</v>
+        <v>0.0282880194107954</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2760745026306846</v>
+        <v>0.142855603482607</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06417679300745271</v>
+        <v>0.06746581874536037</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2764361259104356</v>
+        <v>0.1402364842388317</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1013569897959418</v>
+        <v>0.1065541181149589</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2758217174254217</v>
+        <v>0.1406317529679216</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01744928819799141</v>
+        <v>0.003707754003189297</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2761920765397107</v>
+        <v>0.04809607673343932</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0265896280333739</v>
+        <v>0.028175845991286</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2777080795693277</v>
+        <v>0.1437009029114982</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06304383760012383</v>
+        <v>0.06723756819021148</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2780718426317992</v>
+        <v>0.1410662859207183</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09949042624506554</v>
+        <v>0.1061093484534306</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2774537985936195</v>
+        <v>0.1414638935180277</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01918031244750901</v>
+        <v>0.003654448450584734</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2778167358134737</v>
+        <v>0.04808078911676877</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02631583525384931</v>
+        <v>0.02816378467671611</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2793416565079708</v>
+        <v>0.1445462023403893</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06205268862630106</v>
+        <v>0.06700957694104429</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2797075593531627</v>
+        <v>0.1418960876026049</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09779154192851069</v>
+        <v>0.1065649899368867</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2790858797618173</v>
+        <v>0.1422960340681337</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01693097941580379</v>
+        <v>0.00361390201793365</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2794413950872368</v>
+        <v>0.04806550150009821</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02576799516907716</v>
+        <v>0.02825183763910259</v>
       </c>
       <c r="K237" t="n">
-        <v>0.280975233446614</v>
+        <v>0.1453915017692805</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06102265246477442</v>
+        <v>0.06758184987947657</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2813432760745262</v>
+        <v>0.1427258892844915</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0972906205033886</v>
+        <v>0.1065210503391998</v>
       </c>
       <c r="O237" t="n">
-        <v>0.280717960930015</v>
+        <v>0.1431281746182398</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01669998122616006</v>
+        <v>0.003586495528641431</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2810660543609997</v>
+        <v>0.04805021388342765</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0253480976947314</v>
+        <v>0.0282400070504624</v>
       </c>
       <c r="K238" t="n">
-        <v>0.282608810385257</v>
+        <v>0.1462368011981716</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06086030189681163</v>
+        <v>0.06715439188712627</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2829789927958897</v>
+        <v>0.1435556909663781</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09599297889917524</v>
+        <v>0.1061775374342425</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2823500420982128</v>
+        <v>0.1439603151683458</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01746939546605975</v>
+        <v>0.003572609806113541</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2826907136347627</v>
+        <v>0.04803492626675709</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02503082431965394</v>
+        <v>0.02812829508281235</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2842423873239001</v>
+        <v>0.1470821006270628</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06000563237493778</v>
+        <v>0.06722720784561131</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2846147095172533</v>
+        <v>0.1443854926482646</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0947036829692533</v>
+        <v>0.1056344589958876</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2839821232664105</v>
+        <v>0.1447924557184519</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01623793642450783</v>
+        <v>0.003571070644849871</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2843153729085258</v>
+        <v>0.04801963865008653</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02491234474373326</v>
+        <v>0.02821670390816933</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2858759642625432</v>
+        <v>0.147927400055954</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05874809114788224</v>
+        <v>0.06690030263654956</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2862504262386168</v>
+        <v>0.1452152943301512</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09290986850212718</v>
+        <v>0.1062918227980078</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2856142044346083</v>
+        <v>0.1456245962685579</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01800559032389498</v>
+        <v>0.003572928694822529</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2859400321822888</v>
+        <v>0.04800435103341597</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02439263979097904</v>
+        <v>0.02810523569855025</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2875095412011863</v>
+        <v>0.1487726994848451</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0584876324781175</v>
+        <v>0.06677368114155888</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2878861429599803</v>
+        <v>0.1460450960120378</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09231146375469018</v>
+        <v>0.1057496366144756</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2872462856028061</v>
+        <v>0.1464567368186639</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01577234338661188</v>
+        <v>0.003577009750531365</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2875646914560517</v>
+        <v>0.04798906341674541</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02437169028540084</v>
+        <v>0.02839389262597196</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2891431181398295</v>
+        <v>0.1496179989137363</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05772421062811645</v>
+        <v>0.06704734824225719</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2895218596813438</v>
+        <v>0.1468748976939244</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09050839698383556</v>
+        <v>0.1058079082191637</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2888783667710038</v>
+        <v>0.14728887736877</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01753818183504926</v>
+        <v>0.00358369463538185</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2891893507298148</v>
+        <v>0.04797377580007485</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02374947705100827</v>
+        <v>0.02808267686245139</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2907766950784726</v>
+        <v>0.1504632983426275</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0570577798603516</v>
+        <v>0.06712130882026235</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2911575764027073</v>
+        <v>0.1477046993758109</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08950059644645658</v>
+        <v>0.1061666453859449</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2905104479392016</v>
+        <v>0.1481210179188761</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0163030918915978</v>
+        <v>0.003593364172779424</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2908140100035778</v>
+        <v>0.04795848818340429</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02352598091181095</v>
+        <v>0.02807159058000536</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2924102720171157</v>
+        <v>0.1513085977715186</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05638829443729576</v>
+        <v>0.0670955677571923</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2927932931240709</v>
+        <v>0.1485345010576975</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08868799039944641</v>
+        <v>0.1062258558886919</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2921425291073994</v>
+        <v>0.1489531584689821</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01706705977864819</v>
+        <v>0.003606399186129518</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2924386692773407</v>
+        <v>0.04794320056673373</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02340118269181851</v>
+        <v>0.02836063595065079</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2940438489557588</v>
+        <v>0.1521538972004098</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05501570862142155</v>
+        <v>0.06667012993466487</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2944290098454344</v>
+        <v>0.1493643027395841</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08687050709969868</v>
+        <v>0.106385547501277</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2937746102755971</v>
+        <v>0.1497852990190881</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01683007171859112</v>
+        <v>0.003623180498837579</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2940633285511037</v>
+        <v>0.04792791295006317</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02277506321504055</v>
+        <v>0.02814981514640455</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2956774258944019</v>
+        <v>0.152999196629301</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05413997667520173</v>
+        <v>0.06734500023429799</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2960647265667979</v>
+        <v>0.1501941044214707</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08544807480410632</v>
+        <v>0.1063457279975734</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2954066914437949</v>
+        <v>0.1506174395691942</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01659211393381729</v>
+        <v>0.00364408893430905</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2956879878248668</v>
+        <v>0.04791262533339261</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02244760330548667</v>
+        <v>0.02823913033928355</v>
       </c>
       <c r="K247" t="n">
-        <v>0.297311002833045</v>
+        <v>0.1538444960581921</v>
       </c>
       <c r="L247" t="n">
-        <v>0.053661052861109</v>
+        <v>0.06702018353770953</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2977004432881614</v>
+        <v>0.1510239061033573</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08462062176956275</v>
+        <v>0.1060064051514533</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2970387726119926</v>
+        <v>0.1514495801193002</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01435317264671741</v>
+        <v>0.003669505315949374</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2973126470986298</v>
+        <v>0.04789733771672205</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02241878378716647</v>
+        <v>0.02802858370130464</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2989445797716881</v>
+        <v>0.1546897954870833</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05297889144161602</v>
+        <v>0.06679568472651737</v>
       </c>
       <c r="M248" t="n">
-        <v>0.299336160009525</v>
+        <v>0.1518537077852438</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08358807625296116</v>
+        <v>0.1051675867367897</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2986708537801904</v>
+        <v>0.1522817206694063</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01611323407968215</v>
+        <v>0.003699810467163993</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2989373063723927</v>
+        <v>0.04788205010005149</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02188858548408959</v>
+        <v>0.0281181774044847</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3005781567103312</v>
+        <v>0.1555350949159745</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05239344667919557</v>
+        <v>0.06697150868233942</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3009718767308885</v>
+        <v>0.1526835094671304</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08215036651119495</v>
+        <v>0.1056292805274551</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3003029349483882</v>
+        <v>0.1531138612195123</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01487228445510223</v>
+        <v>0.003735385211358355</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3005619656461558</v>
+        <v>0.04786676248338093</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02155698922026561</v>
+        <v>0.02830791362084065</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3022117336489743</v>
+        <v>0.1563803943448656</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05170467283632019</v>
+        <v>0.06684766028679359</v>
       </c>
       <c r="M250" t="n">
-        <v>0.302607593452252</v>
+        <v>0.153513311149017</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08140742080115737</v>
+        <v>0.1060914942973222</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3019350161165859</v>
+        <v>0.1539460017696184</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01563030999536831</v>
+        <v>0.003776610371937897</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3021866249199188</v>
+        <v>0.04785147486671037</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02132397581970417</v>
+        <v>0.02799779452238933</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3038453105876174</v>
+        <v>0.1572256937737568</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05071252417546274</v>
+        <v>0.06712414442149775</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3042433101736156</v>
+        <v>0.1543431128309036</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07995916737974157</v>
+        <v>0.1050542358202637</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3035670972847837</v>
+        <v>0.1547781423197244</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01338729692287112</v>
+        <v>0.003823866772308074</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3038112841936818</v>
+        <v>0.04783618725003981</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02098952610641487</v>
+        <v>0.02798782228114764</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3054788875262605</v>
+        <v>0.158070993202648</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04951695495909586</v>
+        <v>0.0668009659680697</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3058790268949791</v>
+        <v>0.1551729145127902</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07810553450384106</v>
+        <v>0.1060175128701522</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3051991784529814</v>
+        <v>0.1556102828698304</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01314323146000133</v>
+        <v>0.003877535235874315</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3054359434674448</v>
+        <v>0.04782089963336925</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02045362090440733</v>
+        <v>0.02817799906913245</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3071124644649036</v>
+        <v>0.1589162926315391</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04861791944969224</v>
+        <v>0.06657812980812752</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3075147436163426</v>
+        <v>0.1560027161946767</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07694645043034898</v>
+        <v>0.1052813332208604</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3068312596211792</v>
+        <v>0.1564424234199365</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01389809982914965</v>
+        <v>0.003937996586042068</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3070606027412078</v>
+        <v>0.04780561201669869</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02031624103769113</v>
+        <v>0.02796832705836066</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3087460414035467</v>
+        <v>0.1597615920604303</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04851537190972458</v>
+        <v>0.06655564082328894</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3091504603377061</v>
+        <v>0.1568325178765633</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07578184341615857</v>
+        <v>0.1053457046462611</v>
       </c>
       <c r="O254" t="n">
-        <v>0.308463340789377</v>
+        <v>0.1572745639700426</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01365188825270676</v>
+        <v>0.004005631646216749</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3086852620149708</v>
+        <v>0.04779032440002813</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0198773673302759</v>
+        <v>0.02805880842084914</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3103796183421898</v>
+        <v>0.1606068914893215</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04720926660166558</v>
+        <v>0.06693350389517191</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3107861770590696</v>
+        <v>0.1576623195584499</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0751116417181632</v>
+        <v>0.1056106349202268</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3100954219575747</v>
+        <v>0.1581067045201486</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01440458295306337</v>
+        <v>0.004080821239803835</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3103099212887338</v>
+        <v>0.04777503678335757</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01943698060617126</v>
+        <v>0.02804944532861477</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3120131952808329</v>
+        <v>0.1614521909182126</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04669955778798796</v>
+        <v>0.06651172390539431</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3124218937804332</v>
+        <v>0.1584921212403365</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07393577359325609</v>
+        <v>0.1058761318166302</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3117275031257725</v>
+        <v>0.1589388450702546</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01315617015261016</v>
+        <v>0.004163946190208781</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3119345805624968</v>
+        <v>0.04775974916668701</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01919506168938677</v>
+        <v>0.02804023995367445</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3136467722194761</v>
+        <v>0.1622974903471038</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04558619973116435</v>
+        <v>0.06709030573557401</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3140576105017967</v>
+        <v>0.159321922922223</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07205416729833064</v>
+        <v>0.105542203109344</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3133595842939703</v>
+        <v>0.1597709856203607</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01390663607373785</v>
+        <v>0.004255387320836995</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3135592398362598</v>
+        <v>0.04774446155001645</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01905159140393212</v>
+        <v>0.02803119446804506</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3152803491581191</v>
+        <v>0.163142789775995</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04476914669366755</v>
+        <v>0.06646925426732897</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3156933272231602</v>
+        <v>0.1601517246041096</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07096675109027989</v>
+        <v>0.1049088565722409</v>
       </c>
       <c r="O258" t="n">
-        <v>0.314991665462168</v>
+        <v>0.1606031261704667</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0116559669388371</v>
+        <v>0.004355525455093948</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3151838991100228</v>
+        <v>0.04772917393334589</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01860655057381687</v>
+        <v>0.02822231104374347</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3169139260967622</v>
+        <v>0.1639880892048861</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04404835293797016</v>
+        <v>0.06644857438227697</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3173290439445237</v>
+        <v>0.1609815262859962</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06947345322599735</v>
+        <v>0.1047760999791935</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3166237466303658</v>
+        <v>0.1614352667205728</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01140414897029862</v>
+        <v>0.00446474141638506</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3168085583837859</v>
+        <v>0.04771388631667533</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01835992002305065</v>
+        <v>0.02811359185278654</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3185475030354054</v>
+        <v>0.1648333886337773</v>
       </c>
       <c r="L260" t="n">
-        <v>0.043323772726545</v>
+        <v>0.06632827096203597</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3189647606658872</v>
+        <v>0.1618113279678828</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06777420196237621</v>
+        <v>0.1054439411040745</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3182558277985635</v>
+        <v>0.1622674072706788</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01315116839051313</v>
+        <v>0.004583416028115739</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3184332176575488</v>
+        <v>0.04769859870000477</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01801168057564305</v>
+        <v>0.02810503906719122</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3201810799740484</v>
+        <v>0.1656786880626685</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04259536032186462</v>
+        <v>0.06650834888822388</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3206004773872508</v>
+        <v>0.1626411296497693</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06706892555630972</v>
+        <v>0.1053123877207566</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3198879089667613</v>
+        <v>0.1630995478207848</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01189701142187128</v>
+        <v>0.004711930113691518</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3200578769313118</v>
+        <v>0.04768331108333421</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01736181305560369</v>
+        <v>0.02809665485897432</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3218146569126916</v>
+        <v>0.1665239874915596</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04146306998640184</v>
+        <v>0.06648881304245854</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3222361941086143</v>
+        <v>0.1634709313316559</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06625755226469127</v>
+        <v>0.1053814476031124</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3215199901349591</v>
+        <v>0.1639316883708909</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01064166428676379</v>
+        <v>0.004850664496517783</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3216825362050749</v>
+        <v>0.04766802346666365</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01711029828694219</v>
+        <v>0.02818844140015275</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3234482338513346</v>
+        <v>0.1673692869204508</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04112685598262933</v>
+        <v>0.06636966830635782</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3238719108299778</v>
+        <v>0.1643007330135425</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06494001034441399</v>
+        <v>0.1052511285250147</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3231520713031568</v>
+        <v>0.1647638289209969</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01038511320758135</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3233071954788378</v>
+        <v>0.04765273584999309</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01665711709366816</v>
+        <v>0.02798040086274339</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3250818107899778</v>
+        <v>0.168214586349342</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0398866725730197</v>
+        <v>0.06625091956153972</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3255076275513414</v>
+        <v>0.1651305346954291</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06321622805237126</v>
+        <v>0.104921438260336</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3247841524713546</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.165595969471103</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04763957795525625</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005283671276675353</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04763984648372026</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005564549956305349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04764011501218429</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005842549148684678</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0476403835406483</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006117581963632351</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04764065206911232</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006389561510943303</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04764092059757633</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006658400900436311</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04764118912604035</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006924013241906564</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04764145765450437</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007186311645172548</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04764172618296839</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007445209220029753</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0476419947114324</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007700619076296371</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04764226323989642</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.007952454323768191</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04764253176836044</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008200628072263093</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04764280029682446</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008445053431577185</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04764306882528847</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008685643511528021</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04764333735375249</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008922311421912049</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04764360588221651</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009154970272546477</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04764387441068053</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009383533173228091</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04764414293914454</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009607913233768924</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04764441146760855</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009828023563980631</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04764467999607257</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01004377727366055</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04764494852453659</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01025508747262498</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04764521705300061</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01046186727067164</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04764548558146462</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01066402977761644</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04764575410992864</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0108614881032575</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04764602263839266</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01105451015903212</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04764629116685668</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01124513786446937</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04764655969532069</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01143363913100625</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04764682822378472</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01161992706844146</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04764709675224873</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01180391478659001</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04764736528071275</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0119855153952508</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04764763380917676</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01216464200423868</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04764790233764078</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01234120772335274</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0476481708661048</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01251512566240383</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04764843939456881</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01268630893120256</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04764870792303283</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01285467063954841</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04764897645149685</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0130201238972556</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04764924497996087</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01318258181412385</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04764951350842488</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01334195749996716</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0476497820368889</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01349816406458548</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04765005056535292</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01365111461779255</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04765031909381694</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0138007222693886</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04765058762228095</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01394690012918709</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04765085615074497</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01408956130698855</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04765112467920898</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01422861891260609</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.047651393207673</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0143639860558406</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04765166173613702</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01449557584650486</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04765193026460104</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01462330139440009</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04765219879306506</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01474707580933873</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04765246732152908</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01486681220112233</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04765273584999309</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01486681220112233</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04763957795525625</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01495373876626062</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04765540262885484</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01503673098493404</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04767122730245344</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01511581602700521</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04768705197605203</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01519102106233687</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04770287664965062</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01526237326079165</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04771870132324922</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01532989979223223</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04773452599684782</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01539362782652123</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0477503506704464</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01545358453352141</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.047766175344045</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01550979708309536</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0477820000176436</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01556229264510579</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04779782469124219</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01561109838941536</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04781364936484079</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0156562414858867</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04782947403843938</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01569774910438254</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04784529871203797</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01573564841476551</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04786112338563657</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01576996658689829</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04787694805923517</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01580073079064354</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04789277273283375</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01582796819586394</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04790859740643235</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01585170597242216</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04792442208003095</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01587197129018084</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04794024675362954</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01588879131900269</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04795607142722814</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01590219322875034</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04797189610082673</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01591220418928649</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04798772077442532</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01591885137047378</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04800354544802392</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01592216194217491</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04801937012162252</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01592205213064662</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0480351947952211</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01591788344411622</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0480510194688197</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0159095721088405</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0480668441424183</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01589714529468209</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04808266881601689</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01588063017150369</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04809849348961548</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01586005390916796</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04811431816321408</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01583544367753755</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04813014283681267</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01580682664647515</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04814596751041127</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01577422998584342</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04816179218400986</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01573768086550505</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04817761685760845</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01569720645532268</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04819344153120705</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01565283392515898</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04820926620480565</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01560459044487663</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04822509087840424</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0155525031843383</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04824091555200283</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01549659931340665</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04825674022560143</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01543690600194433</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04827256489920002</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01537345041981405</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04828838957279862</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01530625973687845</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04830421424639721</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01523536112300022</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0483200389199958</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01516078174804199</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0483358635935944</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01508254878186647</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04835168826719299</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01500068939433629</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04836751294079158</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01491523075531418</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04838333761439018</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01482620003466274</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04839916228798877</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01473362440224465</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04841498696158737</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01473362440224465</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04841498696158737</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01510189609206285</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04999733146282497</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01546307463809771</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05157967596406256</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01581698961765249</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05316202046530017</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01616347060803044</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05474436496653777</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01650234718653483</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05632670946777536</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01683344893046893</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05790905396901297</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.017156605417136</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05949139847025057</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01747164622383929</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06107374297148817</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01777840092788209</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06265608747272576</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01807669910656763</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06423843197396337</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01836637033719919</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06582077647520097</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01864724419708002</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06740312097643857</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01891915026351339</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06898546547767617</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01918191811380258</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07056780997891376</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01943537732525082</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07215015448015137</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.01967935747516139</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07373249898138896</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.01991368814083756</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07531484348262657</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02013819889958256</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07689718798386418</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0203527193286997</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07847953248510177</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0205570790054922</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08006187698633938</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02075110750726335</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08164422148757697</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02093463441131639</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08322656598881456</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0211074892949546</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08480891049005218</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02126950173548123</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08639125499128977</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02142050131019956</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08797359949252737</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02156031759641284</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08955594399376497</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02168878017142433</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09113828849500256</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02180571861253731</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09272063299624018</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02191096249705501</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09430297749747778</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02200434140228071</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09588532199871537</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02208568490551768</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09746766649995298</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02215482258406917</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09905001100119057</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02221158401523845</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1006323555024282</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02225579877632878</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1022147000036658</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02228729644464342</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1037970445049034</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02231149920299288</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.105379389006141</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0223114835736779</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1069617335073786</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0223085957492132</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1085440780086162</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02230097112189506</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1101264225098538</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02228896944482587</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1117087670110914</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02227295047110799</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.113291111512329</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02225327395384385</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1148734560135666</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0222302996461358</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1164558005148042</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02220438730108622</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1180381450160418</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02217589667179754</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1196204895172794</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02214518751137213</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.121202834018517</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02211261957291234</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1227851785197546</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.0220785526095206</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1243675230209922</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02204334637429926</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1259498675222298</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02200736062035074</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1275322120234674</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0219707124799606</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.129114556524705</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02192262115888276</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1306969010259426</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02185983474995067</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1322792455271802</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02178609532858067</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1338615900284178</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02170514497018918</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1354439345296554</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02162072575019255</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.137026279030893</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02153657974400713</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1386086235321306</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02145644902704932</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1401909680333682</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02138407567473544</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1417733125346058</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02132320176248193</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1433556570358434</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02127756936570514</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.144938001537081</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02124345373616286</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1465203460383186</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02121142291600946</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1481026905395562</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02118127267365273</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02115288309843028</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1512673795420314</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02112613427967971</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.152849724043269</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02110090630673867</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1544320685445066</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02107707926894477</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1560144130457442</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02105453325563561</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1575967575469818</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02103314835614883</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1591791020482194</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02101280465982203</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.160761446549457</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02099338225599284</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1623437910506946</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02097476123399886</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1639261355519322</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02095682168317774</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1655084800531698</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02093944369286707</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1670908245544074</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02092250735240449</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.168673169055645</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0209058927511276</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1702555135568826</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02088947997837402</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1718378580581202</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02087314912348139</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1734202025593578</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0208567802757873</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1750025470605954</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02084025352462938</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.176584891561833</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02082344895934526</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1781672360630706</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02080659788550952</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1797495805643082</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02079002842206901</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1813319250655458</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02077375099363899</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1829142695667834</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02075777600618913</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.184496614068021</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02074211386568917</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1860789585692586</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02072677497810883</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1876613030704962</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02071176974941784</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1892436475717338</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02069710858558592</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1908259920729714</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02068280189258279</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.192408336574209</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02066886007637817</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1939906810754466</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02065529354294178</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1955730255766842</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02064211269824336</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1971553700779218</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02062932794825262</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1987377145791594</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02061694969893928</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.200320059080397</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02060498835627307</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2019024035816346</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02059345432622371</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2034847480828722</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02058235801476093</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2050670925841098</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
